--- a/data/golestan_courses_3981.xlsx
+++ b/data/golestan_courses_3981.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kamyar\Dropbox\PC\Documents\Uni\Sem6\Analysis and Designing System\Katyusha\Back-End\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09AFF3F-B0C7-490C-ACBC-2C6D5746DCA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A8F7FB-BEA5-4EE8-B8A9-D4088DAC76A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -124,7 +124,7 @@
     <t>مختلط</t>
   </si>
   <si>
-    <t>صدر علی</t>
+    <t>علی صدر</t>
   </si>
   <si>
     <t>درس(ت): شنبه      15:30-17:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 211، درس(ت): دوشنبه    15:30-17:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 211</t>
@@ -139,7 +139,7 @@
     <t>بی اثر</t>
   </si>
   <si>
-    <t xml:space="preserve">ندارد </t>
+    <t>ندارد</t>
   </si>
   <si>
     <t>عادی</t>
@@ -163,7 +163,7 @@
     <t>12</t>
   </si>
   <si>
-    <t>جعفری آبشوری حسین علیرونق ششکلانی نازلی</t>
+    <t>نازلی جعفری آبشوری حسین علیرونق ششکلانی</t>
   </si>
   <si>
     <t>درس(ع): شنبه      10:00-13:00 مکان: دانشکده برق (شهید چمران) آزمایشگاه مدار منطقی و تکنیک پالس</t>
@@ -181,7 +181,7 @@
     <t>10</t>
   </si>
   <si>
-    <t>جلیلیان خالقی حمیدرضابیدوند کبری</t>
+    <t>کبری جلیلیان خالقی حمیدرضابیدوند</t>
   </si>
   <si>
     <t>درس(ع): دوشنبه    07:00-10:00 مکان: دانشکده برق (شهید چمران) آزمایشگاه مدار منطقی و تکنیک پالس</t>
@@ -190,7 +190,7 @@
     <t>1211012_04</t>
   </si>
   <si>
-    <t>جعفری آبشوری حسین علیصوفی کریمی هیوا</t>
+    <t>هیوا جعفری آبشوری حسین علیصوفی کریمی</t>
   </si>
   <si>
     <t>درس(ع): دوشنبه    10:00-13:00 مکان: دانشکده برق (شهید چمران) آزمایشگاه مدار منطقی و تکنیک پالس</t>
@@ -199,7 +199,7 @@
     <t>1211012_05</t>
   </si>
   <si>
-    <t>جلیلیان خالقی حمیدرضافاطمی اردستانی اعظم السادات</t>
+    <t>السادات جلیلیان خالقی حمیدرضافاطمی اردستانی اعظم</t>
   </si>
   <si>
     <t>درس(ع): دوشنبه    15:30-18:30 مکان: دانشکده برق (شهید چمران) آزمایشگاه مدار منطقی و تکنیک پالس</t>
@@ -223,7 +223,7 @@
     <t>9</t>
   </si>
   <si>
-    <t>جلیلیان خالقی حمیدرضاصوفی کریمی هیوا</t>
+    <t>هیوا جلیلیان خالقی حمیدرضاصوفی کریمی</t>
   </si>
   <si>
     <t>درس(ع): چهارشنبه  13:30-16:30 مکان: دانشکده برق (شهید چمران) آزمایشگاه مدار منطقی و تکنیک پالس</t>
@@ -238,7 +238,7 @@
     <t>33</t>
   </si>
   <si>
-    <t>موسوی میرکلائی سید محمدرضا</t>
+    <t>سید محمدرضاموسوی میرکلائی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      15:30-17:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 212، درس(ت): دوشنبه    15:30-17:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 212</t>
@@ -256,7 +256,7 @@
     <t>16</t>
   </si>
   <si>
-    <t>اسماعیل زاده سیدمجید</t>
+    <t>سید مجیداسماعیل زاده</t>
   </si>
   <si>
     <t>درس(ت): شنبه      15:30-17:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 203، درس(ت): دوشنبه    15:30-17:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 203</t>
@@ -274,7 +274,7 @@
     <t>29</t>
   </si>
   <si>
-    <t>بلندی حسیناسماعیل زاده سیدمجید</t>
+    <t>سید مجیدبلندی حسیناسماعیل زاده</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   15:30-17:30 نیمه1 ت مکان: دانشکده برق (شهید چمران) کلاس شماره 209، درس(ت): سه شنبه   15:30-17:30 نیمه1 ت مکان: دانشکده برق (شهید چمران) کلاس شماره 209، درس(ت): یک شنبه   15:30-17:30 نیمه2 ت مکان: دانشکده برق (شهید چمران) کلاس شماره 209، درس(ت): سه شنبه   15:30-17:30 نیمه2 ت مکان: دانشکده برق (شهید چمران) کلاس شماره 209</t>
@@ -295,7 +295,7 @@
     <t>19</t>
   </si>
   <si>
-    <t>چوپانکاره عباسعلیمیرشفیعی سیدمحمدعلی</t>
+    <t>سید محمدعلیچوپانکاره عباسعلیمیرشفیعی</t>
   </si>
   <si>
     <t>درس(ع): سه شنبه   15:30-18:30 مکان: دانشکده برق (کارگاه برق) کارگاه برق</t>
@@ -334,7 +334,7 @@
     <t>21</t>
   </si>
   <si>
-    <t>محمدزاده ثانی هاجر</t>
+    <t>هاجر محمدزاده ثانی</t>
   </si>
   <si>
     <t>درس(ع): چهارشنبه  13:30-16:30</t>
@@ -355,7 +355,7 @@
     <t>1211030_03</t>
   </si>
   <si>
-    <t>یوسفی لادمخی نعیم</t>
+    <t>نعیم یوسفی لادمخی</t>
   </si>
   <si>
     <t>درس(ع): سه شنبه   13:30-16:30</t>
@@ -379,7 +379,7 @@
     <t>11</t>
   </si>
   <si>
-    <t>حبیبی دهکا ژالهبیدوند کبری</t>
+    <t>کبری حبیبی دهکا ژالهبیدوند</t>
   </si>
   <si>
     <t>درس(ع): شنبه      10:00-13:00 مکان: دانشکده برق (شهید چمران) آزمایشگاه الکترونیک 1</t>
@@ -415,7 +415,7 @@
     <t>1211033_09</t>
   </si>
   <si>
-    <t>حبیبی دهکا ژالهزندبگله احمد</t>
+    <t>احمد حبیبی دهکا ژالهزندبگله</t>
   </si>
   <si>
     <t>درس(ع): چهارشنبه  16:30-19:30 مکان: دانشکده برق (شهید چمران) آزمایشگاه الکترونیک 1</t>
@@ -430,7 +430,7 @@
     <t>50</t>
   </si>
   <si>
-    <t>ابریشمی فر سید ادیب</t>
+    <t>سید ادیبابریشمی فر</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 203، درس(ت): دوشنبه    10:00-12:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 203</t>
@@ -448,7 +448,7 @@
     <t>48</t>
   </si>
   <si>
-    <t>آیت اللهی احمد</t>
+    <t>احمد آیت اللهی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 206، درس(ت): دوشنبه    10:00-12:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 206</t>
@@ -460,7 +460,7 @@
     <t>آزمایشگاه الکترونیک 2</t>
   </si>
   <si>
-    <t>جلیلیان خالقی حمیدرضازندبگله احمد</t>
+    <t>احمد جلیلیان خالقی حمیدرضازندبگله</t>
   </si>
   <si>
     <t>درس(ع): شنبه      10:00-13:00 مکان: دانشکده برق (شهید چمران) آزمایشگاه الترونیک 2 و 3</t>
@@ -475,7 +475,7 @@
     <t>7</t>
   </si>
   <si>
-    <t>فریبرز جمشیدحبیبی دهکا ژاله</t>
+    <t>ژاله فریبرز جمشیدحبیبی دهکا</t>
   </si>
   <si>
     <t>درس(ع): شنبه      13:30-16:30 مکان: دانشکده برق (شهید چمران) آزمایشگاه الترونیک 2 و 3</t>
@@ -496,7 +496,7 @@
     <t>39</t>
   </si>
   <si>
-    <t>شمقدری سعید</t>
+    <t>سعید شمقدری</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 206، درس(ت): سه شنبه   10:00-12:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 206</t>
@@ -514,7 +514,7 @@
     <t>37</t>
   </si>
   <si>
-    <t>گنجه فر سهیل</t>
+    <t>سهیل گنجه فر</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 215، درس(ت): سه شنبه   10:00-12:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 215</t>
@@ -526,7 +526,7 @@
     <t>آزمایشگاه سیستمهای کنترل خطی</t>
   </si>
   <si>
-    <t>مختاری دزکی سینا</t>
+    <t>سینا مختاری دزکی</t>
   </si>
   <si>
     <t>درس(ع): چهارشنبه  07:00-10:00 مکان: دانشکده برق (شهید چمران) آزمایشگاه سیستم کنترل خطی</t>
@@ -541,7 +541,7 @@
     <t>1211037_02</t>
   </si>
   <si>
-    <t>زارع خورمیزی علیرضا</t>
+    <t>علیرضا زارع خورمیزی</t>
   </si>
   <si>
     <t>درس(ع): یک شنبه   15:30-18:30 مکان: دانشکده برق (شهید چمران) آزمایشگاه سیستم کنترل خطی</t>
@@ -586,7 +586,7 @@
     <t>32</t>
   </si>
   <si>
-    <t>کرمی محمدعظیم</t>
+    <t>محمدعظیم کرمی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   15:30-17:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 204، درس(ت): سه شنبه   15:30-17:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 204</t>
@@ -601,7 +601,7 @@
     <t>الکترونیک 3</t>
   </si>
   <si>
-    <t>فریبرز جمشید</t>
+    <t>جمشید فریبرز</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 202، درس(ت): سه شنبه   08:00-10:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 202</t>
@@ -622,7 +622,7 @@
     <t>1211044_03</t>
   </si>
   <si>
-    <t>فریبرز جمشیددل پسند مهتاب</t>
+    <t>مهتاب فریبرز جمشیددل پسند</t>
   </si>
   <si>
     <t>درس(ع): چهارشنبه  16:30-19:30 مکان: دانشکده برق (شهید چمران) آزمایشگاه الترونیک 2 و 3</t>
@@ -655,7 +655,7 @@
     <t>1211046_04</t>
   </si>
   <si>
-    <t>فریبرز جمشیدزندبگله احمد</t>
+    <t>احمد فریبرز جمشیدزندبگله</t>
   </si>
   <si>
     <t>درس(ع): سه شنبه   15:30-17:30 مکان: دانشکده برق (شهید چمران) آزمایشگاه مدار منطقی و تکنیک پالس</t>
@@ -670,7 +670,7 @@
     <t>26</t>
   </si>
   <si>
-    <t>شاه حسینی هادی شهریار</t>
+    <t>شهریار شاه حسینی هادی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 216، درس(ت): سه شنبه   10:00-12:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 216</t>
@@ -685,7 +685,7 @@
     <t>13</t>
   </si>
   <si>
-    <t>حریه  سیدسجادخسروی محمدرضا</t>
+    <t>سجادخسروی محمدرضاحریه سید</t>
   </si>
   <si>
     <t>درس(ع): شنبه      10:00-13:00 مکان: دانشکده برق (شهید چمران) آزمایشگاه اجزاء و میکروپروسسور</t>
@@ -751,7 +751,7 @@
     <t>23</t>
   </si>
   <si>
-    <t>واحدی ابوالفضل</t>
+    <t>ابوالفضل واحدی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 204، درس(ت): دوشنبه    10:00-12:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 204</t>
@@ -769,7 +769,7 @@
     <t>24</t>
   </si>
   <si>
-    <t>خالقی غلامحسینپورمسگری مجیدمحمدی عبدالحسین</t>
+    <t>عبدالحسین خالقی غلامحسینپورمسگری مجیدمحمدی</t>
   </si>
   <si>
     <t>درس(ع): شنبه      07:00-10:00</t>
@@ -790,7 +790,7 @@
     <t>1211064_03</t>
   </si>
   <si>
-    <t>صادقی نقندر ابراهیمپورمسگری مجیدشریفی صدیقهمحمدی عبدالحسین</t>
+    <t>عبدالحسین صادقی نقندر ابراهیمپورمسگری مجیدشریفی صدیقهمحمدی</t>
   </si>
   <si>
     <t>درس(ع): دوشنبه    07:00-10:00</t>
@@ -829,7 +829,7 @@
     <t>51</t>
   </si>
   <si>
-    <t>حکمتی ارسلان</t>
+    <t>ارسلان حکمتی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 203، درس(ت): سه شنبه   08:00-10:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 203</t>
@@ -853,7 +853,7 @@
     <t>53</t>
   </si>
   <si>
-    <t>عرب خابوری داود</t>
+    <t>داود عرب خابوری</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 206، درس(ت): سه شنبه   08:00-10:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 206</t>
@@ -865,7 +865,7 @@
     <t>مدارهای الکتریکی 2</t>
   </si>
   <si>
-    <t>غفاری ابوذر</t>
+    <t>ابوذر غفاری</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 212، درس(ت): سه شنبه   08:00-10:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 212</t>
@@ -880,7 +880,7 @@
     <t>آزمایشگاه مدارهای الکتریکی و اندازه گیری</t>
   </si>
   <si>
-    <t>میری آشتیانی سیده نغمهفاطمی اردستانی اعظم السادات</t>
+    <t>اعظم الساداتمیری آشتیانی سید ه نغمهفاطمی اردستانی</t>
   </si>
   <si>
     <t>درس(ع): شنبه      07:00-10:00 مکان: دانشکده برق (شهید چمران) آزمایشگاه مدار و اندازه گیری</t>
@@ -913,7 +913,7 @@
     <t>ماشین های الکتریکی 1</t>
   </si>
   <si>
-    <t>کلانتر محسن</t>
+    <t>محسن کلانتر</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 212، درس(ت): دوشنبه    08:00-10:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 212</t>
@@ -937,7 +937,7 @@
     <t>40</t>
   </si>
   <si>
-    <t>حیدری حسین</t>
+    <t>حسین حیدری</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   15:30-17:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 214، درس(ت): سه شنبه   15:30-17:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 214</t>
@@ -952,7 +952,7 @@
     <t>44</t>
   </si>
   <si>
-    <t>جلیلیان علیرضا</t>
+    <t>علیرضا جلیلیان</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   15:30-17:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 206، درس(ت): سه شنبه   15:30-17:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 206</t>
@@ -964,7 +964,7 @@
     <t>الکترونیک صنعتی</t>
   </si>
   <si>
-    <t>شولایی عباس</t>
+    <t>عباس شولایی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 209، درس(ت): سه شنبه   10:00-12:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 209</t>
@@ -979,7 +979,7 @@
     <t>آزمایشگاه ماشین الکتریکی2</t>
   </si>
   <si>
-    <t>اشعریون ابوالفضلمیرشفیعی سیدمحمدعلی</t>
+    <t>سید محمدعلیاشعریون ابوالفضلمیرشفیعی</t>
   </si>
   <si>
     <t>درس(ع): یک شنبه   15:30-17:30 مکان: دانشکده برق (شهید چمران) آزمایشگاه ماشین 1 و 2</t>
@@ -997,7 +997,7 @@
     <t>42</t>
   </si>
   <si>
-    <t>جدید شهرام</t>
+    <t>شهرام جدید</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:30-15:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 203، درس(ت): سه شنبه   13:30-15:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 203</t>
@@ -1009,7 +1009,7 @@
     <t>1211080_02</t>
   </si>
   <si>
-    <t>کاظمی احد</t>
+    <t>احد کاظمی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:30-15:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 206، درس(ت): سه شنبه   13:30-15:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 206</t>
@@ -1030,7 +1030,7 @@
     <t>30</t>
   </si>
   <si>
-    <t>فرحناکیان محمد علی</t>
+    <t>علی فرحناکیان محمد</t>
   </si>
   <si>
     <t>درس(ت): چهارشنبه  13:30-15:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 201، درس(ت): چهارشنبه  15:30-17:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 201</t>
@@ -1066,7 +1066,7 @@
     <t>طرح پستهای فشار قوی</t>
   </si>
   <si>
-    <t>احمدیان موسی</t>
+    <t>موسی احمدیان</t>
   </si>
   <si>
     <t>درس(ت): شنبه      13:30-15:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 206، درس(ت): شنبه      15:30-17:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 206</t>
@@ -1084,7 +1084,7 @@
     <t>36</t>
   </si>
   <si>
-    <t>خلج امیرحسینی محمد</t>
+    <t>محمد خلج امیرحسینی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 204، درس(ت): سه شنبه   10:00-12:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 204</t>
@@ -1093,7 +1093,7 @@
     <t>1211125_02</t>
   </si>
   <si>
-    <t>کمجانی برچلویی نادر</t>
+    <t>نادر کمجانی برچلویی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 202، درس(ت): سه شنبه   10:00-12:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 202</t>
@@ -1105,7 +1105,7 @@
     <t>1211125_03</t>
   </si>
   <si>
-    <t>حجت کاشانی فرخ</t>
+    <t>فرخ حجت کاشانی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 205، درس(ت): سه شنبه   10:00-12:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 205</t>
@@ -1129,7 +1129,7 @@
     <t>1211128_03</t>
   </si>
   <si>
-    <t>شکوهیان راد محمدرضاشیرازی حمیدرضا</t>
+    <t>حمیدرضا شکوهیان راد محمدرضاشیرازی</t>
   </si>
   <si>
     <t>درس(ع): دوشنبه    10:00-12:00 مکان: دانشکده برق (شهید چمران) آزمایشگاه ماشین 1 و 2</t>
@@ -1153,7 +1153,7 @@
     <t>آزمایشگاه بررسی سیستمهای قدرت</t>
   </si>
   <si>
-    <t>خلیلی فر مهتاب</t>
+    <t>مهتاب خلیلی فر</t>
   </si>
   <si>
     <t>درس(ع): چهارشنبه  10:00-12:00 مکان: دانشکده برق (آزمایشگاه فشار قوی) آزمایشگاه بررسی سیستم های قدرت</t>
@@ -1168,7 +1168,7 @@
     <t>مدارهای مخابراتی</t>
   </si>
   <si>
-    <t>طیرانی مجید</t>
+    <t>مجید طیرانی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 211، درس(ت): چهارشنبه  08:00-10:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 211</t>
@@ -1183,7 +1183,7 @@
     <t>آزمایشگاه مدارهای مخابراتی</t>
   </si>
   <si>
-    <t>سلمانی سیامکفاطمی اردستانی اعظم السادات</t>
+    <t>السادات سلمانی سیامکفاطمی اردستانی اعظم</t>
   </si>
   <si>
     <t>درس(ع): سه شنبه   10:00-13:00 مکان: دانشکده برق (شهید چمران) آزمایشگاه مخابراتی و سیستم</t>
@@ -1204,7 +1204,7 @@
     <t>فیلترها و سنتزمدار</t>
   </si>
   <si>
-    <t>نظام الحسینی عزآبادی سیدعلیرضا</t>
+    <t>سید علیرضانظام الحسینی عزآبادی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 205، درس(ت): سه شنبه   08:00-10:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 205</t>
@@ -1216,7 +1216,7 @@
     <t>میدان ها و امواج</t>
   </si>
   <si>
-    <t>چلداوی احمد</t>
+    <t>احمد چلداوی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 214، درس(ت): سه شنبه   10:00-12:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 214</t>
@@ -1231,7 +1231,7 @@
     <t>آزمایشگاه مایکروویو1</t>
   </si>
   <si>
-    <t>هاشمی نسب مریم ساداتفاطمی اردستانی اعظم السادات</t>
+    <t>السادات هاشمی نسب مریم ساداتفاطمی اردستانی اعظم</t>
   </si>
   <si>
     <t>درس(ع): سه شنبه   13:30-16:30 مکان: دانشکده برق (شهید چمران) آزمایشگاه مایکرویو</t>
@@ -1255,7 +1255,7 @@
     <t>اصول کنترل مدرن</t>
   </si>
   <si>
-    <t>بلندی حسین</t>
+    <t>حسین بلندی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:30-15:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 209، درس(ت): سه شنبه   13:30-15:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 209</t>
@@ -1270,7 +1270,7 @@
     <t>جبر خطی</t>
   </si>
   <si>
-    <t>عباداللهی سعید</t>
+    <t>سعید عباداللهی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:30-15:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 212، درس(ت): سه شنبه   13:30-15:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 212</t>
@@ -1285,7 +1285,7 @@
     <t>مباحث ویژه در مخابرات</t>
   </si>
   <si>
-    <t>فرهمند شاهرخ</t>
+    <t>شاهرخ فرهمند</t>
   </si>
   <si>
     <t>درس(ت): شنبه      15:30-17:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 201، درس(ت): دوشنبه    15:30-17:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 201</t>
@@ -1300,7 +1300,7 @@
     <t>آزمایشگاه ابزار دقیق</t>
   </si>
   <si>
-    <t>عباداللهی سعیدفاضلی نیا مجتبی</t>
+    <t>مجتبی عباداللهی سعیدفاضلی نیا</t>
   </si>
   <si>
     <t>درس(ع): سه شنبه   07:00-10:00 مکان: دانشکده برق (شهید چمران) آزمایشگاه ابزار دقیق</t>
@@ -1312,7 +1312,7 @@
     <t>آزمایشگاه مبانی مهندسی برق</t>
   </si>
   <si>
-    <t>توتونچیان فریدمحمودی تبار فرشید</t>
+    <t>فرشید توتونچیان فریدمحمودی تبار</t>
   </si>
   <si>
     <t>درس(ع): شنبه      08:00-10:00 مکان: دانشکده برق (کارگاه برق) مبانی مهندسی برق و کارگاه برق</t>
@@ -1327,7 +1327,7 @@
     <t>1211320_02</t>
   </si>
   <si>
-    <t>توتونچیان فریدشکوهیان راد محمدرضا</t>
+    <t>محمدرضا توتونچیان فریدشکوهیان راد</t>
   </si>
   <si>
     <t>درس(ع): شنبه      10:00-12:00 مکان: دانشکده برق (کارگاه برق) مبانی مهندسی برق و کارگاه برق</t>
@@ -1351,7 +1351,7 @@
     <t>1211320_04</t>
   </si>
   <si>
-    <t>شکوهیان راد محمدرضافاطمی اردستانی اعظم السادات</t>
+    <t>السادات شکوهیان راد محمدرضافاطمی اردستانی اعظم</t>
   </si>
   <si>
     <t>درس(ع): یک شنبه   08:00-10:00 مکان: دانشکده برق (کارگاه برق) مبانی مهندسی برق و کارگاه برق</t>
@@ -1366,7 +1366,7 @@
     <t>1211320_07</t>
   </si>
   <si>
-    <t>شیرازی حمیدرضاشکوهیان راد محمدرضا</t>
+    <t>محمدرضا شیرازی حمیدرضاشکوهیان راد</t>
   </si>
   <si>
     <t>درس(ع): دوشنبه    08:00-10:00 مکان: دانشکده برق (کارگاه برق) مبانی مهندسی برق و کارگاه برق</t>
@@ -1378,7 +1378,7 @@
     <t>1211320_08</t>
   </si>
   <si>
-    <t>محمودی تبار فرشیدسرتیپی محمد</t>
+    <t>محمد محمودی تبار فرشیدسرتیپی</t>
   </si>
   <si>
     <t>درس(ع): دوشنبه    10:00-12:00 مکان: دانشکده برق (کارگاه برق) مبانی مهندسی برق و کارگاه برق</t>
@@ -1399,7 +1399,7 @@
     <t>1211320_10</t>
   </si>
   <si>
-    <t>شکوهیان راد محمدرضا</t>
+    <t>محمدرضا شکوهیان راد</t>
   </si>
   <si>
     <t>درس(ع): سه شنبه   10:00-12:00 مکان: دانشکده برق (کارگاه برق) مبانی مهندسی برق و کارگاه برق</t>
@@ -1408,7 +1408,7 @@
     <t>1211320_12</t>
   </si>
   <si>
-    <t>چنگیزیان محمودرضاامیربنده معصومه</t>
+    <t>معصومه چنگیزیان محمودرضاامیربنده</t>
   </si>
   <si>
     <t>درس(ع): چهارشنبه  08:00-10:00 مکان: دانشکده برق (کارگاه برق) مبانی مهندسی برق و کارگاه برق</t>
@@ -1426,7 +1426,7 @@
     <t>1211320_14</t>
   </si>
   <si>
-    <t>توتونچیان فریدسرتیپی محمد</t>
+    <t>محمد توتونچیان فریدسرتیپی</t>
   </si>
   <si>
     <t>درس(ع): چهارشنبه  13:30-15:30 مکان: دانشکده برق (کارگاه برق) مبانی مهندسی برق و کارگاه برق</t>
@@ -1438,7 +1438,7 @@
     <t>الکترونیک 1</t>
   </si>
   <si>
-    <t>یاوند حسنی جواد</t>
+    <t>جواد یاوند حسنی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:30-15:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 204، درس(ت): سه شنبه   13:30-15:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 204</t>
@@ -1456,7 +1456,7 @@
     <t>25</t>
   </si>
   <si>
-    <t>ابوالحسنی بهمن</t>
+    <t>بهمن ابوالحسنی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 212، درس(ت): دوشنبه    10:00-12:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 212</t>
@@ -1468,7 +1468,7 @@
     <t>1211326_02</t>
   </si>
   <si>
-    <t>جلالی علی اکبر</t>
+    <t>اکبر جلالی علی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 211، درس(ت): سه شنبه   10:00-12:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 211</t>
@@ -1483,7 +1483,7 @@
     <t>مخابرات دیجیتال</t>
   </si>
   <si>
-    <t>حدادی فرزان</t>
+    <t>فرزان حدادی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 211، درس(ت): دوشنبه    10:00-12:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 211</t>
@@ -1498,7 +1498,7 @@
     <t>اصول سیستمهای مخابراتی</t>
   </si>
   <si>
-    <t>بهشتی شیرازی سیدعلی اصغر</t>
+    <t>علی اصغربهشتی شیرازی سید</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 214، درس(ت): سه شنبه   08:00-10:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 214</t>
@@ -1507,7 +1507,7 @@
     <t>1211329_02</t>
   </si>
   <si>
-    <t>رضوی زاده سید محمد</t>
+    <t>سید محمدرضوی زاده</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 211، درس(ت): سه شنبه   08:00-10:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 211</t>
@@ -1519,7 +1519,7 @@
     <t>کارگاه پردازش سیگنالهای صنعتی</t>
   </si>
   <si>
-    <t>فلاحتی ابوالفضلشفیعی ابراهیم</t>
+    <t>ابراهیم فلاحتی ابوالفضلشفیعی</t>
   </si>
   <si>
     <t>درس(ع): شنبه      13:30-16:30 مکان: دانشکده برق (شهید چمران) آزمایشگاه IDSP</t>
@@ -1534,7 +1534,7 @@
     <t>4</t>
   </si>
   <si>
-    <t>فلاحتی ابوالفضلسنندجی نادر</t>
+    <t>نادر فلاحتی ابوالفضلسنندجی</t>
   </si>
   <si>
     <t>درس(ع): چهارشنبه  10:00-13:00 مکان: دانشکده برق (شهید چمران) آزمایشگاه IDSP</t>
@@ -1546,7 +1546,7 @@
     <t>آزمایشگاه پردازش سیگنالهای دیجیتال</t>
   </si>
   <si>
-    <t>فلاحتی ابوالفضلقربانی کوثر</t>
+    <t>کوثر فلاحتی ابوالفضلقربانی</t>
   </si>
   <si>
     <t>درس(ع): چهارشنبه  13:30-16:30 مکان: دانشکده برق (شهید چمران) آزمایشگاه IDSP</t>
@@ -1561,7 +1561,7 @@
     <t>28</t>
   </si>
   <si>
-    <t>شهرتاش سیدمحمد</t>
+    <t>سید محمدشهرتاش</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:30-15:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 201، درس(ت): سه شنبه   13:30-15:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 201</t>
@@ -1576,7 +1576,7 @@
     <t>استاتیک و مقاومت مصالح</t>
   </si>
   <si>
-    <t>مسیبی سیدعلی</t>
+    <t>سید علیمسیبی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: دانشکده راه آهن شهید صیاد شیرازی، درس(ت): سه شنبه   10:00-12:00 مکان: دانشکده راه آهن شهید صیاد شیرازی</t>
@@ -1597,7 +1597,7 @@
     <t>2</t>
   </si>
   <si>
-    <t>رحیمی رحمت اله</t>
+    <t>اله رحیمی رحمت</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   15:00-17:00 مکان: دانشکده راه آهن کلاس خوارزمی</t>
@@ -1615,7 +1615,7 @@
     <t>مبانی مهندسی ماشینهای ریلی</t>
   </si>
   <si>
-    <t>نصر اصغر</t>
+    <t>اصغر نصر</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   15:00-17:00 مکان: دانشکده راه آهن کلاس سعدی، درس(ت): سه شنبه   15:00-17:00 مکان: دانشکده راه آهن کلاس سعدی</t>
@@ -1633,7 +1633,7 @@
     <t>کارگاه تخصصی واگن</t>
   </si>
   <si>
-    <t>شادفر مراد</t>
+    <t>مراد شادفر</t>
   </si>
   <si>
     <t>درس(ع): شنبه      15:00-17:00 مکان: دانشکده راه آهن -</t>
@@ -1669,7 +1669,7 @@
     <t>طراحی لکوموتیو</t>
   </si>
   <si>
-    <t>فاضل سید سعید</t>
+    <t>سید سعیدفاضل</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: دانشکده راه آهن کلاس شهید باکری</t>
@@ -1687,7 +1687,7 @@
     <t>راه آهن برقی</t>
   </si>
   <si>
-    <t>موسوی گزافرودی سیدمحمد</t>
+    <t>سید محمدموسوی گزافرودی</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    15:30-17:30 مکان: دانشکده راه آهن کلاس سعدی</t>
@@ -1705,7 +1705,7 @@
     <t>علم مواد و شناخت فلزات در راه آهن</t>
   </si>
   <si>
-    <t>اوحدی اصفهانی امین</t>
+    <t>امین اوحدی اصفهانی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: دانشکده راه آهن کلاس سعدی، درس(ت): سه شنبه   08:00-10:00 مکان: دانشکده راه آهن کلاس سعدی</t>
@@ -1723,7 +1723,7 @@
     <t>آزمایشگاه دینامیک و ارتعاشات</t>
   </si>
   <si>
-    <t>رضوانی بابلی محمدعلی</t>
+    <t>محمدعلی رضوانی بابلی</t>
   </si>
   <si>
     <t>درس(ع): شنبه      15:00-17:00</t>
@@ -1741,7 +1741,7 @@
     <t>مقررات عمومی حرکت</t>
   </si>
   <si>
-    <t>خادم ثامنی ملودی</t>
+    <t>ملودی خادم ثامنی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:00-17:00 مکان: دانشکده راه آهن کلاس خوارزمی</t>
@@ -1759,7 +1759,7 @@
     <t>علایم و ارتباطات الکتریکی1</t>
   </si>
   <si>
-    <t>میرآبادی احمد</t>
+    <t>احمد میرآبادی</t>
   </si>
   <si>
     <t>درس(ت): چهارشنبه  10:00-12:00 مکان: دانشکده راه آهن شهید صیاد شیرازی</t>
@@ -1795,7 +1795,7 @@
     <t>برنامه ریزی حمل و نقل</t>
   </si>
   <si>
-    <t>محمدحسنی رضا</t>
+    <t>رضا محمدحسنی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      13:00-15:00 مکان: دانشکده راه آهن شهید صیاد شیرازی</t>
@@ -1816,7 +1816,7 @@
     <t>47</t>
   </si>
   <si>
-    <t>یقینی مسعود</t>
+    <t>مسعود یقینی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   15:00-17:00 مکان: دانشکده راه آهن شهید صیاد شیرازی، درس(ت): سه شنبه   15:00-17:00 مکان: دانشکده راه آهن شهید صیاد شیرازی</t>
@@ -1834,7 +1834,7 @@
     <t>طراحی ایستگاهها وخطوط صنعتی</t>
   </si>
   <si>
-    <t>نصر آزادانی سیدمسعودترکاشوند عباس</t>
+    <t>مسعودترکاشوند عباسنصر آزادانی سید</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: دانشکده راه آهن کلاس خوارزمی، درس(ت): سه شنبه   08:00-10:00 مکان: دانشکده راه آهن کلاس خوارزمی</t>
@@ -1852,7 +1852,7 @@
     <t>سیستمهای تخلیه و بارگیری ریلی</t>
   </si>
   <si>
-    <t>احدی حمیدرضا</t>
+    <t>حمیدرضا احدی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: دانشکده راه آهن شهید زین الدین</t>
@@ -1870,7 +1870,7 @@
     <t>راه آهن  شهری</t>
   </si>
   <si>
-    <t>منتظری محمد</t>
+    <t>محمد منتظری</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:00-15:00 مکان: دانشکده راه آهن کلاس شهید باکری، درس(ت): سه شنبه   13:00-15:00 مکان: دانشکده راه آهن کلاس شهید باکری</t>
@@ -1888,7 +1888,7 @@
     <t>زمین شناسی و مصالح ساختمانی</t>
   </si>
   <si>
-    <t>کرمی حمیدرضا</t>
+    <t>حمیدرضا کرمی</t>
   </si>
   <si>
     <t>درس(ت): چهارشنبه  08:00-10:00 مکان: دانشکده راه آهن کلاس خوارزمی</t>
@@ -1918,7 +1918,7 @@
     <t>نقشه برداری و عملیات</t>
   </si>
   <si>
-    <t>جاویدانه علیمبینی کیا قاسم</t>
+    <t>قاسم جاویدانه علیمبینی کیا</t>
   </si>
   <si>
     <t>درس(ت): چهارشنبه  08:00-09:00 مکان: دانشکده راه آهن کلاس شهید باکری، درس(ع): چهارشنبه  09:00-12:00 مکان: دانشکده راه آهن کلاس شهید باکری</t>
@@ -1936,7 +1936,7 @@
     <t>تکنولوژی بتن</t>
   </si>
   <si>
-    <t>تدین محسن</t>
+    <t>محسن تدین</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   13:00-15:00 مکان: دانشکده راه آهن کلاس شهید همت</t>
@@ -1954,7 +1954,7 @@
     <t>طراحی سازه های فولادی</t>
   </si>
   <si>
-    <t>مطیعیان محمدعماد</t>
+    <t>محمدعماد مطیعیان</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: دانشکده راه آهن شهید زین الدین، درس(ت): سه شنبه   08:00-10:00 مکان: دانشکده راه آهن شهید زین الدین</t>
@@ -1987,7 +1987,7 @@
     <t>نگهداری و تعمیر سازه های راه آهن</t>
   </si>
   <si>
-    <t>عطایی شروان</t>
+    <t>شروان عطایی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:00-15:00 مکان: دانشکده راه آهن -، درس(ت): سه شنبه   13:00-15:00 مکان: دانشکده راه آهن -</t>
@@ -2005,7 +2005,7 @@
     <t>طراحی مسیر و پروژه</t>
   </si>
   <si>
-    <t>قهرمانی حسین</t>
+    <t>حسین قهرمانی</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    15:00-17:00 مکان: دانشکده راه آهن کلاس شهید بابایی، درس(ت): سه شنبه   08:00-10:00 مکان: دانشکده راه آهن کلاس شهید بابایی</t>
@@ -2026,7 +2026,7 @@
     <t>27</t>
   </si>
   <si>
-    <t>اسمعیلی مرتضی</t>
+    <t>مرتضی اسمعیلی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: دانشکده راه آهن شهید زین الدین، درس(ت): دوشنبه    08:00-10:00 مکان: دانشکده راه آهن شهید زین الدین</t>
@@ -2059,7 +2059,7 @@
     <t>روسازی راه آهن 2</t>
   </si>
   <si>
-    <t>میرمحمدصادقی سیدجواد</t>
+    <t>سید جوادمیرمحمدصادقی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   15:00-17:00 مکان: دانشکده راه آهن کلاس شهید بابایی، درس(ت): سه شنبه   15:00-17:00 مکان: دانشکده راه آهن کلاس شهید بابایی</t>
@@ -2104,7 +2104,7 @@
     <t>تونل سازی</t>
   </si>
   <si>
-    <t>قارونی نیک مرتضی</t>
+    <t>مرتضی قارونی نیک</t>
   </si>
   <si>
     <t>درس(ت): شنبه      13:00-15:00 مکان: دانشکده راه آهن کلاس شهید بابایی، درس(ت): چهارشنبه  13:00-15:00 مکان: دانشکده راه آهن کلاس شهید بابایی</t>
@@ -2119,7 +2119,7 @@
     <t>آزمایشگاه روسازی راه آهن</t>
   </si>
   <si>
-    <t>حیدری نوقابی حمیدرضا</t>
+    <t>حمیدرضا حیدری نوقابی</t>
   </si>
   <si>
     <t>درس(ع): یک شنبه   13:00-15:00</t>
@@ -2149,7 +2149,7 @@
     <t>ترمودینامیک 1</t>
   </si>
   <si>
-    <t>طلائی محمد رضا</t>
+    <t>رضا طلائی محمد</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: دانشکده راه آهن کلاس سعدی، درس(ت): دوشنبه    10:00-12:00 مکان: دانشکده راه آهن کلاس سعدی</t>
@@ -2167,7 +2167,7 @@
     <t>مقاومت مصالح</t>
   </si>
   <si>
-    <t>محمدزاده سعید</t>
+    <t>سعید محمدزاده</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:00-17:00 مکان: دانشکده راه آهن شهید زین الدین، حل تمرین(ت): یک شنبه   08:00-10:00</t>
@@ -2182,7 +2182,7 @@
     <t>تحلیل سازه ها</t>
   </si>
   <si>
-    <t>طلوع کیان علیرضا</t>
+    <t>علیرضا طلوع کیان</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: دانشکده راه آهن کلاس شهید متوسلیان، درس(ت): سه شنبه   10:00-12:00 مکان: دانشکده راه آهن کلاس شهید متوسلیان</t>
@@ -2200,7 +2200,7 @@
     <t>آزمایشگاه ترمودینامیک و انتقال حرارت</t>
   </si>
   <si>
-    <t>قشقائی نژاد پیمان</t>
+    <t>پیمان قشقائی نژاد</t>
   </si>
   <si>
     <t>درس(ع): سه شنبه   15:00-17:00</t>
@@ -2218,7 +2218,7 @@
     <t>سیستمهای اندازه گیری</t>
   </si>
   <si>
-    <t>تورجی زاده حامی</t>
+    <t>حامی تورجی زاده</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   15:00-17:00 مکان: دانشکده راه آهن کلاس شهید همت</t>
@@ -2245,7 +2245,7 @@
     <t>1311140_02</t>
   </si>
   <si>
-    <t>یونسیان داود</t>
+    <t>داود یونسیان</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: دانشکده راه آهن کلاس شهید باکری، درس(ت): سه شنبه   10:00-12:00 مکان: دانشکده راه آهن کلاس شهید باکری</t>
@@ -2275,7 +2275,7 @@
     <t>تحقیق در عملیات 1</t>
   </si>
   <si>
-    <t>خیرخواه قه امیرسامان</t>
+    <t>امیرسامان خیرخواه قه</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: دانشکده راه آهن -، درس(ت): چهارشنبه  08:00-10:00 مکان: دانشکده راه آهن -</t>
@@ -2293,7 +2293,7 @@
     <t>اصول مدیریت و تئوری سازمان</t>
   </si>
   <si>
-    <t>خدابخش محمد</t>
+    <t>محمد خدابخش</t>
   </si>
   <si>
     <t>درس(ت): شنبه      13:00-15:00 مکان: دانشکده راه آهن کلاس سعدی</t>
@@ -2308,7 +2308,7 @@
     <t>طرح سیستمهای اطلاعاتی و کنترل مدیریت</t>
   </si>
   <si>
-    <t>باقری مرتضی</t>
+    <t>مرتضی باقری</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: دانشکده راه آهن کلاس شهید بابایی، درس(ت): سه شنبه   10:00-12:00 مکان: دانشکده راه آهن کلاس شهید بابایی</t>
@@ -2380,7 +2380,7 @@
     <t>رسم فنی و نقشه کشی ساختمان</t>
   </si>
   <si>
-    <t>عدل پرور محمدرضا</t>
+    <t>محمدرضا عدل پرور</t>
   </si>
   <si>
     <t>درس(ت): چهارشنبه  13:00-14:00 مکان: دانشکده راه آهن شهید صیاد شیرازی، درس(ع): چهارشنبه  14:00-17:00 مکان: دانشکده راه آهن شهید صیاد شیرازی</t>
@@ -2398,7 +2398,7 @@
     <t>هیدرولوژی مهندسی</t>
   </si>
   <si>
-    <t>حسین زاده مجید</t>
+    <t>مجید حسین زاده</t>
   </si>
   <si>
     <t>درس(ت): شنبه      15:00-17:00 مکان: دانشکده راه آهن کلاس شهید بابایی</t>
@@ -2428,7 +2428,7 @@
     <t>آزمایشگاه تکنولوژی بتن</t>
   </si>
   <si>
-    <t>شمس محمد مهدی</t>
+    <t>مهدی شمس محمد</t>
   </si>
   <si>
     <t>درس(ع): چهارشنبه  08:00-10:00</t>
@@ -2455,7 +2455,7 @@
     <t>آزمایشگاه مقاومت مصالح</t>
   </si>
   <si>
-    <t>فرهی فر سینا</t>
+    <t>سینا فرهی فر</t>
   </si>
   <si>
     <t>درس(ع): یک شنبه   15:00-17:00</t>
@@ -2482,7 +2482,7 @@
     <t>1311176_02</t>
   </si>
   <si>
-    <t>متحد جابر</t>
+    <t>جابر متحد</t>
   </si>
   <si>
     <t>مجاز برای مقطع کارشناسی، دانشکده مهندسی راه  آهن، گروه آموزشی واحد آموزش کارشناسی، رشته مهندسی خط و سازه های ریلی، با ظرفیت 12، ثبت نام شده 7</t>
@@ -2494,7 +2494,7 @@
     <t>استاتیک</t>
   </si>
   <si>
-    <t>مسیح طهرانی مسعود</t>
+    <t>مسعود مسیح طهرانی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: دانشکده راه آهن شهریار، درس(ت): دوشنبه    08:00-10:00 مکان: دانشکده راه آهن شهریار</t>
@@ -2512,7 +2512,7 @@
     <t>مقاومت مصالح 2</t>
   </si>
   <si>
-    <t>بختیاری مجید</t>
+    <t>مجید بختیاری</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   15:00-17:00 مکان: دانشکده راه آهن کلاس شهید باکری</t>
@@ -2536,7 +2536,7 @@
     <t>مبانی ماشینهای الکتریکی</t>
   </si>
   <si>
-    <t>اسد روزبه</t>
+    <t>روزبه اسد</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: دانشکده راه آهن شهید صیاد شیرازی، درس(ت): دوشنبه    08:00-10:00 مکان: دانشکده راه آهن شهید صیاد شیرازی</t>
@@ -2551,7 +2551,7 @@
     <t>طراحی اجزاء 1</t>
   </si>
   <si>
-    <t>شهروی مجید</t>
+    <t>مجید شهروی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: دانشکده راه آهن کلاس شهید همت، درس(ت): سه شنبه   10:00-12:00 مکان: دانشکده راه آهن کلاس شهید همت</t>
@@ -2596,7 +2596,7 @@
     <t>کارگاه جوشکاری و ورقکاری</t>
   </si>
   <si>
-    <t>محمدی عبدالحسین</t>
+    <t>عبدالحسین محمدی</t>
   </si>
   <si>
     <t>درس(ع): شنبه      14:00-17:00</t>
@@ -2614,7 +2614,7 @@
     <t>کارگاه ماشین ابزار</t>
   </si>
   <si>
-    <t>خالقی غلامحسینزیوری فرهادشریفی صدیقه</t>
+    <t>صدیقه خالقی غلامحسینزیوری فرهادشریفی</t>
   </si>
   <si>
     <t>درس(ع): چهارشنبه  14:00-17:00</t>
@@ -2632,7 +2632,7 @@
     <t>آزمایشگاه مکانیک سیالات</t>
   </si>
   <si>
-    <t>حکیما بهروز</t>
+    <t>بهروز حکیما</t>
   </si>
   <si>
     <t>درس(ع): یک شنبه   08:00-10:00</t>
@@ -2650,7 +2650,7 @@
     <t>انتقال حرارت</t>
   </si>
   <si>
-    <t>احمدی روح الله</t>
+    <t>الله احمدی روح</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: دانشکده راه آهن -، درس(ت): دوشنبه    10:00-12:00 مکان: دانشکده راه آهن -</t>
@@ -2668,7 +2668,7 @@
     <t>تئوری احتمالات و کاربرد آن</t>
   </si>
   <si>
-    <t>احمدی رضا</t>
+    <t>رضا احمدی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      15:00-17:00 مکان: دانشکده راه آهن شهید زین الدین</t>
@@ -2701,7 +2701,7 @@
     <t>61</t>
   </si>
   <si>
-    <t>آقاجانی اسداله</t>
+    <t>اسداله آقاجانی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:00-15:00 مکان: علوم پایه کلاس شماره 1، درس(ت): سه شنبه   13:00-15:00 مکان: علوم پایه کلاس شماره 1</t>
@@ -2716,7 +2716,7 @@
     <t>57</t>
   </si>
   <si>
-    <t>رشیدی نیا جلیل</t>
+    <t>جلیل رشیدی نیا</t>
   </si>
   <si>
     <t>درس(ت): شنبه      15:00-17:00 مکان: علوم پایه کلاس شماره 101، درس(ت): دوشنبه    15:00-17:00 مکان: علوم پایه کلاس شماره 101</t>
@@ -2731,7 +2731,7 @@
     <t>67</t>
   </si>
   <si>
-    <t>قائمی محمد باقر</t>
+    <t>باقر قائمی محمد</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: علوم پایه کلاس شماره 101، درس(ت): سه شنبه   10:00-12:00 مکان: علوم پایه کلاس شماره 101</t>
@@ -2740,7 +2740,7 @@
     <t>1411087_64</t>
   </si>
   <si>
-    <t>نیک آزاد تورج</t>
+    <t>تورج نیک آزاد</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: علوم پایه کلاس شماره 102، درس(ت): دوشنبه    08:00-10:00 مکان: علوم پایه کلاس شماره 102</t>
@@ -2752,7 +2752,7 @@
     <t>54</t>
   </si>
   <si>
-    <t>تند پور زهرا</t>
+    <t>زهرا تند پور</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:00-15:00 مکان: علوم پایه کلاس شماره 101، درس(ت): سه شنبه   13:00-15:00 مکان: علوم پایه کلاس شماره 101</t>
@@ -2764,7 +2764,7 @@
     <t>46</t>
   </si>
   <si>
-    <t>سبحانی امیرحسین</t>
+    <t>امیرحسین سبحانی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: علوم پایه کلاس شماره 203، درس(ت): دوشنبه    10:00-12:00 مکان: علوم پایه کلاس شماره 203</t>
@@ -2776,7 +2776,7 @@
     <t>آمار و احتمال مهندسی</t>
   </si>
   <si>
-    <t>یاری غلامحسین</t>
+    <t>غلامحسین یاری</t>
   </si>
   <si>
     <t>درس(ت): شنبه      15:00-17:00 مکان: علوم پایه کلاس شماره 203، درس(ت): دوشنبه    15:00-17:00 مکان: علوم پایه کلاس شماره 203</t>
@@ -2806,7 +2806,7 @@
     <t>1411088_59</t>
   </si>
   <si>
-    <t>شابختی ناصر</t>
+    <t>ناصر شابختی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   15:00-17:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 4، درس(ت): سه شنبه   15:00-17:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 4</t>
@@ -2818,7 +2818,7 @@
     <t>1411088_60</t>
   </si>
   <si>
-    <t>فرنوش رحمان</t>
+    <t>رحمان فرنوش</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: علوم پایه کلاس شماره 201، درس(ت): سه شنبه   10:00-12:00 مکان: علوم پایه کلاس شماره 201</t>
@@ -2833,7 +2833,7 @@
     <t>56</t>
   </si>
   <si>
-    <t>هادیان دهکردی مسعود</t>
+    <t>مسعود هادیان دهکردی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: علوم پایه کلاس شماره 102، درس(ت): دوشنبه    10:00-12:00 مکان: علوم پایه کلاس شماره 102</t>
@@ -2845,7 +2845,7 @@
     <t>1411089_67</t>
   </si>
   <si>
-    <t>گرشاسبی مرتضی</t>
+    <t>مرتضی گرشاسبی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: علوم پایه کلاس شماره 5، درس(ت): دوشنبه    10:00-12:00 مکان: علوم پایه کلاس شماره 5</t>
@@ -2854,7 +2854,7 @@
     <t>1411089_68</t>
   </si>
   <si>
-    <t>تومانیان مگردیچ</t>
+    <t>مگردیچ تومانیان</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: علوم پایه کلاس شماره 5، درس(ت): دوشنبه    08:00-10:00 مکان: علوم پایه کلاس شماره 5</t>
@@ -2872,7 +2872,7 @@
     <t>1411089_70</t>
   </si>
   <si>
-    <t>کاظمی راد سیاوش</t>
+    <t>سیاوش کاظمی راد</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: دانشکده مکانیک کلاس شماره 201، درس(ت): سه شنبه   08:00-10:00 مکان: دانشکده مکانیک کلاس شماره 201</t>
@@ -2884,7 +2884,7 @@
     <t>1411089_71</t>
   </si>
   <si>
-    <t>طاهری نرگس</t>
+    <t>نرگس طاهری</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:00-15:00 مکان: علوم پایه کلاس شماره 102، درس(ت): سه شنبه   13:00-15:00 مکان: علوم پایه کلاس شماره 102</t>
@@ -2893,7 +2893,7 @@
     <t>1411089_79</t>
   </si>
   <si>
-    <t>خاصی منوچهر</t>
+    <t>منوچهر خاصی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: علوم پایه کلاس شماره 202، درس(ت): سه شنبه   08:00-10:00 مکان: علوم پایه کلاس شماره 202</t>
@@ -2902,7 +2902,7 @@
     <t>1411089_80</t>
   </si>
   <si>
-    <t>فتاحی الهام</t>
+    <t>الهام فتاحی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      15:00-17:00 مکان: علوم پایه کلاس شماره 208، درس(ت): دوشنبه    15:00-17:00 مکان: علوم پایه کلاس شماره 208</t>
@@ -2929,7 +2929,7 @@
     <t>1411090_32</t>
   </si>
   <si>
-    <t>صادقی سجاد</t>
+    <t>سجاد صادقی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:00-15:00 مکان: علوم پایه کلاس شماره 205، درس(ت): سه شنبه   13:00-15:00 مکان: علوم پایه کلاس شماره 205</t>
@@ -2941,7 +2941,7 @@
     <t>1411090_33</t>
   </si>
   <si>
-    <t>پاریاب خلیل</t>
+    <t>خلیل پاریاب</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: علوم پایه کلاس شماره 205، درس(ت): سه شنبه   08:00-10:00 مکان: علوم پایه کلاس شماره 205</t>
@@ -2956,7 +2956,7 @@
     <t>60</t>
   </si>
   <si>
-    <t>حسینی پور سید محمد کاظم</t>
+    <t>محمد کاظمحسینی پور سید</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: علوم پایه کلاس شماره 204، درس(ت): سه شنبه   10:00-12:00 مکان: علوم پایه کلاس شماره 204</t>
@@ -2968,7 +2968,7 @@
     <t>1411090_35</t>
   </si>
   <si>
-    <t>مشهدی سمانه</t>
+    <t>سمانه مشهدی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: علوم پایه کلاس شماره 204، درس(ت): سه شنبه   08:00-10:00 مکان: علوم پایه کلاس شماره 204</t>
@@ -3001,7 +3001,7 @@
     <t>1411090_38</t>
   </si>
   <si>
-    <t>مسگرانی حمید</t>
+    <t>حمید مسگرانی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: علوم پایه کلاس شماره 205، درس(ت): دوشنبه    10:00-12:00 مکان: علوم پایه کلاس شماره 205</t>
@@ -3013,7 +3013,7 @@
     <t>1411090_39</t>
   </si>
   <si>
-    <t>پارسا علی</t>
+    <t>علی پارسا</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: علوم پایه کلاس شماره 204، درس(ت): دوشنبه    10:00-12:00 مکان: علوم پایه کلاس شماره 204</t>
@@ -3031,7 +3031,7 @@
     <t>70</t>
   </si>
   <si>
-    <t>مصلح تهرانی علی رضا</t>
+    <t>رضا مصلح تهرانی علی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: علوم پایه کلاس شماره 202، درس(ت): دوشنبه    10:00-12:00 مکان: علوم پایه کلاس شماره 202</t>
@@ -3079,7 +3079,7 @@
     <t>1411090_47</t>
   </si>
   <si>
-    <t>یعقوبی فر محمد</t>
+    <t>محمد یعقوبی فر</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:00-15:00 مکان: علوم پایه کلاس شماره 204، درس(ت): سه شنبه   13:00-15:00 مکان: علوم پایه کلاس شماره 204</t>
@@ -3091,7 +3091,7 @@
     <t>1411090_48</t>
   </si>
   <si>
-    <t>فروغ احمدرضا</t>
+    <t>احمدرضا فروغ</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:00-15:00 مکان: علوم پایه کلاس شماره 203، درس(ت): سه شنبه   13:00-15:00 مکان: علوم پایه کلاس شماره 203</t>
@@ -3112,7 +3112,7 @@
     <t>1411090_50</t>
   </si>
   <si>
-    <t>میرقدری عبدالرسول</t>
+    <t>عبدالرسول میرقدری</t>
   </si>
   <si>
     <t>درس(ت): شنبه      15:00-17:00 مکان: علوم پایه کلاس شماره 205، درس(ت): دوشنبه    15:00-17:00 مکان: علوم پایه کلاس شماره 205</t>
@@ -3124,7 +3124,7 @@
     <t>ریاضی عمومی 2</t>
   </si>
   <si>
-    <t>کریم پور صالح بابری مهدی</t>
+    <t>مهدی کریم پور صالح بابری</t>
   </si>
   <si>
     <t>درس(ت): شنبه      15:00-17:00 مکان: علوم پایه کلاس شماره 204، درس(ت): دوشنبه    15:00-17:00 مکان: علوم پایه کلاس شماره 204</t>
@@ -3157,7 +3157,7 @@
     <t>مبانی ماتریسها و جبر خطی</t>
   </si>
   <si>
-    <t>نجفی خواه مهدی</t>
+    <t>مهدی نجفی خواه</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: علوم پایه کلاس شماره 207، درس(ت): دوشنبه    08:00-10:00 مکان: علوم پایه کلاس شماره 207</t>
@@ -3187,7 +3187,7 @@
     <t>مبانی آنالیز عددی</t>
   </si>
   <si>
-    <t>مولوی عربشاهی سیده محبوبه</t>
+    <t>ه محبوبهمولوی عربشاهی سید</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: علوم پایه کلاس شماره 208، درس(ت): دوشنبه    10:00-12:00 مکان: علوم پایه کلاس شماره 208</t>
@@ -3214,7 +3214,7 @@
     <t>مبانی جبر</t>
   </si>
   <si>
-    <t>علائیان مهدی</t>
+    <t>مهدی علائیان</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: علوم پایه کلاس شماره 207، درس(ت): دوشنبه    10:00-12:00 مکان: علوم پایه کلاس شماره 207</t>
@@ -3238,7 +3238,7 @@
     <t>بهینه سازی خطی</t>
   </si>
   <si>
-    <t>وحیدی جواد</t>
+    <t>جواد وحیدی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   15:00-17:00 مکان: علوم پایه کلاس شماره 208، درس(ت): سه شنبه   15:00-17:00 مکان: علوم پایه کلاس شماره 208</t>
@@ -3253,7 +3253,7 @@
     <t>توپولوژی عمومی</t>
   </si>
   <si>
-    <t>دهقان نژاد اکبر</t>
+    <t>اکبر دهقان نژاد</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:00-15:00 مکان: علوم پایه کلاس شماره 207، درس(ت): سه شنبه   13:00-15:00 مکان: علوم پایه کلاس شماره 207</t>
@@ -3277,7 +3277,7 @@
     <t>1411155_73</t>
   </si>
   <si>
-    <t>سیادت موسوی سیدمصطفی</t>
+    <t>سید مصطفیسیادت موسوی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      13:00-15:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 3</t>
@@ -3292,7 +3292,7 @@
     <t>1411155_75</t>
   </si>
   <si>
-    <t>دمیرچی جواد</t>
+    <t>جواد دمیرچی</t>
   </si>
   <si>
     <t>درس(ت): چهارشنبه  08:00-10:00 مکان: علوم پایه کلاس شماره 201</t>
@@ -3307,7 +3307,7 @@
     <t>1411155_77</t>
   </si>
   <si>
-    <t>پورانصاری زینب</t>
+    <t>زینب پورانصاری</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: دانشکده مکانیک کلاس شماره 208</t>
@@ -3358,7 +3358,7 @@
     <t>جبر</t>
   </si>
   <si>
-    <t>مستقیم زهره</t>
+    <t>زهره مستقیم</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: علوم پایه کلاس شماره 206، درس(ت): دوشنبه    08:00-10:00 مکان: علوم پایه کلاس شماره 206</t>
@@ -3370,7 +3370,7 @@
     <t>مبانی کامپیوتروبرنامه سازی</t>
   </si>
   <si>
-    <t>علائیان محمدهادی</t>
+    <t>محمدهادی علائیان</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: علوم پایه کلاس شماره 208، درس(ت): سه شنبه   10:00-12:00 مکان: علوم پایه کلاس شماره 208</t>
@@ -3475,7 +3475,7 @@
     <t>تجزیه و تحلیل تصمیم گیری</t>
   </si>
   <si>
-    <t>ماکویی احمد</t>
+    <t>احمد ماکویی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00، درس(ت): دوشنبه    08:00-10:00</t>
@@ -3490,7 +3490,7 @@
     <t>1511033_01</t>
   </si>
   <si>
-    <t>صاحبی شاهم آبادی هادی</t>
+    <t>هادی صاحبی شاهم آبادی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00، درس(ت): سه شنبه   10:00-12:00</t>
@@ -3505,7 +3505,7 @@
     <t>1511033_02</t>
   </si>
   <si>
-    <t>غلامیان محمدرضا</t>
+    <t>محمدرضا غلامیان</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:00-15:00، درس(ت): سه شنبه   13:00-15:00</t>
@@ -3520,7 +3520,7 @@
     <t>اقتصاد عمومی 1</t>
   </si>
   <si>
-    <t>باباخانی مسعود</t>
+    <t>مسعود باباخانی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00</t>
@@ -3532,7 +3532,7 @@
     <t>1511046_02</t>
   </si>
   <si>
-    <t>میرزامحمدی سعید</t>
+    <t>سعید میرزامحمدی</t>
   </si>
   <si>
     <t>درس(ت): چهارشنبه  13:00-15:00</t>
@@ -3562,7 +3562,7 @@
     <t>اصول حسابداری و هزینه یابی</t>
   </si>
   <si>
-    <t>محمدی عمران</t>
+    <t>عمران محمدی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      15:00-17:00، درس(ت): دوشنبه    15:00-17:00</t>
@@ -3577,7 +3577,7 @@
     <t>آزمایشگاه اندازه گیری دقیق</t>
   </si>
   <si>
-    <t>ثقفی نیا مجتبیزیوری فرهاد</t>
+    <t>فرهاد ثقفی نیا مجتبیزیوری</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   10:00-11:00، درس(ع): سه شنبه   11:00-13:00</t>
@@ -3589,7 +3589,7 @@
     <t>ارزیابی کار و زمان</t>
   </si>
   <si>
-    <t>قوسی روزبه</t>
+    <t>روزبه قوسی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   15:00-17:00، درس(ت): سه شنبه   15:00-17:00</t>
@@ -3604,7 +3604,7 @@
     <t>طرح ریزی واحدهای صنعتی</t>
   </si>
   <si>
-    <t>شهانقی کامران</t>
+    <t>کامران شهانقی</t>
   </si>
   <si>
     <t>تاریخ: 1398/10/21  ساعت: 14:00-16:00</t>
@@ -3619,7 +3619,7 @@
     <t>برنامه ریزی و کنترل تولید و موجودی 1</t>
   </si>
   <si>
-    <t>حیدری مهدی</t>
+    <t>مهدی حیدری</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00، درس(ت): دوشنبه    10:00-12:00</t>
@@ -3631,13 +3631,13 @@
     <t>1511052_02</t>
   </si>
   <si>
-    <t>مهدوی مزده محمد</t>
+    <t>محمد مهدوی مزده</t>
   </si>
   <si>
     <t>1511055_01</t>
   </si>
   <si>
-    <t>حسینی مطلق سیدمهدی</t>
+    <t>سید مهدیحسینی مطلق</t>
   </si>
   <si>
     <t>تاریخ: 1398/10/24  ساعت: 14:00-16:00</t>
@@ -3649,7 +3649,7 @@
     <t>کنترل کیفیت آماری</t>
   </si>
   <si>
-    <t>نورالسنا رسول</t>
+    <t>رسول نورالسنا</t>
   </si>
   <si>
     <t>تاریخ: 1398/11/01  ساعت: 14:00-16:00</t>
@@ -3658,7 +3658,7 @@
     <t>1511059_02</t>
   </si>
   <si>
-    <t>ایمانی دین محمد</t>
+    <t>محمد ایمانی دین</t>
   </si>
   <si>
     <t>1511060_01</t>
@@ -3670,7 +3670,7 @@
     <t>1511060_02</t>
   </si>
   <si>
-    <t>یعقوبی سعید</t>
+    <t>سعید یعقوبی</t>
   </si>
   <si>
     <t>1511061_01</t>
@@ -3679,7 +3679,7 @@
     <t>آمار مهندسی</t>
   </si>
   <si>
-    <t>حائری عبدالرحمن</t>
+    <t>عبدالرحمن حائری</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00، درس(ت): سه شنبه   08:00-10:00</t>
@@ -3694,7 +3694,7 @@
     <t>کارگاه ماشین افزار 1</t>
   </si>
   <si>
-    <t>صادقی نقندر ابراهیمپورمسگری مجید</t>
+    <t>مجید صادقی نقندر ابراهیمپورمسگری</t>
   </si>
   <si>
     <t>درس(ع): سه شنبه   14:00-17:00</t>
@@ -3718,7 +3718,7 @@
     <t>کارگاه جوش</t>
   </si>
   <si>
-    <t>محمدعلیها محمدرضامحمدی عبدالحسین</t>
+    <t>عبدالحسین محمدعلیها محمدرضامحمدی</t>
   </si>
   <si>
     <t>درس(ع): سه شنبه   10:00-13:00</t>
@@ -3745,7 +3745,7 @@
     <t>طراحی ایجاد صنایع</t>
   </si>
   <si>
-    <t>خالقی غلامحسین</t>
+    <t>غلامحسین خالقی</t>
   </si>
   <si>
     <t>1511068_01</t>
@@ -3775,7 +3775,7 @@
     <t>برنامه ریزی نگهداری و تعمیرات</t>
   </si>
   <si>
-    <t>معینی علیرضا</t>
+    <t>علیرضا معینی</t>
   </si>
   <si>
     <t>تاریخ: 1398/10/25  ساعت: 11:00-13:00</t>
@@ -3787,7 +3787,7 @@
     <t>تحلیل سیستمها</t>
   </si>
   <si>
-    <t>پیشوایی میر سامان</t>
+    <t>سامان پیشوایی میر</t>
   </si>
   <si>
     <t>1511093_01</t>
@@ -3796,7 +3796,7 @@
     <t>سیستمهای اطلاعاتی مدیریت</t>
   </si>
   <si>
-    <t>رسولی محمدرضا</t>
+    <t>محمدرضا رسولی</t>
   </si>
   <si>
     <t>تاریخ: 1398/10/28  ساعت: 11:00-13:00</t>
@@ -3808,7 +3808,7 @@
     <t>1511099_01</t>
   </si>
   <si>
-    <t>جعفری مصطفی</t>
+    <t>مصطفی جعفری</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    10:00-12:00</t>
@@ -3823,7 +3823,7 @@
     <t>تحقیق در عملیات 2</t>
   </si>
   <si>
-    <t>سجادی سیدجعفر</t>
+    <t>سید جعفرسجادی</t>
   </si>
   <si>
     <t>تاریخ: 1398/10/22  ساعت: 08:30-10:00</t>
@@ -3832,7 +3832,7 @@
     <t>1511121_02</t>
   </si>
   <si>
-    <t>برزین پور فرناز</t>
+    <t>فرناز برزین پور</t>
   </si>
   <si>
     <t>1511124_01</t>
@@ -3847,7 +3847,7 @@
     <t>علم مواد</t>
   </si>
   <si>
-    <t>صالحی مریم</t>
+    <t>مریم صالحی</t>
   </si>
   <si>
     <t>1511177_01</t>
@@ -3856,7 +3856,7 @@
     <t>روشهای تولید</t>
   </si>
   <si>
-    <t>شفیعا محمدعلی</t>
+    <t>محمدعلی شفیعا</t>
   </si>
   <si>
     <t>تاریخ: 1398/10/30  ساعت: 14:00-16:00</t>
@@ -3871,7 +3871,7 @@
     <t>1511242_01</t>
   </si>
   <si>
-    <t>ثقفی نیا مجتبی</t>
+    <t>مجتبی ثقفی نیا</t>
   </si>
   <si>
     <t>1511242_02</t>
@@ -3889,7 +3889,7 @@
     <t>1511245_01</t>
   </si>
   <si>
-    <t>محمدعلیها محمدرضا</t>
+    <t>محمدرضا محمدعلیها</t>
   </si>
   <si>
     <t>1511266_01</t>
@@ -3898,7 +3898,7 @@
     <t>مدیریت و کنترل پروژه</t>
   </si>
   <si>
-    <t>قنادپور سیدفرید</t>
+    <t>سید فریدقنادپور</t>
   </si>
   <si>
     <t>1511269_01</t>
@@ -3907,7 +3907,7 @@
     <t>نقشه کشی صنعتی</t>
   </si>
   <si>
-    <t>رمضان نیا غلامرضا</t>
+    <t>غلامرضا رمضان نیا</t>
   </si>
   <si>
     <t>1511269_02</t>
@@ -3928,7 +3928,7 @@
     <t>کارگاه تخصصی مهندسی صنایع</t>
   </si>
   <si>
-    <t>خالقی غلامحسینپورمسگری مجیدرمضان نیا غلامرضا</t>
+    <t>غلامرضا خالقی غلامحسینپورمسگری مجیدرمضان نیا</t>
   </si>
   <si>
     <t>درس(ع): سه شنبه   07:00-10:00</t>
@@ -3943,7 +3943,7 @@
     <t>کنترل عددی</t>
   </si>
   <si>
-    <t>شریفی صدیقهصادقی نقندر ابراهیم</t>
+    <t>ابراهیم شریفی صدیقهصادقی نقندر</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00، درس(ع): سه شنبه   10:00-13:00</t>
@@ -3961,7 +3961,7 @@
     <t>آزمایشگاه فیزیک پایه 3</t>
   </si>
   <si>
-    <t>اکبری جعفرآبادی مرضیهافهامی سعیده</t>
+    <t>سعیده اکبری جعفرآبادی مرضیهافهامی</t>
   </si>
   <si>
     <t>درس(ع): چهارشنبه  07:30-09:30 مکان: دانشکده فیزیک(ساختمان شماره 1) آزمایشگاه فیزیک 3</t>
@@ -3988,7 +3988,7 @@
     <t>مکانیک تحلیلی 1</t>
   </si>
   <si>
-    <t>کاظمی شیخ شبانی آسیه السادات</t>
+    <t>السادات کاظمی شیخ شبانی آسیه</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: دانشکده فیزیک(ساختمان شماره 2) کلاس شماره 004، درس(ت): سه شنبه   10:00-12:00 مکان: دانشکده فیزیک(ساختمان شماره 2) کلاس شماره 004</t>
@@ -4003,7 +4003,7 @@
     <t>ریاضی فیزیک 1</t>
   </si>
   <si>
-    <t>افشار ارجمند مهدی</t>
+    <t>مهدی افشار ارجمند</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   15:00-17:00 مکان: دانشکده فیزیک(ساختمان شماره 2) کلاس شماره 007، درس(ت): سه شنبه   15:00-17:00 مکان: دانشکده فیزیک(ساختمان شماره 2) کلاس شماره 007</t>
@@ -4018,7 +4018,7 @@
     <t>اپتیک</t>
   </si>
   <si>
-    <t>شایگان منش مهدی</t>
+    <t>مهدی شایگان منش</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: دانشکده فیزیک(ساختمان شماره 2) کلاس شماره 005، درس(ت): سه شنبه   10:00-12:00 مکان: دانشکده فیزیک(ساختمان شماره 2) کلاس شماره 005</t>
@@ -4045,7 +4045,7 @@
     <t>فیزیک پلاسما 1</t>
   </si>
   <si>
-    <t>مهدیه محمدحسین</t>
+    <t>محمدحسین مهدیه</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: دانشکده فیزیک(ساختمان شماره 2) کلاس شماره 104، درس(ت): سه شنبه   10:00-12:00 مکان: دانشکده فیزیک(ساختمان شماره 2) کلاس شماره 104</t>
@@ -4060,7 +4060,7 @@
     <t>مکانیک آماری</t>
   </si>
   <si>
-    <t>چراغچی حسین</t>
+    <t>حسین چراغچی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: دانشکده فیزیک(ساختمان شماره 2) کلاس شماره 004، درس(ت): دوشنبه    10:00-12:00 مکان: دانشکده فیزیک(ساختمان شماره 2) کلاس شماره 004</t>
@@ -4105,7 +4105,7 @@
     <t>73</t>
   </si>
   <si>
-    <t>دباغ کاشانی فاطمهواحدی محمد</t>
+    <t>محمد دباغ کاشانی فاطمهواحدی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: علوم پایه 16-زیر زمین، درس(ت): سه شنبه   10:00-12:00 مکان: علوم پایه 16-زیر زمین</t>
@@ -4123,7 +4123,7 @@
     <t>95</t>
   </si>
   <si>
-    <t>جعفرفرد محمدرضا</t>
+    <t>محمدرضا جعفرفرد</t>
   </si>
   <si>
     <t>درس(ت): شنبه      15:00-17:00 مکان: علوم پایه 16-زیر زمین، درس(ت): دوشنبه    15:00-17:00 مکان: علوم پایه 16-زیر زمین</t>
@@ -4135,7 +4135,7 @@
     <t>81</t>
   </si>
   <si>
-    <t>حاجی عبدالوهاب روح الله</t>
+    <t>الله حاجی عبدالوهاب روح</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   15:00-17:00 مکان: علوم پایه کلاس شماره 101، درس(ت): سه شنبه   15:00-17:00 مکان: علوم پایه کلاس شماره 101</t>
@@ -4165,7 +4165,7 @@
     <t>آزمایشگاه فیزیک پایه 1</t>
   </si>
   <si>
-    <t>دباغ کاشانی فاطمهکشتمند راضیه</t>
+    <t>راضیه دباغ کاشانی فاطمهکشتمند</t>
   </si>
   <si>
     <t>درس(ع): شنبه      08:00-10:00 مکان: دانشکده فیزیک(ساختمان شماره 1) آزمایشگاه فیزیک 1</t>
@@ -4183,7 +4183,7 @@
     <t>1611123_02</t>
   </si>
   <si>
-    <t>دباغ کاشانی فاطمهعبادی حامد</t>
+    <t>حامد دباغ کاشانی فاطمهعبادی</t>
   </si>
   <si>
     <t>درس(ع): شنبه      10:00-12:00 مکان: دانشکده فیزیک(ساختمان شماره 1) آزمایشگاه فیزیک 1</t>
@@ -4198,7 +4198,7 @@
     <t>1611123_03</t>
   </si>
   <si>
-    <t>یوسفی مسعودعبادی حامد</t>
+    <t>حامد یوسفی مسعودعبادی</t>
   </si>
   <si>
     <t>درس(ع): شنبه      13:00-15:00 مکان: دانشکده فیزیک(ساختمان شماره 1) آزمایشگاه فیزیک 1</t>
@@ -4219,7 +4219,7 @@
     <t>1611123_05</t>
   </si>
   <si>
-    <t>یوسفی مسعوداسکندری ابوالفضل</t>
+    <t>ابوالفضل یوسفی مسعوداسکندری</t>
   </si>
   <si>
     <t>درس(ع): شنبه      17:00-19:00 مکان: دانشکده فیزیک(ساختمان شماره 1) آزمایشگاه فیزیک 1</t>
@@ -4231,7 +4231,7 @@
     <t>1611123_06</t>
   </si>
   <si>
-    <t>کشتمند راضیهبهرامیان ریحانه</t>
+    <t>ریحانه کشتمند راضیهبهرامیان</t>
   </si>
   <si>
     <t>درس(ع): یک شنبه   08:00-10:00 مکان: دانشکده فیزیک(ساختمان شماره 1) آزمایشگاه فیزیک 1</t>
@@ -4243,7 +4243,7 @@
     <t>1611123_07</t>
   </si>
   <si>
-    <t>بهرامیان ریحانهکشتمند راضیه</t>
+    <t>راضیه بهرامیان ریحانهکشتمند</t>
   </si>
   <si>
     <t>درس(ع): یک شنبه   10:00-12:00 مکان: دانشکده فیزیک(ساختمان شماره 1) آزمایشگاه فیزیک 1</t>
@@ -4252,7 +4252,7 @@
     <t>1611123_08</t>
   </si>
   <si>
-    <t>اسکندری ابوالفضلحدادنژاد زهرا</t>
+    <t>زهرا اسکندری ابوالفضلحدادنژاد</t>
   </si>
   <si>
     <t>درس(ع): یک شنبه   13:00-15:00 مکان: دانشکده فیزیک(ساختمان شماره 1) آزمایشگاه فیزیک 1</t>
@@ -4282,7 +4282,7 @@
     <t>1611123_11</t>
   </si>
   <si>
-    <t>کریمی نژاد فرزانهاسکندری ابوالفضل</t>
+    <t>ابوالفضل کریمی نژاد فرزانهاسکندری</t>
   </si>
   <si>
     <t>درس(ع): دوشنبه    08:00-10:00 مکان: دانشکده فیزیک(ساختمان شماره 1) آزمایشگاه فیزیک 1</t>
@@ -4303,7 +4303,7 @@
     <t>1611123_14</t>
   </si>
   <si>
-    <t>اسکندری ابوالفضلیوسفی مسعود</t>
+    <t>مسعود اسکندری ابوالفضلیوسفی</t>
   </si>
   <si>
     <t>درس(ع): دوشنبه    15:00-17:00 مکان: دانشکده فیزیک(ساختمان شماره 1) آزمایشگاه فیزیک 1</t>
@@ -4324,7 +4324,7 @@
     <t>1611123_16</t>
   </si>
   <si>
-    <t>اعظمی فرهادتقی زاده رهقی نرجس</t>
+    <t>نرجس اعظمی فرهادتقی زاده رهقی</t>
   </si>
   <si>
     <t>درس(ع): سه شنبه   08:00-10:00 مکان: دانشکده فیزیک(ساختمان شماره 1) آزمایشگاه فیزیک 1</t>
@@ -4345,7 +4345,7 @@
     <t>1611123_18</t>
   </si>
   <si>
-    <t>تقی زاده رهقی نرجسکریمی نژاد فرزانه</t>
+    <t>فرزانه تقی زاده رهقی نرجسکریمی نژاد</t>
   </si>
   <si>
     <t>درس(ع): سه شنبه   13:00-15:00 مکان: دانشکده فیزیک(ساختمان شماره 1) آزمایشگاه فیزیک 1</t>
@@ -4366,7 +4366,7 @@
     <t>1611123_20</t>
   </si>
   <si>
-    <t>کریمی نژاد فرزانهتقی زاده رهقی نرجس</t>
+    <t>نرجس کریمی نژاد فرزانهتقی زاده رهقی</t>
   </si>
   <si>
     <t>درس(ع): سه شنبه   17:00-19:00 مکان: دانشکده فیزیک(ساختمان شماره 1) آزمایشگاه فیزیک 1</t>
@@ -4378,7 +4378,7 @@
     <t>1611123_21</t>
   </si>
   <si>
-    <t>پرتوی شبستری ناصررحمانی ایوریق نسیم</t>
+    <t>نسیم پرتوی شبستری ناصررحمانی ایوریق</t>
   </si>
   <si>
     <t>درس(ع): چهارشنبه  07:30-09:30 مکان: دانشکده فیزیک(ساختمان شماره 1) آزمایشگاه فیزیک 1</t>
@@ -4411,7 +4411,7 @@
     <t>1611123_24</t>
   </si>
   <si>
-    <t>رحمانی ایوریق نسیمحدادنژاد زهرا</t>
+    <t>زهرا رحمانی ایوریق نسیمحدادنژاد</t>
   </si>
   <si>
     <t>درس(ع): چهارشنبه  15:00-17:00 مکان: دانشکده فیزیک(ساختمان شماره 1) آزمایشگاه فیزیک 1</t>
@@ -4426,7 +4426,7 @@
     <t>آزمایشگاه فیزیک پایه 2</t>
   </si>
   <si>
-    <t>یوسفی مسعودمازندرانی حمیدرضا</t>
+    <t>حمیدرضا یوسفی مسعودمازندرانی</t>
   </si>
   <si>
     <t>درس(ع): شنبه      08:00-10:00 مکان: دانشکده فیزیک(ساختمان شماره 1) آزمایشگاه فیزیک 2</t>
@@ -4438,7 +4438,7 @@
     <t>1611124_02</t>
   </si>
   <si>
-    <t>یوسفی مسعودکشتمند راضیه</t>
+    <t>راضیه یوسفی مسعودکشتمند</t>
   </si>
   <si>
     <t>درس(ع): شنبه      10:00-12:00 مکان: دانشکده فیزیک(ساختمان شماره 1) آزمایشگاه فیزیک 2</t>
@@ -4453,7 +4453,7 @@
     <t>1611124_04</t>
   </si>
   <si>
-    <t>کشتمند راضیهمازندرانی حمیدرضا</t>
+    <t>حمیدرضا کشتمند راضیهمازندرانی</t>
   </si>
   <si>
     <t>درس(ع): شنبه      15:00-17:00 مکان: دانشکده فیزیک(ساختمان شماره 1) آزمایشگاه فیزیک 2</t>
@@ -4468,7 +4468,7 @@
     <t>1611124_06</t>
   </si>
   <si>
-    <t>دباغ کاشانی فاطمهنظیفی گیلوان مینا</t>
+    <t>مینا دباغ کاشانی فاطمهنظیفی گیلوان</t>
   </si>
   <si>
     <t>درس(ع): یک شنبه   08:00-10:00 مکان: دانشکده فیزیک(ساختمان شماره 1) آزمایشگاه فیزیک 2</t>
@@ -4477,7 +4477,7 @@
     <t>1611124_07</t>
   </si>
   <si>
-    <t>گل محمدی نژادی شعلهمازندرانی حمیدرضا</t>
+    <t>حمیدرضا گل محمدی نژادی شعلهمازندرانی</t>
   </si>
   <si>
     <t>درس(ع): یک شنبه   10:00-12:00 مکان: دانشکده فیزیک(ساختمان شماره 1) آزمایشگاه فیزیک 2</t>
@@ -4486,7 +4486,7 @@
     <t>1611124_08</t>
   </si>
   <si>
-    <t>گل محمدی نژادی شعلهنظیفی گیلوان مینا</t>
+    <t>مینا گل محمدی نژادی شعلهنظیفی گیلوان</t>
   </si>
   <si>
     <t>درس(ع): یک شنبه   13:00-15:00 مکان: دانشکده فیزیک(ساختمان شماره 1) آزمایشگاه فیزیک 2</t>
@@ -4516,7 +4516,7 @@
     <t>1611124_12</t>
   </si>
   <si>
-    <t>کاظمی شریعت پناهی سیده فاطمهنظیفی گیلوان مینا</t>
+    <t>گیلوان میناکاظمی شریعت پناهی سید ه فاطمهنظیفی</t>
   </si>
   <si>
     <t>درس(ع): دوشنبه    10:00-12:00 مکان: دانشکده فیزیک(ساختمان شماره 1) آزمایشگاه فیزیک 2</t>
@@ -4537,7 +4537,7 @@
     <t>1611124_16</t>
   </si>
   <si>
-    <t>دباغ کاشانی فاطمهبروغنی آتنا</t>
+    <t>آتنا دباغ کاشانی فاطمهبروغنی</t>
   </si>
   <si>
     <t>درس(ع): سه شنبه   08:00-10:00 مکان: دانشکده فیزیک(ساختمان شماره 1) آزمایشگاه فیزیک 2</t>
@@ -4546,7 +4546,7 @@
     <t>1611124_17</t>
   </si>
   <si>
-    <t>گل محمدی نژادی شعلهبروغنی آتنا</t>
+    <t>آتنا گل محمدی نژادی شعلهبروغنی</t>
   </si>
   <si>
     <t>درس(ع): سه شنبه   10:00-12:00 مکان: دانشکده فیزیک(ساختمان شماره 1) آزمایشگاه فیزیک 2</t>
@@ -4573,7 +4573,7 @@
     <t>1611124_21</t>
   </si>
   <si>
-    <t>شریفیان محمودرضایوسفی مسعود</t>
+    <t>مسعود شریفیان محمودرضایوسفی</t>
   </si>
   <si>
     <t>درس(ع): چهارشنبه  08:00-10:00 مکان: دانشکده فیزیک(ساختمان شماره 1) آزمایشگاه فیزیک 2</t>
@@ -4582,7 +4582,7 @@
     <t>1611124_22</t>
   </si>
   <si>
-    <t>یوسفی مسعودشریفیان محمودرضا</t>
+    <t>محمودرضا یوسفی مسعودشریفیان</t>
   </si>
   <si>
     <t>درس(ع): چهارشنبه  10:00-12:00 مکان: دانشکده فیزیک(ساختمان شماره 1) آزمایشگاه فیزیک 2</t>
@@ -4606,7 +4606,7 @@
     <t>فیزیک پایه 3</t>
   </si>
   <si>
-    <t>دباغ کاشانی فاطمهچراغچی حسین</t>
+    <t>حسین دباغ کاشانی فاطمهچراغچی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:00-15:00 مکان: دانشکده فیزیک(ساختمان شماره 2) کلاس شماره 007، درس(ت): سه شنبه   13:00-15:00 مکان: دانشکده فیزیک(ساختمان شماره 2) کلاس شماره 007</t>
@@ -4621,7 +4621,7 @@
     <t>فیزیک پایه 4</t>
   </si>
   <si>
-    <t>نمیرانیان افشین</t>
+    <t>افشین نمیرانیان</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: دانشکده فیزیک(ساختمان شماره 2) کلاس شماره 104، درس(ت): دوشنبه    08:00-10:00 مکان: دانشکده فیزیک(ساختمان شماره 2) کلاس شماره 104</t>
@@ -4648,7 +4648,7 @@
     <t>ترمودینامیک و مکانیک آماری 1</t>
   </si>
   <si>
-    <t>زمانی میمیان محمد رضا</t>
+    <t>رضا زمانی میمیان محمد</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:00-15:00 مکان: دانشکده فیزیک(ساختمان شماره 2) کلاس شماره 005، درس(ت): سه شنبه   13:00-15:00 مکان: دانشکده فیزیک(ساختمان شماره 2) کلاس شماره 005</t>
@@ -4675,7 +4675,7 @@
     <t>مکانیک کوانتمی 1</t>
   </si>
   <si>
-    <t>زارع بابک</t>
+    <t>بابک زارع</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: دانشکده فیزیک(ساختمان شماره 2) کلاس شماره 004، درس(ت): دوشنبه    08:00-10:00 مکان: دانشکده فیزیک(ساختمان شماره 2) کلاس شماره 004</t>
@@ -4690,7 +4690,7 @@
     <t>نجوم و اختر فیزیک</t>
   </si>
   <si>
-    <t>اشراقی همایون</t>
+    <t>همایون اشراقی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   15:00-17:00 مکان: دانشکده فیزیک(ساختمان شماره 2) کلاس شماره 004، درس(ت): سه شنبه   15:00-17:00 مکان: دانشکده فیزیک(ساختمان شماره 2) کلاس شماره 004</t>
@@ -4705,7 +4705,7 @@
     <t>فیزیک عمومی1 (شش ساعت در هفته)</t>
   </si>
   <si>
-    <t>احمدخان کردبچه امیرحسین</t>
+    <t>امیرحسین احمدخان کردبچه</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: علوم پایه کلاس شماره 102، درس(ت): سه شنبه   10:00-12:00 مکان: علوم پایه کلاس شماره 102، درس(ت): چهارشنبه  10:00-12:00 مکان: دانشکده فیزیک(ساختمان شماره 2) کلاس شماره 007</t>
@@ -4738,7 +4738,7 @@
     <t>فیزیک پایه 1</t>
   </si>
   <si>
-    <t>واحدی محمد</t>
+    <t>محمد واحدی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: علوم پایه کلاس شماره 1، درس(ت): دوشنبه    08:00-10:00 مکان: علوم پایه کلاس شماره 1</t>
@@ -4759,7 +4759,7 @@
     <t>1611202_03</t>
   </si>
   <si>
-    <t>اعظمی فرهاد</t>
+    <t>فرهاد اعظمی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: علوم پایه 16-زیر زمین، درس(ت): دوشنبه    08:00-10:00 مکان: علوم پایه 16-زیر زمین</t>
@@ -4774,7 +4774,7 @@
     <t>65</t>
   </si>
   <si>
-    <t>امراللهی بیوکی رضوانه</t>
+    <t>رضوانه امراللهی بیوکی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: علوم پایه کلاس شماره 101، درس(ت): دوشنبه    08:00-10:00 مکان: علوم پایه کلاس شماره 101</t>
@@ -4807,7 +4807,7 @@
     <t>1611202_07</t>
   </si>
   <si>
-    <t>فیض آبادی سیدادریس</t>
+    <t>سید ادریسفیض آبادی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: علوم پایه 16-زیر زمین، درس(ت): دوشنبه    10:00-12:00 مکان: علوم پایه 16-زیر زمین</t>
@@ -4846,7 +4846,7 @@
     <t>1611202_11</t>
   </si>
   <si>
-    <t>شکری علی اصغر</t>
+    <t>اصغر شکری علی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: علوم پایه 16-زیر زمین، درس(ت): سه شنبه   08:00-10:00 مکان: علوم پایه 16-زیر زمین</t>
@@ -4858,7 +4858,7 @@
     <t>1611202_12</t>
   </si>
   <si>
-    <t>بابامرادی محسن</t>
+    <t>محسن بابامرادی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: علوم پایه کلاس شماره 2، درس(ت): سه شنبه   08:00-10:00 مکان: علوم پایه کلاس شماره 2</t>
@@ -4888,7 +4888,7 @@
     <t>1611202_16</t>
   </si>
   <si>
-    <t>بحرینی مریم</t>
+    <t>مریم بحرینی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   15:00-17:00 مکان: علوم پایه کلاس شماره 1، درس(ت): سه شنبه   15:00-17:00 مکان: علوم پایه کلاس شماره 1</t>
@@ -4924,7 +4924,7 @@
     <t>عملیات حرارتی</t>
   </si>
   <si>
-    <t>میردامادی شمس الدین</t>
+    <t>الدین میردامادی شمس</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:00-15:00 مکان: دانشکده متالوژی و مواد کلاس شماره 274</t>
@@ -4939,7 +4939,7 @@
     <t>1711014_02</t>
   </si>
   <si>
-    <t>ثقفیان لاریجانی حسن</t>
+    <t>حسن ثقفیان لاریجانی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: دانشکده متالوژی و مواد کلاس شماره 208</t>
@@ -4954,7 +4954,7 @@
     <t>1711016_01</t>
   </si>
   <si>
-    <t>توتونچیان فرید</t>
+    <t>فرید توتونچیان</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: دانشکده متالوژی و مواد کلاس شماره 425، درس(ت): سه شنبه   08:00-10:00 مکان: دانشکده متالوژی و مواد کلاس شماره 425</t>
@@ -4981,7 +4981,7 @@
     <t>خواص فیزیکی مواد 1</t>
   </si>
   <si>
-    <t>رضایی حمیدرضاسرپولکی حسین</t>
+    <t>حسین رضایی حمیدرضاسرپولکی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: دانشکده متالوژی و مواد کلاس شماره 208، درس(ت): دوشنبه    08:00-10:00 مکان: دانشکده متالوژی و مواد کلاس شماره 208</t>
@@ -4996,7 +4996,7 @@
     <t>1711030_02</t>
   </si>
   <si>
-    <t>ثقفیان لاریجانی حسنصالحی مریم</t>
+    <t>مریم ثقفیان لاریجانی حسنصالحی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 نیمه1 ت مکان: دانشکده متالوژی و مواد کلاس شماره 106، درس(ت): دوشنبه    08:00-09:00 نیمه1 ت مکان: دانشکده متالوژی و مواد کلاس شماره 106، درس(ت): شنبه      08:00-10:00 نیمه2 ت مکان: دانشکده متالوژی و مواد کلاس شماره 106، درس(ت): دوشنبه    08:00-09:00 نیمه2 ت مکان: دانشکده متالوژی و مواد کلاس شماره 106، حل تمرین(ت): دوشنبه    09:00-10:00 مکان: دانشکده متالوژی و مواد کلاس شماره 106</t>
@@ -5014,7 +5014,7 @@
     <t>خواص فیزیکی مواد 2</t>
   </si>
   <si>
-    <t>محمدصادقی باقرمیرزاخانی بهمن</t>
+    <t>بهمن محمدصادقی باقرمیرزاخانی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 نیمه1 ت مکان: دانشکده متالوژی و مواد کلاس شماره 274، درس(ت): شنبه      10:00-12:00 نیمه2 ت مکان: دانشکده متالوژی و مواد کلاس شماره 274</t>
@@ -5032,7 +5032,7 @@
     <t>اصول استخراج فلزات 1</t>
   </si>
   <si>
-    <t>سلطانیه منصورعادلی ماندانا</t>
+    <t>ماندانا سلطانیه منصورعادلی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   15:00-17:00 نیمه1 ت مکان: دانشکده متالوژی و مواد کلاس شماره 275، درس(ت): یک شنبه   15:00-17:00 نیمه2 ت مکان: دانشکده متالوژی و مواد کلاس شماره 275</t>
@@ -5050,7 +5050,7 @@
     <t>انجماد فلزات</t>
   </si>
   <si>
-    <t>قدرت نما شبستری سعید</t>
+    <t>سعید قدرت نما شبستری</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   10:00-12:00 مکان: دانشکده متالوژی و مواد کلاس شماره 208</t>
@@ -5068,7 +5068,7 @@
     <t>مواد دیر گداز</t>
   </si>
   <si>
-    <t>نقی زاده رحیم</t>
+    <t>رحیم نقی زاده</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    15:00-17:00 مکان: دانشکده متالوژی و مواد کلاس شماره 206</t>
@@ -5083,7 +5083,7 @@
     <t>1711036_02</t>
   </si>
   <si>
-    <t>سرپولکی حسیننقی زاده رحیم</t>
+    <t>رحیم سرپولکی حسیننقی زاده</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:00-15:00 نیمه1 ت مکان: دانشکده متالوژی و مواد کلاس شماره 106، درس(ت): یک شنبه   13:00-15:00 نیمه2 ت مکان: دانشکده متالوژی و مواد کلاس شماره 106</t>
@@ -5101,7 +5101,7 @@
     <t>تولید آهن</t>
   </si>
   <si>
-    <t>شیخ شاب بافقی محمد</t>
+    <t>محمد شیخ شاب بافقی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: دانشکده متالوژی و مواد کلاس شماره 202</t>
@@ -5119,7 +5119,7 @@
     <t>متالورژی سطوح و پوشش ها</t>
   </si>
   <si>
-    <t>هاشمی نیاسری مسعود</t>
+    <t>مسعود هاشمی نیاسری</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    10:00-12:00 مکان: دانشکده متالوژی و مواد کلاس شماره 431، درس(ت): چهارشنبه  10:00-11:00 مکان: دانشکده متالوژی و مواد کلاس شماره 431</t>
@@ -5137,7 +5137,7 @@
     <t>روشهای نوین آنالیز مواد</t>
   </si>
   <si>
-    <t>اعلم الهدی سمیه</t>
+    <t>سمیه اعلم الهدی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      13:00-15:00 مکان: دانشکده متالوژی و مواد کلاس شماره 208</t>
@@ -5146,7 +5146,7 @@
     <t>1711044_02</t>
   </si>
   <si>
-    <t>جعفریان حمیدرضا</t>
+    <t>حمیدرضا جعفریان</t>
   </si>
   <si>
     <t>درس(ت): شنبه      13:00-15:00 مکان: دانشکده متالوژی و مواد کلاس شماره 432</t>
@@ -5164,7 +5164,7 @@
     <t>کاربرد کامپیوتر درمهندسی مواد</t>
   </si>
   <si>
-    <t>میرزاخانی بهمنمحمدصادقی باقر</t>
+    <t>باقر میرزاخانی بهمنمحمدصادقی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      13:00-15:00 نیمه1 ت مکان: دانشکده متالوژی و مواد کلاس شماره 206، درس(ت): شنبه      13:00-15:00 نیمه2 ت مکان: دانشکده متالوژی و مواد کلاس شماره 206</t>
@@ -5185,7 +5185,7 @@
     <t>5</t>
   </si>
   <si>
-    <t>سیدین سیدحسینابوطالبی محمدرضا</t>
+    <t>حسینابوطالبی محمدرضاسید ین سید</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   08:00-10:00 نیمه1 ت مکان: دانشکده متالوژی و مواد کلاس شماره 208، درس(ت): سه شنبه   08:00-10:00 نیمه2 ت مکان: دانشکده متالوژی و مواد کلاس شماره 208، حل تمرین(ت): یک شنبه   08:00-09:00 مکان: دانشکده متالوژی و مواد کلاس شماره 208</t>
@@ -5200,7 +5200,7 @@
     <t>سوخت و انرژی</t>
   </si>
   <si>
-    <t>عادلی ماندانا</t>
+    <t>ماندانا عادلی</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   08:00-10:00 مکان: دانشکده متالوژی و مواد کلاس شماره 202</t>
@@ -5215,7 +5215,7 @@
     <t>آزمایشگاه استخراج فلزات 1</t>
   </si>
   <si>
-    <t>سلطانیه منصورشایان زاد جلال</t>
+    <t>جلال سلطانیه منصورشایان زاد</t>
   </si>
   <si>
     <t>درس(ع): چهارشنبه  12:30-15:00</t>
@@ -5236,7 +5236,7 @@
     <t>آزمایشگاه استخراج فلزات 2</t>
   </si>
   <si>
-    <t>ذاکری علیرضااسدرخت محمدشایان زاد جلال</t>
+    <t>جلال ذاکری علیرضااسدرخت محمدشایان زاد</t>
   </si>
   <si>
     <t>درس(ع): سه شنبه   10:00-12:30</t>
@@ -5254,7 +5254,7 @@
     <t>آزمایشگاه انجماد فلزات</t>
   </si>
   <si>
-    <t>قدرت نما شبستری سعیدشیخ علیزاده خانقاه عزیر</t>
+    <t>عزیر قدرت نما شبستری سعیدشیخ علیزاده خانقاه</t>
   </si>
   <si>
     <t>درس(ع): یک شنبه   15:00-18:00</t>
@@ -5272,7 +5272,7 @@
     <t>آزمایشگاه خوردگی و پوشش دادن</t>
   </si>
   <si>
-    <t>هاشمی نیاسری مسعودرحیمی زهره</t>
+    <t>زهره هاشمی نیاسری مسعودرحیمی</t>
   </si>
   <si>
     <t>تاریخ: 1398/10/15  ساعت: 10:30-12:00</t>
@@ -5284,7 +5284,7 @@
     <t>آزمایشگاه عملیات حرارتی</t>
   </si>
   <si>
-    <t>ثقفیان لاریجانی حسنعبودزاده رویس ندا</t>
+    <t>ندا ثقفیان لاریجانی حسنعبودزاده رویس</t>
   </si>
   <si>
     <t>درس(ع): دوشنبه    10:00-12:30</t>
@@ -5296,7 +5296,7 @@
     <t>1711089_02</t>
   </si>
   <si>
-    <t>قدرت نما شبستری سعیدعبودزاده رویس ندا</t>
+    <t>ندا قدرت نما شبستری سعیدعبودزاده رویس</t>
   </si>
   <si>
     <t>درس(ع): سه شنبه   13:00-15:00</t>
@@ -5311,7 +5311,7 @@
     <t>ریخته گری 1</t>
   </si>
   <si>
-    <t>دیواندری مهدی</t>
+    <t>مهدی دیواندری</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:00-14:00 مکان: دانشکده متالوژی و مواد کلاس شماره 425، درس(ت): سه شنبه   13:00-15:00 مکان: دانشکده متالوژی و مواد کلاس شماره 425، حل تمرین(ت): یک شنبه   14:00-15:00 مکان: دانشکده متالوژی و مواد کلاس شماره 425</t>
@@ -5329,7 +5329,7 @@
     <t>خواص مکانیکی مواد1</t>
   </si>
   <si>
-    <t>عربی حسین</t>
+    <t>حسین عربی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: دانشکده متالوژی و مواد کلاس شماره 431، درس(ت): سه شنبه   08:00-09:00 مکان: دانشکده متالوژی و مواد کلاس شماره 431، حل تمرین(ت): سه شنبه   09:00-10:00 مکان: دانشکده متالوژی و مواد کلاس شماره 431</t>
@@ -5344,7 +5344,7 @@
     <t>1711100_02</t>
   </si>
   <si>
-    <t>ملکی مهدی</t>
+    <t>مهدی ملکی</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    15:00-17:00 مکان: دانشکده متالوژی و مواد کلاس شماره 274، درس(ت): چهارشنبه  15:00-17:00 مکان: دانشکده متالوژی و مواد کلاس شماره 274</t>
@@ -5377,7 +5377,7 @@
     <t>شیمی فیزیک مواد</t>
   </si>
   <si>
-    <t>صمدانی مریم</t>
+    <t>مریم صمدانی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:00-15:00 مکان: دانشکده متالوژی و مواد کلاس شماره 208، درس(ت): سه شنبه   13:00-14:00 مکان: دانشکده متالوژی و مواد کلاس شماره 208، حل تمرین(ت): سه شنبه   14:00-15:00 مکان: دانشکده متالوژی و مواد کلاس شماره 208</t>
@@ -5389,7 +5389,7 @@
     <t>1711104_02</t>
   </si>
   <si>
-    <t>گودرزی مسعود</t>
+    <t>مسعود گودرزی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:00-15:00 مکان: دانشکده متالوژی و مواد کلاس شماره 432، درس(ت): سه شنبه   13:00-14:00 مکان: دانشکده متالوژی و مواد کلاس شماره 432، حل تمرین(ت): سه شنبه   14:00-15:00 مکان: دانشکده متالوژی و مواد کلاس شماره 432</t>
@@ -5401,7 +5401,7 @@
     <t>1711104_03</t>
   </si>
   <si>
-    <t>مسعودپناه سیدمرتضی</t>
+    <t>سید مرتضیمسعودپناه</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:00-15:00 مکان: دانشکده متالوژی و مواد کلاس شماره 206، درس(ت): سه شنبه   13:00-14:00 مکان: دانشکده متالوژی و مواد کلاس شماره 206، حل تمرین(ت): سه شنبه   14:00-15:00 مکان: دانشکده متالوژی و مواد کلاس شماره 206</t>
@@ -5416,7 +5416,7 @@
     <t>شکل دادن فلزات 1</t>
   </si>
   <si>
-    <t>رضوی سیدحسین</t>
+    <t>سید حسینرضوی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: دانشکده متالوژی و مواد کلاس شماره 274، درس(ت): دوشنبه    08:00-09:00 مکان: دانشکده متالوژی و مواد کلاس شماره 274</t>
@@ -5431,7 +5431,7 @@
     <t>شکل دادن فلزات 2</t>
   </si>
   <si>
-    <t>ایوانی علیرضا</t>
+    <t>علیرضا ایوانی</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    15:00-16:00 مکان: دانشکده متالوژی و مواد کلاس شماره 275، درس(ت): چهارشنبه  15:00-17:00 مکان: دانشکده متالوژی و مواد کلاس شماره 275</t>
@@ -5464,7 +5464,7 @@
     <t>متالورژی جوشکاری</t>
   </si>
   <si>
-    <t>گودرزی مسعودبوترابی سیدمحمدعلی</t>
+    <t>سید محمدعلیگودرزی مسعودبوترابی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 نیمه1 ت مکان: دانشکده متالوژی و مواد کلاس شماره 204، درس(ت): دوشنبه    08:00-09:00 نیمه1 ت مکان: دانشکده متالوژی و مواد کلاس شماره 204، درس(ت): شنبه      08:00-10:00 نیمه2 ت مکان: دانشکده متالوژی و مواد کلاس شماره 204، درس(ت): دوشنبه    08:00-09:00 نیمه2 ت مکان: دانشکده متالوژی و مواد کلاس شماره 204</t>
@@ -5482,7 +5482,7 @@
     <t>آزمایشگاه ریخته گری 1</t>
   </si>
   <si>
-    <t>بوترابی سیدمحمدعلیشیخ علیزاده خانقاه عزیر</t>
+    <t>خانقاه عزیربوترابی سید محمدعلیشیخ علیزاده</t>
   </si>
   <si>
     <t>تاریخ: 1398/10/18  ساعت: 10:30-12:00</t>
@@ -5497,7 +5497,7 @@
     <t>آزمایشگاه تغلیظ مواد معدنی</t>
   </si>
   <si>
-    <t>ابوطالبی محمدرضا</t>
+    <t>محمدرضا ابوطالبی</t>
   </si>
   <si>
     <t>درس(ع): یک شنبه   10:00-12:00</t>
@@ -5512,7 +5512,7 @@
     <t>آزمایشگاه متالوگرافی</t>
   </si>
   <si>
-    <t>کوه دار حمیدرضاعطایی علیرضا</t>
+    <t>علیرضا کوه دار حمیدرضاعطایی</t>
   </si>
   <si>
     <t>درس(ع): شنبه      08:00-10:00</t>
@@ -5527,7 +5527,7 @@
     <t>1711136_03</t>
   </si>
   <si>
-    <t>ملکی مهدیعطایی علیرضا</t>
+    <t>علیرضا ملکی مهدیعطایی</t>
   </si>
   <si>
     <t>درس(ع): دوشنبه    08:00-10:00</t>
@@ -5542,7 +5542,7 @@
     <t>1711136_04</t>
   </si>
   <si>
-    <t>کرد مرضیهعطایی علیرضامشیدی شادی</t>
+    <t>شادی کرد مرضیهعطایی علیرضامشیدی</t>
   </si>
   <si>
     <t>درس(ع): سه شنبه   08:00-10:00</t>
@@ -5557,7 +5557,7 @@
     <t>آزمایشگاه خواص مکانیکی مواد 1</t>
   </si>
   <si>
-    <t>سعادت فومنی سیروس</t>
+    <t>سیروس سعادت فومنی</t>
   </si>
   <si>
     <t>1711137_02</t>
@@ -5566,7 +5566,7 @@
     <t>1711137_03</t>
   </si>
   <si>
-    <t>ثقفیان لاریجانی حسنسعادت فومنی سیروسفولادی ماهانی ساغر</t>
+    <t>ساغر ثقفیان لاریجانی حسنسعادت فومنی سیروسفولادی ماهانی</t>
   </si>
   <si>
     <t>1711139_01</t>
@@ -5575,7 +5575,7 @@
     <t>آزمایشگاه شکل دادن فلزات</t>
   </si>
   <si>
-    <t>رضوی سیدحسینسعادت فومنی سیروس</t>
+    <t>فومنی سیروسرضوی سید حسینسعادت</t>
   </si>
   <si>
     <t>درس(ع): شنبه      15:00-18:00</t>
@@ -5611,7 +5611,7 @@
     <t>سرامیکهای مهندسی</t>
   </si>
   <si>
-    <t>میرکاظمی سید محمدغفاری سید امیر</t>
+    <t>سید امیرمیرکاظمی سید محمدغفاری</t>
   </si>
   <si>
     <t>درس(ت): شنبه      15:00-17:00 نیمه1 ت مکان: دانشکده متالوژی و مواد کلاس شماره 206، درس(ت): دوشنبه    11:00-12:00 نیمه1 ت مکان: دانشکده متالوژی و مواد کلاس شماره 432، درس(ت): شنبه      15:00-17:00 نیمه2 ت مکان: دانشکده متالوژی و مواد کلاس شماره 206، درس(ت): دوشنبه    11:00-12:00 نیمه2 ت مکان: دانشکده متالوژی و مواد کلاس شماره 432</t>
@@ -5641,7 +5641,7 @@
     <t>آزمایشگاه مواد اولیه سرامیک و فرآوری</t>
   </si>
   <si>
-    <t>سرپولکی حسینشعبانی شقایقمسیحیان پور علی اکبر</t>
+    <t>اکبر سرپولکی حسینشعبانی شقایقمسیحیان پور علی</t>
   </si>
   <si>
     <t>تاریخ: 1398/10/14  ساعت: 13:30-15:30</t>
@@ -5659,7 +5659,7 @@
     <t>آزمایشگاه فرایند ساخت سرامیک ها</t>
   </si>
   <si>
-    <t>نقی زاده رحیمکرد مرضیه</t>
+    <t>مرضیه نقی زاده رحیمکرد</t>
   </si>
   <si>
     <t>درس(ع): چهارشنبه  08:00-12:00</t>
@@ -5692,7 +5692,7 @@
     <t>ساختار سرامیکها</t>
   </si>
   <si>
-    <t>میرکاظمی سید محمد</t>
+    <t>سید محمدمیرکاظمی</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   10:00-12:00 مکان: دانشکده متالوژی و مواد کلاس شماره 204</t>
@@ -5707,7 +5707,7 @@
     <t>سینتیک مواد</t>
   </si>
   <si>
-    <t>نقی زاده رحیمقنبری هاجر</t>
+    <t>هاجر نقی زاده رحیمقنبری</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: دانشکده متالوژی و مواد کلاس شماره 432، درس(ت): دوشنبه    08:00-10:00 مکان: دانشکده متالوژی و مواد کلاس شماره 432</t>
@@ -5725,7 +5725,7 @@
     <t>فرایند ساخت سرامیکها 1</t>
   </si>
   <si>
-    <t>افتخاری یکتا بیژن</t>
+    <t>بیژن افتخاری یکتا</t>
   </si>
   <si>
     <t>درس(ت): شنبه      13:00-15:00 مکان: دانشکده متالوژی و مواد کلاس شماره 431</t>
@@ -5740,7 +5740,7 @@
     <t>فرایند ساخت سرامیکها 2</t>
   </si>
   <si>
-    <t>غفاری سید امیر</t>
+    <t>سید امیرغفاری</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   13:00-15:00 مکان: دانشکده متالوژی و مواد کلاس شماره 274</t>
@@ -5755,7 +5755,7 @@
     <t>خوردگی و اکسیداسیون</t>
   </si>
   <si>
-    <t>رستگاری سعید</t>
+    <t>سعید رستگاری</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    15:00-17:00 مکان: دانشکده متالوژی و مواد کلاس شماره 432، درس(ت): چهارشنبه  15:00-16:00 مکان: دانشکده متالوژی و مواد کلاس شماره 432</t>
@@ -5782,7 +5782,7 @@
     <t>آزمایشگاه فرایند ساخت سرامیکها 1</t>
   </si>
   <si>
-    <t>رضایی حمیدرضامسیحیان پور علی اکبر</t>
+    <t>اکبر رضایی حمیدرضامسیحیان پور علی</t>
   </si>
   <si>
     <t>مجاز برای مقطع کارشناسی، دانشکده مهندسی مواد و متالورژی، گروه آموزشی واحد آموزش کارشناسی، رشته مهندسی مواد و متالورژی-مهندسی مواد-سرامیک،</t>
@@ -5794,7 +5794,7 @@
     <t>آزمایشگاه فرایند ساخت سرامیکها 2</t>
   </si>
   <si>
-    <t>صمدانی مریممسیحیان پور علی اکبر</t>
+    <t>اکبر صمدانی مریممسیحیان پور علی</t>
   </si>
   <si>
     <t>1711214_01</t>
@@ -5803,7 +5803,7 @@
     <t>آزمایشگاه روشهای شناخت و بررسی مواد سرامیکی</t>
   </si>
   <si>
-    <t>صمدانی مریمناصحی گوگجه نرگس</t>
+    <t>نرگس صمدانی مریمناصحی گوگجه</t>
   </si>
   <si>
     <t>درس(ع): دوشنبه    08:00-10:00 مکان: دانشکده متالوژی و مواد کلاس شماره 425</t>
@@ -5815,7 +5815,7 @@
     <t>آزمایشگاه لعاب</t>
   </si>
   <si>
-    <t>افتخاری یکتا بیژنکرد مرضیه</t>
+    <t>مرضیه افتخاری یکتا بیژنکرد</t>
   </si>
   <si>
     <t>درس(ع): دوشنبه    10:00-12:00</t>
@@ -5833,7 +5833,7 @@
     <t>آزمایشگاه مواد دیر گداز</t>
   </si>
   <si>
-    <t>نقی زاده رحیمفرزانه فرشیدمسیحیان پور علی اکبر</t>
+    <t>اکبر نقی زاده رحیمفرزانه فرشیدمسیحیان پور علی</t>
   </si>
   <si>
     <t>1711221_01</t>
@@ -5842,7 +5842,7 @@
     <t>آزمایشگاه شیشه</t>
   </si>
   <si>
-    <t>کرد مرضیه</t>
+    <t>مرضیه کرد</t>
   </si>
   <si>
     <t>1711280_01</t>
@@ -5881,7 +5881,7 @@
     <t>1711281_02</t>
   </si>
   <si>
-    <t>ذاکری علیرضا</t>
+    <t>علیرضا ذاکری</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   13:00-15:00 مکان: دانشکده متالوژی و مواد کلاس شماره 202</t>
@@ -5938,7 +5938,7 @@
     <t>اقتصاد و مدیریت صنعتی</t>
   </si>
   <si>
-    <t>پالیزدار یحیی</t>
+    <t>یحیی پالیزدار</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: دانشکده متالوژی و مواد کلاس شماره 206</t>
@@ -5953,7 +5953,7 @@
     <t>1711353_01</t>
   </si>
   <si>
-    <t>شیخ علیزاده خانقاه عزیر</t>
+    <t>عزیر شیخ علیزاده خانقاه</t>
   </si>
   <si>
     <t>درس(ع): شنبه      08:00-11:00</t>
@@ -5977,7 +5977,7 @@
     <t>1711354_01</t>
   </si>
   <si>
-    <t>غلامی فرشاد</t>
+    <t>فرشاد غلامی</t>
   </si>
   <si>
     <t>تاریخ: 1398/10/15  ساعت: 11:00-13:00</t>
@@ -5989,7 +5989,7 @@
     <t>1711354_02</t>
   </si>
   <si>
-    <t>مقصودی عمید</t>
+    <t>عمید مقصودی</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    08:00-09:00 مکان: دانشکده مکانیک کلاس شماره 109، درس(ع): دوشنبه    09:00-12:00 مکان: دانشکده مکانیک کلاس شماره 109</t>
@@ -6001,7 +6001,7 @@
     <t>1711354_03</t>
   </si>
   <si>
-    <t>سلیمی بنی میلاد</t>
+    <t>میلاد سلیمی بنی</t>
   </si>
   <si>
     <t>تاریخ: 1398/10/15  ساعت: 14:00-16:00</t>
@@ -6016,7 +6016,7 @@
     <t>الکتروسرامیک 1</t>
   </si>
   <si>
-    <t>میرکاظمی سید محمدقنبری هاجر</t>
+    <t>محمدقنبری هاجرمیرکاظمی سید</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 نیمه1 ت مکان: دانشکده متالوژی و مواد کلاس شماره 425، درس(ت): شنبه      10:00-12:00 نیمه2 ت مکان: دانشکده متالوژی و مواد کلاس شماره 425</t>
@@ -6031,7 +6031,7 @@
     <t>خواص الکتریکی و نوری سرامیکها</t>
   </si>
   <si>
-    <t>جوادپور جعفرقنبری هاجر</t>
+    <t>هاجر جوادپور جعفرقنبری</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   15:00-17:00 نیمه1 ت مکان: دانشکده متالوژی و مواد کلاس شماره 431، درس(ت): سه شنبه   15:00-17:00 نیمه1 ت مکان: دانشکده متالوژی و مواد کلاس شماره 431، درس(ت): یک شنبه   15:00-17:00 نیمه2 ت مکان: دانشکده متالوژی و مواد کلاس شماره 431، درس(ت): سه شنبه   15:00-17:00 نیمه2 ت مکان: دانشکده متالوژی و مواد کلاس شماره 431</t>
@@ -6046,7 +6046,7 @@
     <t>ایستایی</t>
   </si>
   <si>
-    <t>کوه دار حمیدرضا</t>
+    <t>حمیدرضا کوه دار</t>
   </si>
   <si>
     <t>درس(ت): چهارشنبه  08:00-10:00 مکان: دانشکده متالوژی و مواد کلاس شماره 106</t>
@@ -6073,7 +6073,7 @@
     <t>1711375_02</t>
   </si>
   <si>
-    <t>محمدصادقی باقر</t>
+    <t>باقر محمدصادقی</t>
   </si>
   <si>
     <t>درس(ت): چهارشنبه  10:00-12:00 مکان: دانشکده متالوژی و مواد کلاس شماره 206</t>
@@ -6112,7 +6112,7 @@
     <t>آزمایشگاه متالوگرافی و ریز ساختار مواد</t>
   </si>
   <si>
-    <t>عربی حسینعطایی علیرضا</t>
+    <t>علیرضا عربی حسینعطایی</t>
   </si>
   <si>
     <t>مجاز برای مقطع کارشناسی، دانشکده مهندسی مواد و متالورژی، گروه آموزشی واحد آموزش کارشناسی، رشته مهندسی مواد و متالورژی-مهندسی متالورژی-متالورژی صنعتی، ، مجاز برای مقطع کارشناسی، دانشکده مهندسی مواد و متالورژی، گروه آموزشی واحد آموزش کارشناسی، رشته مهندسی مواد و متالورژی-مهندسی متالورژی-تولید و فرآوری مواد فلزی، ، مجاز برای مقطع کارشناسی، دانشکده مهندسی مواد و متالورژی، گروه آموزشی واحد آموزش کارشناسی، رشته مهندسی مواد و متالورژی-مهندسی مواد-طراحی مواد مهندسی،</t>
@@ -6148,7 +6148,7 @@
     <t>اصول انجماد و ریخته گری مواد</t>
   </si>
   <si>
-    <t>قدرت نما شبستری سعیددیواندری مهدی</t>
+    <t>مهدی قدرت نما شبستری سعیددیواندری</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    10:00-12:00 نیمه1 ت مکان: دانشکده متالوژی و مواد کلاس شماره 425، درس(ت): دوشنبه    10:00-12:00 نیمه2 ت مکان: دانشکده متالوژی و مواد کلاس شماره 425</t>
@@ -6181,7 +6181,7 @@
     <t>اصول مهندسی سرامیک</t>
   </si>
   <si>
-    <t>قنبری هاجر</t>
+    <t>هاجر قنبری</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    08:00-09:00 مکان: دانشکده مهندسی شیمی کلاس شماره 138، درس(ت): سه شنبه   08:00-10:00 مکان: دانشکده متالوژی و مواد کلاس شماره 106</t>
@@ -6196,7 +6196,7 @@
     <t>اصول مهندسی پلیمرها</t>
   </si>
   <si>
-    <t>خاوندی علیرضا</t>
+    <t>علیرضا خاوندی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: دانشکده متالوژی و مواد کلاس شماره 106، درس(ت): سه شنبه   17:00-18:00 مکان: دانشکده متالوژی و مواد کلاس شماره 106</t>
@@ -6214,7 +6214,7 @@
     <t>آزمایشگاه انجماد و ریخته گری مواد</t>
   </si>
   <si>
-    <t>قدرت نما شبستری سعیدشیخ علیزاده خانقاه عزیرعبدی بجندی محسن</t>
+    <t>محسن قدرت نما شبستری سعیدشیخ علیزاده خانقاه عزیرعبدی بجندی</t>
   </si>
   <si>
     <t>مجاز برای مقطع کارشناسی، دانشکده مهندسی مواد و متالورژی، گروه آموزشی واحد آموزش کارشناسی، رشته مهندسی مواد و متالورژی-مهندسی متالورژی-تولید و فرآوری مواد فلزی، ، مجاز برای مقطع کارشناسی، دانشکده مهندسی مواد و متالورژی، گروه آموزشی واحد آموزش کارشناسی، رشته مهندسی مواد و متالورژی-مهندسی مواد-طراحی مواد مهندسی،</t>
@@ -6226,7 +6226,7 @@
     <t>مواد مرکب</t>
   </si>
   <si>
-    <t>ثقفیان لاریجانی حسنرضایی حمیدرضا</t>
+    <t>حمیدرضا ثقفیان لاریجانی حسنرضایی</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   15:00-17:00 نیمه1 ت مکان: دانشکده متالوژی و مواد کلاس شماره 106، درس(ت): سه شنبه   15:00-17:00 نیمه2 ت مکان: دانشکده متالوژی و مواد کلاس شماره 106</t>
@@ -6304,7 +6304,7 @@
     <t>متالورژی پودر</t>
   </si>
   <si>
-    <t>ریخته گر فرشید</t>
+    <t>فرشید ریخته گر</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   16:00-17:00 مکان: دانشکده متالوژی و مواد کلاس شماره 202، درس(ت): سه شنبه   15:00-17:00 مکان: دانشکده متالوژی و مواد کلاس شماره 202</t>
@@ -6322,7 +6322,7 @@
     <t>1811017_01</t>
   </si>
   <si>
-    <t>کلینی ممقانی ناصر</t>
+    <t>ناصر کلینی ممقانی</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    15:30-16:30 مکان: دانشکده معماری ساختمان شماره 1(قدیم) کلاس شماره 204، درس(ع): دوشنبه    10:00-12:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) کلاس شماره 204</t>
@@ -6346,7 +6346,7 @@
     <t>هندسه کاربردی</t>
   </si>
   <si>
-    <t>موذن سجاد</t>
+    <t>سجاد موذن</t>
   </si>
   <si>
     <t>درس(ت): چهارشنبه  15:00-16:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 1، درس(ع): شنبه      15:00-19:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 1، درس(ع): چهارشنبه  16:00-18:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 1</t>
@@ -6361,7 +6361,7 @@
     <t>1811050_03</t>
   </si>
   <si>
-    <t>علیپور معصومه</t>
+    <t>معصومه علیپور</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   11:00-12:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 3، درس(ع): یک شنبه   08:00-11:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 3، درس(ع): چهارشنبه  09:00-12:00 مکان: دانشکده معماری ساختمان شماره  2(جدید) 434  (آتلیه 18)</t>
@@ -6379,7 +6379,7 @@
     <t>کارگاه مصالح و ساخت</t>
   </si>
   <si>
-    <t>جیحانی بهنامشجاعی آرش</t>
+    <t>آرش جیحانی بهنامشجاعی</t>
   </si>
   <si>
     <t>درس(ع): چهارشنبه  08:00-12:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) کارگاه آتلیه 11، درس(ع): چهارشنبه  13:00-15:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) کارگاه آتلیه 11</t>
@@ -6400,7 +6400,7 @@
     <t>درک و بیان محیط</t>
   </si>
   <si>
-    <t>کبودی مهدی</t>
+    <t>مهدی کبودی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   12:30-13:30 مکان: دانشکده معماری ساختمان شماره 1(قدیم) کارگاه آتلیه 12، درس(ع): یک شنبه   13:30-19:30 مکان: دانشکده معماری ساختمان شماره 1(قدیم) کارگاه آتلیه 12</t>
@@ -6415,7 +6415,7 @@
     <t>1811052_02</t>
   </si>
   <si>
-    <t>موسوی سیدمحمدعلی</t>
+    <t>سید محمدعلیموسوی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   12:30-13:30 مکان: دانشکده معماری ساختمان شماره 1(قدیم) کارگاه آتلیه 11، درس(ع): یک شنبه   13:30-19:30 مکان: دانشکده معماری ساختمان شماره 1(قدیم) کارگاه آتلیه 11</t>
@@ -6430,7 +6430,7 @@
     <t>-3</t>
   </si>
   <si>
-    <t>صدیق مرتضی</t>
+    <t>مرتضی صدیق</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:00-14:00 مکان: دانشکده معماری ساختمان شماره  2(جدید) 434  (آتلیه 18)، درس(ع): یک شنبه   14:00-19:00 مکان: دانشکده معماری ساختمان شماره  2(جدید) 434  (آتلیه 18)</t>
@@ -6466,7 +6466,7 @@
     <t>ریاضیات و آمار معماری</t>
   </si>
   <si>
-    <t>رضائی رضوان</t>
+    <t>رضوان رضائی</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   09:00-12:00 مکان: دانشکده معماری ساختمان شماره  2(جدید) 1 (کلاس 101)</t>
@@ -6484,7 +6484,7 @@
     <t>انسان طبیعت معماری</t>
   </si>
   <si>
-    <t>حمزه نژاد مهدی</t>
+    <t>مهدی حمزه نژاد</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   15:00-16:00 مکان: دانشکده معماری ساختمان شماره  2(جدید) 1 (کلاس 101)، درس(ع): سه شنبه   16:00-18:00 مکان: دانشکده معماری ساختمان شماره  2(جدید) 1 (کلاس 101)</t>
@@ -6502,7 +6502,7 @@
     <t>مقدمات طراحی معماری 1</t>
   </si>
   <si>
-    <t>ترکاشوند عباسمهدیزاده سراج فاطمه</t>
+    <t>فاطمه ترکاشوند عباسمهدیزاده سراج</t>
   </si>
   <si>
     <t>درس(ت): چهارشنبه  08:00-09:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 1، درس(ع): یک شنبه   08:00-12:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 1، درس(ع): یک شنبه   13:30-18:30 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 1، درس(ع): چهارشنبه  09:00-12:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 1</t>
@@ -6520,7 +6520,7 @@
     <t>مقدمات طراحی معماری 2</t>
   </si>
   <si>
-    <t>خاک زند مهدیحمزه نژاد مهدی</t>
+    <t>مهدی خاک زند مهدیحمزه نژاد</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-09:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 4، درس(ع): شنبه      08:00-12:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 3، درس(ع): شنبه      13:00-18:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 3، درس(ع): یک شنبه   09:00-12:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 4</t>
@@ -6535,7 +6535,7 @@
     <t>مبانی نظری معماری</t>
   </si>
   <si>
-    <t>نقره کار عبدالحمید</t>
+    <t>عبدالحمید نقره کار</t>
   </si>
   <si>
     <t>درس(ت): چهارشنبه  13:00-16:00 مکان: دانشکده معماری ساختمان شماره  2(جدید) 1 (کلاس 101)</t>
@@ -6562,7 +6562,7 @@
     <t>برداشت از بناهای تاریخی</t>
   </si>
   <si>
-    <t>کاظم پور حمیدرضامعماریان غلامحسین</t>
+    <t>غلامحسین کاظم پور حمیدرضامعماریان</t>
   </si>
   <si>
     <t>درس(ع): سه شنبه   08:00-12:00، درس(ع): سه شنبه   13:00-18:00</t>
@@ -6583,7 +6583,7 @@
     <t>آشنایی بامعماری اسلامی</t>
   </si>
   <si>
-    <t>معماریان غلامحسیندهقانی تفتی محسن</t>
+    <t>محسن معماریان غلامحسیندهقانی تفتی</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    09:30-12:30 مکان: دانشکده معماری ساختمان شماره  2(جدید) 228 (آتلیه 304)، درس(ع): دوشنبه    07:30-09:30 مکان: دانشکده معماری ساختمان شماره  2(جدید) 228 (آتلیه 304)</t>
@@ -6610,7 +6610,7 @@
     <t>نقشه برداری</t>
   </si>
   <si>
-    <t>نوبخت دودران شمسمبینی کیا قاسم</t>
+    <t>قاسم نوبخت دودران شمسمبینی کیا</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    16:00-17:00 مکان: دانشکده معماری ساختمان شماره  2(جدید) 3 (کلاس 103)، درس(ع): دوشنبه    15:30-16:00، درس(ع): دوشنبه    17:00-19:30 مکان: دانشکده معماری ساختمان شماره  2(جدید) 3 (کلاس 103)</t>
@@ -6628,7 +6628,7 @@
     <t>تنظیم شرایط محیطی</t>
   </si>
   <si>
-    <t>ابوالحسنی نوشینملوندی محسن</t>
+    <t>محسن ابوالحسنی نوشینملوندی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:00-15:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 3</t>
@@ -6643,7 +6643,7 @@
     <t>1811069_01</t>
   </si>
   <si>
-    <t>موسوی سیدحسین</t>
+    <t>سید حسینموسوی</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    08:00-10:00 مکان: دانشکده معماری ساختمان شماره  2(جدید) 3 (کلاس 103)</t>
@@ -6661,7 +6661,7 @@
     <t>مقاومت مصالح و سازه های فلزی</t>
   </si>
   <si>
-    <t>ظفرخواه الیار</t>
+    <t>الیار ظفرخواه</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    10:00-12:00 مکان: دانشکده معماری ساختمان شماره  2(جدید) 3 (کلاس 103)</t>
@@ -6679,7 +6679,7 @@
     <t>متره و برآورد</t>
   </si>
   <si>
-    <t>فاتحی حسین</t>
+    <t>حسین فاتحی</t>
   </si>
   <si>
     <t>درس(ت): چهارشنبه  13:00-14:00 مکان: دانشکده معماری ساختمان شماره  2(جدید) 4 (کلاس 104)، درس(ع): چهارشنبه  14:00-16:00 مکان: دانشکده معماری ساختمان شماره  2(جدید) 4 (کلاس 104)</t>
@@ -6697,7 +6697,7 @@
     <t>مدیریت و تشکیلات کارگاه</t>
   </si>
   <si>
-    <t>شورشی علیرضا</t>
+    <t>علیرضا شورشی</t>
   </si>
   <si>
     <t>درس(ت): چهارشنبه  16:00-17:00 مکان: دانشکده معماری ساختمان شماره  2(جدید) 4 (کلاس 104)، درس(ع): چهارشنبه  17:00-19:30 مکان: دانشکده معماری ساختمان شماره  2(جدید) 4 (کلاس 104)</t>
@@ -6712,7 +6712,7 @@
     <t>ساختمان 1</t>
   </si>
   <si>
-    <t>امامی سیدجوادعظمتی حمیدرضا</t>
+    <t>جوادعظمتی حمیدرضاامامی سید</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   17:00-19:00 مکان: دانشکده معماری ساختمان شماره  2(جدید) 3 (کلاس 103)</t>
@@ -6727,7 +6727,7 @@
     <t>ساختمان 2 و گزارش کارگاه</t>
   </si>
   <si>
-    <t>عظمتی حمیدرضاامامی سیدجواد</t>
+    <t>سید جوادعظمتی حمیدرضاامامی</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   13:00-15:00 مکان: دانشکده معماری ساختمان شماره  2(جدید) 4 (کلاس 104)، درس(ع): سه شنبه   15:00-17:00 مکان: دانشکده معماری ساختمان شماره  2(جدید) 4 (کلاس 104)</t>
@@ -6742,7 +6742,7 @@
     <t>روستا 1</t>
   </si>
   <si>
-    <t>حسینی سید باقرامامی سیدجوادامتعلی عباس</t>
+    <t>سیدجوادامتعلی عباسحسینی سید باقرامامی</t>
   </si>
   <si>
     <t>درس(ت): چهارشنبه  14:00-15:00، درس(ع): یک شنبه   15:00-18:00، درس(ع): یک شنبه   18:00-19:00، درس(ع): چهارشنبه  17:00-18:00</t>
@@ -6757,7 +6757,7 @@
     <t>1811076_02</t>
   </si>
   <si>
-    <t>حسینی سید باقرامامی سیدجوادملوندی محسن</t>
+    <t>سیدجوادملوندی محسنحسینی سید باقرامامی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   18:00-19:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 4، درس(ع): یک شنبه   15:00-18:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 4، درس(ع): چهارشنبه  14:00-17:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 3</t>
@@ -6769,7 +6769,7 @@
     <t>روستا 2</t>
   </si>
   <si>
-    <t>حسینی سید باقرامامی سیدجوادامتعلی عباسملوندی محسن</t>
+    <t>عباسملوندی محسنحسینی سید باقرامامی سیدجوادامتعلی</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   08:00-09:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 2، درس(ع): دوشنبه    16:00-19:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 2، درس(ع): سه شنبه   09:00-12:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 2</t>
@@ -6784,7 +6784,7 @@
     <t>طراحی معماری 1</t>
   </si>
   <si>
-    <t>ترقی جاه محمدزرین قلمی کیهان</t>
+    <t>کیهان ترقی جاه محمدزرین قلمی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-09:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) کارگاه آتلیه 12، درس(ع): شنبه      09:00-12:30 مکان: دانشکده معماری ساختمان شماره 1(قدیم) کارگاه آتلیه 12، درس(ع): شنبه      13:00-17:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) کارگاه آتلیه 12، درس(ع): سه شنبه   08:00-12:30 مکان: دانشکده معماری ساختمان شماره 1(قدیم) کارگاه آتلیه 12</t>
@@ -6793,7 +6793,7 @@
     <t>1811078_02</t>
   </si>
   <si>
-    <t>یزدانفر سیدعباس آقا</t>
+    <t>عباس آقایزدانفر سید</t>
   </si>
   <si>
     <t>درس(ت): شنبه      18:00-19:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) کارگاه آتلیه 21، درس(ع): شنبه      08:00-12:00، درس(ع): شنبه      13:00-17:00، درس(ع): سه شنبه   08:00-12:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) کارگاه آتلیه 11</t>
@@ -6808,7 +6808,7 @@
     <t>طراحی معماری 2</t>
   </si>
   <si>
-    <t>مظفر فرهنگتقدیر سمانه</t>
+    <t>سمانه مظفر فرهنگتقدیر</t>
   </si>
   <si>
     <t>درس(ت): شنبه      16:30-18:30 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 2، درس(ع): شنبه      08:00-12:30 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 2، درس(ع): شنبه      13:00-16:30 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 2، درس(ع): سه شنبه   09:00-12:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 3</t>
@@ -6820,7 +6820,7 @@
     <t>1811079_02</t>
   </si>
   <si>
-    <t>صنایعیان هانیهمظفر فرهنگ</t>
+    <t>فرهنگ صنایعیان هانیهمظفر</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   08:00-09:00، درس(ع): شنبه      13:00-17:00، درس(ع): سه شنبه   09:00-12:00</t>
@@ -6832,7 +6832,7 @@
     <t>طراحی معماری 3</t>
   </si>
   <si>
-    <t>مردمی کندوانی کریم</t>
+    <t>کریم مردمی کندوانی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-09:00 مکان: دانشکده معماری ساختمان شماره  2(جدید) 228 (آتلیه 304)، درس(ع): شنبه      09:00-12:00 مکان: دانشکده معماری ساختمان شماره  2(جدید) 228 (آتلیه 304)، درس(ع): شنبه      13:00-18:00 مکان: دانشکده معماری ساختمان شماره  2(جدید) 228 (آتلیه 304)، درس(ع): سه شنبه   13:00-17:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 3</t>
@@ -6847,7 +6847,7 @@
     <t>1811080_02</t>
   </si>
   <si>
-    <t>علی آبادی محمد</t>
+    <t>محمد علی آبادی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-09:00 مکان: دانشکده معماری ساختمان شماره  2(جدید) 294 (آتلیه 1-312)، درس(ع): شنبه      09:00-12:00 مکان: دانشکده معماری ساختمان شماره  2(جدید) 294 (آتلیه 1-312)، درس(ع): شنبه      13:00-18:00 مکان: دانشکده معماری ساختمان شماره  2(جدید) 294 (آتلیه 1-312)، درس(ع): سه شنبه   13:00-17:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) کارگاه آتلیه 21</t>
@@ -6859,7 +6859,7 @@
     <t>آشنایی با مبانی برنامه ریزی کالبدی</t>
   </si>
   <si>
-    <t>شیعه اسماعیل</t>
+    <t>اسماعیل شیعه</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-09:00 مکان: دانشکده معماری ساختمان شماره  2(جدید) 3 (کلاس 103)، درس(ع): یک شنبه   09:00-12:00 مکان: دانشکده معماری ساختمان شماره  2(جدید) 3 (کلاس 103)</t>
@@ -6874,7 +6874,7 @@
     <t>1811081_02</t>
   </si>
   <si>
-    <t>امامی سیدجوادملوندی محسن</t>
+    <t>جوادملوندی محسنامامی سید</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-09:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 2، درس(ع): یک شنبه   09:00-12:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 2</t>
@@ -6886,7 +6886,7 @@
     <t>تحلیل فضاهای شهری</t>
   </si>
   <si>
-    <t>علی الحسابی مهران</t>
+    <t>مهران علی الحسابی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:00-15:00 مکان: دانشکده معماری ساختمان شماره  2(جدید) 3 (کلاس 103)، درس(ع): یک شنبه   15:00-17:00 مکان: دانشکده معماری ساختمان شماره  2(جدید) 3 (کلاس 103)</t>
@@ -6901,7 +6901,7 @@
     <t>آشنایی با مرمت ابنیه</t>
   </si>
   <si>
-    <t>محمدمرادی اصغرراعی حسینعلی اکبر علیرضا</t>
+    <t>علیرضا محمدمرادی اصغرراعی حسینعلی اکبر</t>
   </si>
   <si>
     <t>درس(ت): چهارشنبه  10:30-12:30 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 4، درس(ع): چهارشنبه  07:30-09:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 4، درس(ع): چهارشنبه  09:00-10:30 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 4</t>
@@ -6916,7 +6916,7 @@
     <t>طراحی معماری 4</t>
   </si>
   <si>
-    <t>پورسعید حمیدرضا</t>
+    <t>حمیدرضا پورسعید</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-09:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 4، درس(ع): شنبه      09:00-12:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 4، درس(ع): شنبه      13:00-18:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 4، درس(ع): چهارشنبه  08:00-12:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 3</t>
@@ -6931,7 +6931,7 @@
     <t>1811084_02</t>
   </si>
   <si>
-    <t>غفوریان بهروز</t>
+    <t>بهروز غفوریان</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-09:00، درس(ع): شنبه      09:00-12:00، درس(ع): شنبه      13:00-18:00، درس(ع): چهارشنبه  08:00-12:00</t>
@@ -6943,7 +6943,7 @@
     <t>طراحی معماری 5</t>
   </si>
   <si>
-    <t>نورالدین مصطفی</t>
+    <t>مصطفی نورالدین</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   08:00-09:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 1، درس(ع): شنبه      08:00-12:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 1، درس(ع): سه شنبه   09:00-12:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 1، درس(ع): سه شنبه   13:00-18:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 1</t>
@@ -6958,7 +6958,7 @@
     <t>1811085_02</t>
   </si>
   <si>
-    <t>غفوریان میترا</t>
+    <t>میترا غفوریان</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-09:00 مکان: دانشکده معماری ساختمان شماره  2(جدید) 293 (آتلیه 311)، درس(ع): شنبه      09:00-12:00 مکان: دانشکده معماری ساختمان شماره  2(جدید) 293 (آتلیه 311)، درس(ع): شنبه      13:00-18:00 مکان: دانشکده معماری ساختمان شماره  2(جدید) 293 (آتلیه 311)، درس(ع): سه شنبه   08:00-12:00 مکان: دانشکده معماری ساختمان شماره  2(جدید) 293 (آتلیه 311)</t>
@@ -6973,7 +6973,7 @@
     <t>کاربرد کامپیوتر در معماری</t>
   </si>
   <si>
-    <t>رهبر مرتضی</t>
+    <t>مرتضی رهبر</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   09:00-10:00 مکان: دانشکده معماری ساختمان شماره  2(جدید) 228 (آتلیه 304)، درس(ع): یک شنبه   10:00-12:00 مکان: دانشکده معماری ساختمان شماره  2(جدید) 228 (آتلیه 304)</t>
@@ -6988,7 +6988,7 @@
     <t>مبانی هنرهای تجسمی1</t>
   </si>
   <si>
-    <t>ظفرمند سیدجواد</t>
+    <t>سید جوادظفرمند</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   08:00-10:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) کلاس شماره 204، درس(ع): سه شنبه   10:00-12:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) کلاس شماره 204</t>
@@ -7012,7 +7012,7 @@
     <t>کارگاه طراحی پایه1</t>
   </si>
   <si>
-    <t>علی نیای مطلق ایوب</t>
+    <t>ایوب علی نیای مطلق</t>
   </si>
   <si>
     <t>درس(ع): چهارشنبه  07:30-12:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) کلاس شماره 204، درس(ع): چهارشنبه  18:00-19:30 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 202</t>
@@ -7024,7 +7024,7 @@
     <t>1811196_02</t>
   </si>
   <si>
-    <t>یوسفی توماج</t>
+    <t>توماج یوسفی</t>
   </si>
   <si>
     <t>درس(ع): شنبه      13:00-19:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) کلاس شماره 204</t>
@@ -7036,7 +7036,7 @@
     <t>عکاسی پایه 1</t>
   </si>
   <si>
-    <t>کریمی صارمی علیرضا</t>
+    <t>علیرضا کریمی صارمی</t>
   </si>
   <si>
     <t>درس(ع): سه شنبه   08:00-12:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 202</t>
@@ -7075,7 +7075,7 @@
     <t>آشنایی با هنر در تاریخ 1</t>
   </si>
   <si>
-    <t>ریاضی کشه محمدرضا</t>
+    <t>محمدرضا ریاضی کشه</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) کلاس شماره 201</t>
@@ -7105,7 +7105,7 @@
     <t>مهندسی عوامل انسانی ارگونومی 1</t>
   </si>
   <si>
-    <t>صادقی نائینی حسن</t>
+    <t>حسن صادقی نائینی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      14:00-16:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) کلاس شماره 201</t>
@@ -7120,7 +7120,7 @@
     <t>فرم و فضا</t>
   </si>
   <si>
-    <t>مسدد سیدهاشم</t>
+    <t>سید هاشممسدد</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   09:00-10:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) کلاس شماره 203، درس(ع): یک شنبه   10:00-12:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) کلاس شماره 203</t>
@@ -7141,7 +7141,7 @@
     <t>فیزیک1 ایستائی</t>
   </si>
   <si>
-    <t>همایونی احمد</t>
+    <t>احمد همایونی</t>
   </si>
   <si>
     <t>درس(ت): چهارشنبه  16:00-18:00 مکان: دانشکده معماری ساختمان شماره  2(جدید) 1 (کلاس 101)</t>
@@ -7168,7 +7168,7 @@
     <t>تاریخ طراحی صنعتی و اختراعات</t>
   </si>
   <si>
-    <t>صفار دزفولی محسن</t>
+    <t>محسن صفار دزفولی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   17:00-19:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) کلاس شماره 201</t>
@@ -7216,7 +7216,7 @@
     <t>مواد و روشهای ساخت 2</t>
   </si>
   <si>
-    <t>داورزنی محمد حسنصفار دزفولی محسن</t>
+    <t>محسن داورزنی محمد حسنصفار دزفولی</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   09:00-10:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) کارگاه طراحی صنعتی1، درس(ع): سه شنبه   10:00-12:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) کارگاه طراحی صنعتی1</t>
@@ -7243,7 +7243,7 @@
     <t>مواد و روشهای ساخت 3</t>
   </si>
   <si>
-    <t>عمادیان مهر محمدرضا</t>
+    <t>محمدرضا عمادیان مهر</t>
   </si>
   <si>
     <t>درس(ت): چهارشنبه  13:00-14:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) کلاس شماره 203، درس(ع): چهارشنبه  14:00-16:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) کلاس شماره 203</t>
@@ -7378,7 +7378,7 @@
     <t>پروژه 9 طراحی صنعتی - ارتباط با کارخانه</t>
   </si>
   <si>
-    <t>آبائی محمد</t>
+    <t>محمد آبائی</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   08:00-10:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) کلاس شماره 203، درس(ع): شنبه      13:00-19:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) کلاس شماره 203</t>
@@ -7402,7 +7402,7 @@
     <t>مصالح ساختمانی</t>
   </si>
   <si>
-    <t>زرین قلمی کیهان</t>
+    <t>کیهان زرین قلمی</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    09:00-10:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 1، درس(ع): دوشنبه    10:00-12:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 1</t>
@@ -7420,7 +7420,7 @@
     <t>طراحی به کمک کامپیوتر</t>
   </si>
   <si>
-    <t>آریان پور آزاده</t>
+    <t>آزاده آریان پور</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    15:00-16:00 مکان: دانشکده معماری ساختمان شماره  2(جدید) سایت کامپیوتر، درس(ع): دوشنبه    16:00-18:00 مکان: دانشکده معماری ساختمان شماره  2(جدید) سایت کامپیوتر</t>
@@ -7441,7 +7441,7 @@
     <t>مبانی محیط زیست</t>
   </si>
   <si>
-    <t>ملوندی محسن</t>
+    <t>محسن ملوندی</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    10:00-12:00 مکان: دانشکده معماری ساختمان شماره  2(جدید) 1 (کلاس 101)</t>
@@ -7459,7 +7459,7 @@
     <t>فیزیک 3 الکتریسیته و نور</t>
   </si>
   <si>
-    <t>صفائیان محمد علی</t>
+    <t>علی صفائیان محمد</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   09:00-10:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) کلاس شماره 204، درس(ع): یک شنبه   10:00-12:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) کلاس شماره 204</t>
@@ -7516,7 +7516,7 @@
     <t>1911032_01</t>
   </si>
   <si>
-    <t>صفی زاده میرسعید</t>
+    <t>میرسعید صفی زاده</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    15:00-17:00 مکان: دانشکده مکانیک کلاس شماره 116</t>
@@ -7528,7 +7528,7 @@
     <t>1911034_01</t>
   </si>
   <si>
-    <t>آیت الهی مجیدرضا</t>
+    <t>مجیدرضا آیت الهی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: دانشکده مکانیک کلاس شماره 114، درس(ت): دوشنبه    10:00-12:00 مکان: دانشکده مکانیک کلاس شماره 114</t>
@@ -7540,7 +7540,7 @@
     <t>1911034_02</t>
   </si>
   <si>
-    <t>دانشجو کامران</t>
+    <t>کامران دانشجو</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: دانشکده مکانیک کلاس شماره 115، درس(ت): دوشنبه    10:00-12:00 مکان: دانشکده مکانیک کلاس شماره 115</t>
@@ -7552,7 +7552,7 @@
     <t>1911034_03</t>
   </si>
   <si>
-    <t>شکریه محمودمهرداد</t>
+    <t>محمودمهرداد شکریه</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: دانشکده مکانیک کلاس شماره 114، درس(ت): سه شنبه   08:00-10:00 مکان: دانشکده مکانیک کلاس شماره 114</t>
@@ -7561,7 +7561,7 @@
     <t>1911043_01</t>
   </si>
   <si>
-    <t>طاهری بهروز فتح اله</t>
+    <t>اله طاهری بهروز فتح</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: دانشکده مکانیک کلاس شماره 115، درس(ت): دوشنبه    08:00-10:00 مکان: دانشکده مکانیک کلاس شماره 115</t>
@@ -7573,7 +7573,7 @@
     <t>1911043_02</t>
   </si>
   <si>
-    <t>خرمی شاد هادی</t>
+    <t>هادی خرمی شاد</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: دانشکده مکانیک کلاس شماره 114، درس(ت): دوشنبه    08:00-10:00 مکان: دانشکده مکانیک کلاس شماره 114</t>
@@ -7588,7 +7588,7 @@
     <t>100</t>
   </si>
   <si>
-    <t>قندهاریون سمانه</t>
+    <t>سمانه قندهاریون</t>
   </si>
   <si>
     <t>1911075_01</t>
@@ -7597,7 +7597,7 @@
     <t>کنترل اتوماتیک</t>
   </si>
   <si>
-    <t>بیگ زاده برهان</t>
+    <t>برهان بیگ زاده</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: دانشکده مکانیک کلاس شماره 3119، درس(ت): سه شنبه   08:00-10:00 مکان: دانشکده مکانیک کلاس شماره 3119</t>
@@ -7609,7 +7609,7 @@
     <t>1911075_02</t>
   </si>
   <si>
-    <t>منتظری قهجاورستانی مرتضی</t>
+    <t>مرتضی منتظری قهجاورستانی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: دانشکده مکانیک کلاس شماره 205، درس(ت): سه شنبه   10:00-12:00 مکان: دانشکده مکانیک کلاس شماره 205</t>
@@ -7621,7 +7621,7 @@
     <t>طراحی اجزاء 2</t>
   </si>
   <si>
-    <t>اشرفی محمد جواد</t>
+    <t>جواد اشرفی محمد</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: دانشکده مکانیک کلاس شماره 208، درس(ت): دوشنبه    08:00-10:00 مکان: دانشکده مکانیک کلاس شماره 208</t>
@@ -7633,7 +7633,7 @@
     <t>1911083_01</t>
   </si>
   <si>
-    <t>حق پناهی محمد</t>
+    <t>محمد حق پناهی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   15:00-17:00 مکان: دانشکده مکانیک کلاس شماره 201، درس(ت): سه شنبه   15:00-17:00 مکان: دانشکده مکانیک کلاس شماره 201</t>
@@ -7645,7 +7645,7 @@
     <t>1911083_02</t>
   </si>
   <si>
-    <t>طالبی توتی روح الله</t>
+    <t>الله طالبی توتی روح</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   15:00-17:00 مکان: دانشکده مکانیک کلاس شماره 114، درس(ت): سه شنبه   15:00-17:00 مکان: دانشکده مکانیک کلاس شماره 114</t>
@@ -7657,7 +7657,7 @@
     <t>نیروگاهها (حرارتی .آبی .هسته ای)</t>
   </si>
   <si>
-    <t>حسینعلی پور سیدمصطفی</t>
+    <t>سید مصطفیحسینعلی پور</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: دانشکده مکانیک کلاس شماره 116، درس(ت): سه شنبه   10:00-12:00 مکان: دانشکده مکانیک کلاس شماره 116</t>
@@ -7672,7 +7672,7 @@
     <t>حرارت مرکزی و تهویه مطبوع 1</t>
   </si>
   <si>
-    <t>شهریاری مقدم غلامرضا</t>
+    <t>غلامرضا شهریاری مقدم</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: دانشکده مکانیک کلاس شماره 376، درس(ت): دوشنبه    08:00-10:00 مکان: دانشکده مکانیک کلاس شماره 376</t>
@@ -7687,7 +7687,7 @@
     <t>دینامیک گازها</t>
   </si>
   <si>
-    <t>بیدآبادی مهدی</t>
+    <t>مهدی بیدآبادی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: دانشکده مکانیک کلاس شماره 205، درس(ت): دوشنبه    10:00-12:00 مکان: دانشکده مکانیک کلاس شماره 205</t>
@@ -7702,7 +7702,7 @@
     <t>یاتاقان و روغنکاری</t>
   </si>
   <si>
-    <t>نویدبخش مهدی</t>
+    <t>مهدی نویدبخش</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   15:00-17:00 مکان: دانشکده مکانیک کلاس شماره 116</t>
@@ -7717,7 +7717,7 @@
     <t>انتقال حرارت 1</t>
   </si>
   <si>
-    <t>بازدیدی طهرانی فرزاد</t>
+    <t>فرزاد بازدیدی طهرانی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:00-15:00 مکان: دانشکده مکانیک کلاس شماره 201، درس(ت): سه شنبه   13:00-15:00 مکان: دانشکده مکانیک کلاس شماره 201</t>
@@ -7729,7 +7729,7 @@
     <t>1911103_02</t>
   </si>
   <si>
-    <t>شجاعی فرد محمدحسن</t>
+    <t>محمدحسن شجاعی فرد</t>
   </si>
   <si>
     <t>1911104_01</t>
@@ -7738,7 +7738,7 @@
     <t>کارگاه اتومکانیک</t>
   </si>
   <si>
-    <t>اسم خانی مسعود</t>
+    <t>مسعود اسم خانی</t>
   </si>
   <si>
     <t>تاریخ: 1398/10/14  ساعت: 14:00-16:00مکان: دانشکده مکانیک-سالن امتحانات</t>
@@ -7750,13 +7750,13 @@
     <t>1911104_02</t>
   </si>
   <si>
-    <t>اکبری حبیب الههاشمی رامین</t>
+    <t>رامین اکبری حبیب الههاشمی</t>
   </si>
   <si>
     <t>1911104_03</t>
   </si>
   <si>
-    <t>خان میرزا اسماعیلاساتید گروه آموزشی یوسفی لادمخی نعیم</t>
+    <t>نعیم خان میرزا اسماعیلاساتید گروه آموزشی یوسفی لادمخی</t>
   </si>
   <si>
     <t>درس(ع): چهارشنبه  13:00-16:00</t>
@@ -7768,7 +7768,7 @@
     <t>1911104_04</t>
   </si>
   <si>
-    <t>طالبی توتی روح اللهاکبری حبیب اله</t>
+    <t>اله طالبی توتی روح اللهاکبری حبیب</t>
   </si>
   <si>
     <t>1911109_02</t>
@@ -7777,7 +7777,7 @@
     <t>آزمایشگاه علم مواد</t>
   </si>
   <si>
-    <t>شمسی میلاداساتید گروه آموزشی</t>
+    <t>آموزشی شمسی میلاداساتید گروه</t>
   </si>
   <si>
     <t>تاریخ: 1398/10/16  ساعت: 08:30-10:30مکان: دانشکده مکانیک-سالن امتحانات</t>
@@ -7795,19 +7795,19 @@
     <t>1911110_02</t>
   </si>
   <si>
-    <t>مقیمی مهدی</t>
+    <t>مهدی مقیمی</t>
   </si>
   <si>
     <t>1911110_03</t>
   </si>
   <si>
-    <t>صالحی صادقاساتید گروه آموزشی</t>
+    <t>آموزشی صالحی صادقاساتید گروه</t>
   </si>
   <si>
     <t>1911110_04</t>
   </si>
   <si>
-    <t>قره قانی آیت</t>
+    <t>آیت قره قانی</t>
   </si>
   <si>
     <t>1911110_05</t>
@@ -7819,7 +7819,7 @@
     <t>1911112_02</t>
   </si>
   <si>
-    <t>اخلاقی محمد</t>
+    <t>محمد اخلاقی</t>
   </si>
   <si>
     <t>تاریخ: 1398/10/15  ساعت: 11:00-13:00مکان: دانشکده مکانیک-سالن امتحانات</t>
@@ -7828,13 +7828,13 @@
     <t>1911112_03</t>
   </si>
   <si>
-    <t>تحسینی امیرمهدی</t>
+    <t>امیرمهدی تحسینی</t>
   </si>
   <si>
     <t>1911112_04</t>
   </si>
   <si>
-    <t>سیاوشی مجید</t>
+    <t>مجید سیاوشی</t>
   </si>
   <si>
     <t>1911112_05</t>
@@ -7846,7 +7846,7 @@
     <t>آزمایشگاه دینامیک ماشین</t>
   </si>
   <si>
-    <t>حبیب نژاد کواریم علیرضااساتید گروه آموزشی</t>
+    <t>آموزشی حبیب نژاد کواریم علیرضااساتید گروه</t>
   </si>
   <si>
     <t>تاریخ: 1398/10/15  ساعت: 14:00-16:00مکان: دانشکده مکانیک-سالن امتحانات</t>
@@ -7855,13 +7855,13 @@
     <t>1911114_02</t>
   </si>
   <si>
-    <t>نوحی حفظ آباد روزبهاساتید گروه آموزشی</t>
+    <t>آموزشی نوحی حفظ آباد روزبهاساتید گروه</t>
   </si>
   <si>
     <t>1911114_03</t>
   </si>
   <si>
-    <t>یزدانی شبنماساتید گروه آموزشی</t>
+    <t>آموزشی یزدانی شبنماساتید گروه</t>
   </si>
   <si>
     <t>درس(ع): سه شنبه   10:00-12:00</t>
@@ -7870,7 +7870,7 @@
     <t>1911114_05</t>
   </si>
   <si>
-    <t>نکونام علیاساتید گروه آموزشی</t>
+    <t>آموزشی نکونام علیاساتید گروه</t>
   </si>
   <si>
     <t>1911116_01</t>
@@ -7885,7 +7885,7 @@
     <t>دینامیک ماشین</t>
   </si>
   <si>
-    <t>آسیایی ساسان</t>
+    <t>ساسان آسیایی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: دانشکده مکانیک کلاس شماره 107، درس(ت): دوشنبه    08:00-10:00 مکان: دانشکده مکانیک کلاس شماره 107</t>
@@ -7900,7 +7900,7 @@
     <t>شناخت فلزات صنعتی</t>
   </si>
   <si>
-    <t>هاشمی رامین</t>
+    <t>رامین هاشمی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   15:00-17:00 مکان: دانشکده مکانیک کلاس شماره 205</t>
@@ -7912,7 +7912,7 @@
     <t>روش های طراحی مهندسی</t>
   </si>
   <si>
-    <t>خان میرزا اسماعیل</t>
+    <t>اسماعیل خان میرزا</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    15:00-17:00 مکان: دانشکده مکانیک کلاس شماره 114</t>
@@ -7930,7 +7930,7 @@
     <t>1911255_01</t>
   </si>
   <si>
-    <t>امیرخانی شهرکی عبدالله</t>
+    <t>عبدالله امیرخانی شهرکی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:00-15:00 مکان: دانشکده مکانیک کلاس شماره 110، درس(ت): سه شنبه   13:00-15:00 مکان: دانشکده مکانیک کلاس شماره 110</t>
@@ -7951,7 +7951,7 @@
     <t>مبانی مهندسی برق 2</t>
   </si>
   <si>
-    <t>امیری بیرونده محمد</t>
+    <t>محمد امیری بیرونده</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   15:00-17:00 مکان: دانشکده مکانیک کلاس شماره 208، درس(ت): سه شنبه   15:00-17:00 مکان: دانشکده مکانیک کلاس شماره 208</t>
@@ -7960,7 +7960,7 @@
     <t>1911276_02</t>
   </si>
   <si>
-    <t>خسروی مهیار</t>
+    <t>مهیار خسروی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      15:00-17:00 مکان: دانشکده مکانیک کلاس شماره 205، درس(ت): دوشنبه    15:00-17:00 مکان: دانشکده مکانیک کلاس شماره 205</t>
@@ -7969,7 +7969,7 @@
     <t>1911333_01</t>
   </si>
   <si>
-    <t>ریاحی محمد</t>
+    <t>محمد ریاحی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:00-15:00 مکان: دانشکده مکانیک کلاس شماره 207، درس(ت): سه شنبه   13:00-15:00 مکان: دانشکده مکانیک کلاس شماره 207</t>
@@ -7978,7 +7978,7 @@
     <t>1911333_02</t>
   </si>
   <si>
-    <t>صدیقی محمد</t>
+    <t>محمد صدیقی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:00-15:00 مکان: دانشکده مکانیک کلاس شماره 114، درس(ت): سه شنبه   13:00-15:00 مکان: دانشکده مکانیک کلاس شماره 114</t>
@@ -7990,7 +7990,7 @@
     <t>1911361_02</t>
   </si>
   <si>
-    <t>اختیاری امیناساتید گروه آموزشی</t>
+    <t>آموزشی اختیاری امیناساتید گروه</t>
   </si>
   <si>
     <t>تاریخ: 1398/10/16  ساعت: 11:00-13:00مکان: دانشکده مکانیک-سالن امتحانات</t>
@@ -8005,7 +8005,7 @@
     <t>1911361_04</t>
   </si>
   <si>
-    <t>ثمره موسوی سید سینااساتید گروه آموزشی</t>
+    <t>گروه آموزشیثمره موسوی سید سینااساتید</t>
   </si>
   <si>
     <t>1911361_05</t>
@@ -8014,7 +8014,7 @@
     <t>1911362_01</t>
   </si>
   <si>
-    <t>اکبرنیا محمدعلی</t>
+    <t>محمدعلی اکبرنیا</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   08:00-09:00 مکان: دانشکده مکانیک کلاس شماره 109، درس(ع): سه شنبه   09:00-12:00</t>
@@ -8038,7 +8038,7 @@
     <t>1911362_04</t>
   </si>
   <si>
-    <t>کسائیان نائینی مهدی</t>
+    <t>مهدی کسائیان نائینی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   11:00-12:00 مکان: دانشکده مکانیک کلاس شماره 109، درس(ع): یک شنبه   08:00-11:00 مکان: دانشکده مکانیک کلاس شماره 109</t>
@@ -8050,7 +8050,7 @@
     <t>1911363_01</t>
   </si>
   <si>
-    <t>حسینی هاشمی شاهرخ</t>
+    <t>شاهرخ حسینی هاشمی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: دانشکده مکانیک کلاس شماره 115، درس(ت): سه شنبه   10:00-12:00 مکان: دانشکده مکانیک کلاس شماره 115</t>
@@ -8071,7 +8071,7 @@
     <t>1911363_03</t>
   </si>
   <si>
-    <t>رجبی مجید</t>
+    <t>مجید رجبی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: دانشکده مکانیک کلاس شماره 114، درس(ت): سه شنبه   10:00-12:00 مکان: دانشکده مکانیک کلاس شماره 114</t>
@@ -8086,7 +8086,7 @@
     <t>1911365_01</t>
   </si>
   <si>
-    <t>صفاری نطنزی حمید</t>
+    <t>حمید صفاری نطنزی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: دانشکده مکانیک کلاس شماره 207، درس(ت): دوشنبه    08:00-10:00 مکان: دانشکده مکانیک کلاس شماره 207</t>
@@ -8107,7 +8107,7 @@
     <t>1911365_03</t>
   </si>
   <si>
-    <t>قاسمی حجت</t>
+    <t>حجت قاسمی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: دانشکده مکانیک کلاس شماره 201، درس(ت): دوشنبه    08:00-10:00 مکان: دانشکده مکانیک کلاس شماره 201</t>
@@ -8158,7 +8158,7 @@
     <t>1911368_02</t>
   </si>
   <si>
-    <t>تقوی زنوز رضا</t>
+    <t>رضا تقوی زنوز</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: دانشکده مکانیک کلاس شماره 115، درس(ت): سه شنبه   08:00-10:00 مکان: دانشکده مکانیک کلاس شماره 115</t>
@@ -8176,7 +8176,7 @@
     <t>1911370_02</t>
   </si>
   <si>
-    <t>بهادری رباباساتید گروه آموزشی</t>
+    <t>آموزشی بهادری رباباساتید گروه</t>
   </si>
   <si>
     <t>درس(ع): چهارشنبه  08:00-12:00 مکان: دانشکده مکانیک کلاس نقشه کشی 2</t>
@@ -8185,7 +8185,7 @@
     <t>1911370_03</t>
   </si>
   <si>
-    <t>کامران مریماساتید گروه آموزشی</t>
+    <t>آموزشی کامران مریماساتید گروه</t>
   </si>
   <si>
     <t>درس(ع): شنبه      13:00-17:00 مکان: دانشکده مکانیک کلاس نقشه کشی 2</t>
@@ -8206,7 +8206,7 @@
     <t>مقدمه ای بر اجزای محدود</t>
   </si>
   <si>
-    <t>محمدی سنگجوئی بیژن</t>
+    <t>بیژن محمدی سنگجوئی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:00-15:00 مکان: دانشکده مکانیک کلاس شماره 206، درس(ت): سه شنبه   13:00-15:00 مکان: دانشکده مکانیک کلاس شماره 206</t>
@@ -8218,7 +8218,7 @@
     <t>ماشینهای کنترل عددی</t>
   </si>
   <si>
-    <t>داودی بهنام</t>
+    <t>بهنام داودی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: دانشکده مکانیک کلاس شماره 3122</t>
@@ -8263,7 +8263,7 @@
     <t>1911384_01</t>
   </si>
   <si>
-    <t>داودی بهنامصدیقی یداله</t>
+    <t>یداله داودی بهنامصدیقی</t>
   </si>
   <si>
     <t>درس(ع): یک شنبه   10:00-13:00</t>
@@ -8272,7 +8272,7 @@
     <t>1911384_02</t>
   </si>
   <si>
-    <t>ملارمضانی نویدصدیقی یداله</t>
+    <t>یداله ملارمضانی نویدصدیقی</t>
   </si>
   <si>
     <t>1911384_03</t>
@@ -8290,7 +8290,7 @@
     <t>1911385_01</t>
   </si>
   <si>
-    <t>اکبری حبیب اله</t>
+    <t>اله اکبری حبیب</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   15:00-17:00 مکان: دانشکده مکانیک کلاس شماره 205</t>
@@ -8302,7 +8302,7 @@
     <t>1911385_02</t>
   </si>
   <si>
-    <t>کسائیان محمد</t>
+    <t>محمد کسائیان</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   15:00-17:00 مکان: دانشکده مکانیک کلاس شماره 116</t>
@@ -8326,7 +8326,7 @@
     <t>کارآموزی 1</t>
   </si>
   <si>
-    <t>اساتید گروه آموزشی</t>
+    <t>آموزشی اساتید گروه</t>
   </si>
   <si>
     <t>1911388_01</t>
@@ -8338,7 +8338,7 @@
     <t>1911395_01</t>
   </si>
   <si>
-    <t>هاشمی رامیناکبری حبیب الهداودی بهنام</t>
+    <t>بهنام هاشمی رامیناکبری حبیب الهداودی</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    15:00-17:00 4ه اول ت مکان: دانشکده مکانیک کلاس شماره 201، درس(ت): دوشنبه    15:00-17:00 4ه دوم ت مکان: دانشکده مکانیک کلاس شماره 201، درس(ت): دوشنبه    15:00-17:00 4ه سوم ت مکان: دانشکده مکانیک کلاس شماره 201، درس(ت): دوشنبه    15:00-17:00 4ه چهارم ت مکان: دانشکده مکانیک کلاس شماره 201</t>
@@ -8350,7 +8350,7 @@
     <t>کارگاه روش های تولید</t>
   </si>
   <si>
-    <t>نصر غلامعلیصدیقی یداله</t>
+    <t>یداله نصر غلامعلیصدیقی</t>
   </si>
   <si>
     <t>1911396_02</t>
@@ -8359,7 +8359,7 @@
     <t>1911396_03</t>
   </si>
   <si>
-    <t>مطلوبی سیدمصطفیصدیقی یداله</t>
+    <t>مصطفیصدیقی یدالهمطلوبی سید</t>
   </si>
   <si>
     <t>1911397_01</t>
@@ -8401,7 +8401,7 @@
     <t>2011002_01</t>
   </si>
   <si>
-    <t>مقصودی عمیداساتید گروه آموزشی</t>
+    <t>آموزشی مقصودی عمیداساتید گروه</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    15:00-16:00 مکان: دانشکده مهندسی شیمی کارگاه نرم افزار مهندسی، درس(ع): دوشنبه    16:00-19:00</t>
@@ -8419,7 +8419,7 @@
     <t>2011002_02</t>
   </si>
   <si>
-    <t>محمدزاده ثانی هاجراساتید گروه آموزشی</t>
+    <t>آموزشی محمدزاده ثانی هاجراساتید گروه</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    15:00-16:00 مکان: دانشکده مکانیک کلاس شماره 109، درس(ع): دوشنبه    16:00-19:00 مکان: دانشکده مکانیک کلاس شماره 109</t>
@@ -8437,7 +8437,7 @@
     <t>فرایندهای پالایش نفت</t>
   </si>
   <si>
-    <t>ثباتی محمدامین</t>
+    <t>محمدامین ثباتی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      13:00-15:00 مکان: دانشکده مهندسی شیمی کلاس شماره 137</t>
@@ -8458,7 +8458,7 @@
     <t>فرایندهای گاز</t>
   </si>
   <si>
-    <t>صادقی محمدتقی</t>
+    <t>محمدتقی صادقی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      15:00-17:00 مکان: دانشکده مهندسی شیمی کلاس شماره 139</t>
@@ -8473,7 +8473,7 @@
     <t>فرایندهای پتروشیمی</t>
   </si>
   <si>
-    <t>کثیری بیدهندی نوراله</t>
+    <t>نوراله کثیری بیدهندی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:00-15:00 مکان: دانشکده مهندسی شیمی کلاس شماره 139</t>
@@ -8500,7 +8500,7 @@
     <t>2011008_02</t>
   </si>
   <si>
-    <t>عابدینی حامد</t>
+    <t>حامد عابدینی</t>
   </si>
   <si>
     <t>درس(ع): یک شنبه   15:00-18:00 مکان: دانشکده مهندسی شیمی کارگاه نرم افزار مهندسی</t>
@@ -8512,7 +8512,7 @@
     <t>طرح واقتصاد کارخانه</t>
   </si>
   <si>
-    <t>اشرفی زاده سیدنظام الدین</t>
+    <t>نظام الدیناشرفی زاده سید</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: دانشکده مهندسی شیمی کلاس شماره 137، درس(ت): سه شنبه   10:00-12:00 مکان: دانشکده مهندسی شیمی کلاس شماره 137</t>
@@ -8530,7 +8530,7 @@
     <t>شیمی فیزیک مهندسی شیمی</t>
   </si>
   <si>
-    <t>جمشیدی مسعود</t>
+    <t>مسعود جمشیدی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: دانشکده مهندسی شیمی کلاس شماره 146، درس(ت): دوشنبه    08:00-10:00 مکان: دانشکده مهندسی شیمی کلاس شماره 146</t>
@@ -8548,7 +8548,7 @@
     <t>ترمودینامیک مهندسی شیمی 1</t>
   </si>
   <si>
-    <t>میری روح الدین</t>
+    <t>الدین میری روح</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: دانشکده مهندسی شیمی کلاس شماره 137، درس(ت): سه شنبه   08:00-10:00 مکان: دانشکده مهندسی شیمی کلاس شماره 137</t>
@@ -8563,7 +8563,7 @@
     <t>2011018_02</t>
   </si>
   <si>
-    <t>عصاره مهدی</t>
+    <t>مهدی عصاره</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: دانشکده مهندسی شیمی کلاس شماره 137، درس(ت): دوشنبه    08:00-10:00 مکان: دانشکده مهندسی شیمی کلاس شماره 137</t>
@@ -8590,7 +8590,7 @@
     <t>فرایندهای مواد معدنی</t>
   </si>
   <si>
-    <t>اله وردی علی</t>
+    <t>علی اله وردی</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   13:00-15:00 مکان: دانشکده مهندسی شیمی کلاس شماره 136</t>
@@ -8608,7 +8608,7 @@
     <t>فرایندهای پلیمری</t>
   </si>
   <si>
-    <t>مقبلی محمدرضا</t>
+    <t>محمدرضا مقبلی</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   15:00-17:00 مکان: دانشکده مهندسی شیمی کلاس شماره 137</t>
@@ -8623,7 +8623,7 @@
     <t>زیست فناوری</t>
   </si>
   <si>
-    <t>حجازی پریسا</t>
+    <t>پریسا حجازی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      15:00-17:00 مکان: دانشکده مهندسی شیمی کلاس شماره 146</t>
@@ -8638,7 +8638,7 @@
     <t>2011031_01</t>
   </si>
   <si>
-    <t>احمدزاده توفیقی مریم</t>
+    <t>مریم احمدزاده توفیقی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      13:00-15:00 مکان: دانشکده مهندسی شیمی کلاس شماره 146</t>
@@ -8656,7 +8656,7 @@
     <t>انتقال حرارت 2</t>
   </si>
   <si>
-    <t>موحدی راد سلمان</t>
+    <t>سلمان موحدی راد</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: دانشکده مهندسی شیمی کلاس شماره 136، درس(ت): سه شنبه   08:00-10:00 مکان: دانشکده مهندسی شیمی کلاس شماره 136</t>
@@ -8674,7 +8674,7 @@
     <t>موازنه انرژی و مواد</t>
   </si>
   <si>
-    <t>بازیاری امین</t>
+    <t>امین بازیاری</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: دانشکده مهندسی شیمی کلاس شماره 136، درس(ت): دوشنبه    08:00-10:00 مکان: دانشکده مهندسی شیمی کلاس شماره 136</t>
@@ -8692,7 +8692,7 @@
     <t>عملیات واحد 1</t>
   </si>
   <si>
-    <t>همتی علیرضا</t>
+    <t>علیرضا همتی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: دانشکده مهندسی شیمی کلاس شماره 139، درس(ت): دوشنبه    10:00-12:00 مکان: دانشکده مهندسی شیمی کلاس شماره 139</t>
@@ -8710,7 +8710,7 @@
     <t>عملیات واحد 2</t>
   </si>
   <si>
-    <t>روشن ضمیر سوسن</t>
+    <t>سوسن روشن ضمیر</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: دانشکده مهندسی شیمی کلاس شماره 139، درس(ت): دوشنبه    08:00-10:00 مکان: دانشکده مهندسی شیمی کلاس شماره 139</t>
@@ -8725,7 +8725,7 @@
     <t>انتقال جرم</t>
   </si>
   <si>
-    <t>رهبرکلیشمی احمد</t>
+    <t>احمد رهبرکلیشمی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: دانشکده مهندسی شیمی کلاس شماره 146، درس(ت): دوشنبه    10:00-12:00 مکان: دانشکده مهندسی شیمی کلاس شماره 146</t>
@@ -8755,7 +8755,7 @@
     <t>روش های اندازه گیری کمیتهای مهندسی</t>
   </si>
   <si>
-    <t>شیروانی منصور</t>
+    <t>منصور شیروانی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      13:00-15:00 مکان: دانشکده مهندسی شیمی کلاس شماره 145</t>
@@ -8773,7 +8773,7 @@
     <t>آزمایشگاه انتقال حرارت</t>
   </si>
   <si>
-    <t>رهبرکلیشمی احمدسعیدزاده سپیده</t>
+    <t>سپیده رهبرکلیشمی احمدسعیدزاده</t>
   </si>
   <si>
     <t>درس(ع): سه شنبه   13:00-16:00 مکان: دانشکده مهندسی شیمی آزمایشگاه انتقال حرارت</t>
@@ -8788,7 +8788,7 @@
     <t>کارگاه نرم افزار مهندسی</t>
   </si>
   <si>
-    <t>وحیدی امید</t>
+    <t>امید وحیدی</t>
   </si>
   <si>
     <t>درس(ع): سه شنبه   15:00-18:00 مکان: دانشکده مهندسی شیمی کارگاه نرم افزار مهندسی</t>
@@ -8803,7 +8803,7 @@
     <t>2011087_02</t>
   </si>
   <si>
-    <t>قائمی احد</t>
+    <t>احد قائمی</t>
   </si>
   <si>
     <t>درس(ع): شنبه      15:00-18:00 مکان: دانشکده مهندسی شیمی کارگاه نرم افزار مهندسی</t>
@@ -8839,7 +8839,7 @@
     <t>آزمایشگاه علمیات واحد</t>
   </si>
   <si>
-    <t>موحدی راد سلماننعمتی ابیانه دانیال</t>
+    <t>دانیال موحدی راد سلماننعمتی ابیانه</t>
   </si>
   <si>
     <t>درس(ع): چهارشنبه  07:00-10:00 مکان: دانشکده مهندسی شیمی آزمایشگاه عملیات واحد</t>
@@ -8851,7 +8851,7 @@
     <t>2011107_02</t>
   </si>
   <si>
-    <t>همتی علیرضابیرانوند زهرا</t>
+    <t>زهرا همتی علیرضابیرانوند</t>
   </si>
   <si>
     <t>درس(ع): یک شنبه   13:00-16:00 مکان: دانشکده مهندسی شیمی آزمایشگاه عملیات واحد</t>
@@ -8863,7 +8863,7 @@
     <t>آزمایشگاه کنترل فرایندها</t>
   </si>
   <si>
-    <t>شیروانی منصورسعیدزاده سپیده</t>
+    <t>سپیده شیروانی منصورسعیدزاده</t>
   </si>
   <si>
     <t>درس(ع): چهارشنبه  10:00-13:00 مکان: دانشکده مهندسی شیمی آزمایشگاه کنترل فرآیند</t>
@@ -8875,7 +8875,7 @@
     <t>2011115_01</t>
   </si>
   <si>
-    <t>نوروزبیگی رضا</t>
+    <t>رضا نوروزبیگی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: دانشکده مهندسی شیمی کلاس شماره 145، درس(ت): دوشنبه    10:00-12:00 مکان: دانشکده مهندسی شیمی کلاس شماره 145</t>
@@ -8890,7 +8890,7 @@
     <t>2011115_02</t>
   </si>
   <si>
-    <t>هاشم آبادی سیدحسن</t>
+    <t>سید حسنهاشم آبادی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: دانشکده مهندسی شیمی کلاس شماره 146، درس(ت): سه شنبه   10:00-12:00 مکان: دانشکده مهندسی شیمی کلاس شماره 146</t>
@@ -8905,7 +8905,7 @@
     <t>آزمایشگاه مکانیک سیالات 1</t>
   </si>
   <si>
-    <t>بازیاری امینبیرانوند زهرا</t>
+    <t>زهرا بازیاری امینبیرانوند</t>
   </si>
   <si>
     <t>درس(ع): چهارشنبه  07:00-10:00 مکان: دانشکده مهندسی شیمی آزمایشگاه مکانیک سیالات</t>
@@ -8929,7 +8929,7 @@
     <t>2011129_01</t>
   </si>
   <si>
-    <t>فصیحی دستجردی محمد</t>
+    <t>محمد فصیحی دستجردی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: دانشکده مهندسی شیمی کلاس شماره 144، درس(ت): دوشنبه    10:00-12:00 مکان: دانشکده مهندسی شیمی کلاس شماره 144</t>
@@ -8944,7 +8944,7 @@
     <t>2011192_01</t>
   </si>
   <si>
-    <t>شاه حسینی شاهرخ</t>
+    <t>شاهرخ شاه حسینی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: دانشکده مهندسی شیمی کلاس شماره 138، درس(ت): سه شنبه   08:00-10:00 مکان: دانشکده مهندسی شیمی کلاس شماره 138</t>
@@ -8977,7 +8977,7 @@
     <t>مهندسی آب و فاضلاب</t>
   </si>
   <si>
-    <t>سعادت پور مطهره</t>
+    <t>مطهره سعادت پور</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    15:30-17:30 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 9</t>
@@ -8995,7 +8995,7 @@
     <t>مهندسی محیط زیست</t>
   </si>
   <si>
-    <t>حسنی  زنوزی مریم</t>
+    <t>مریم حسنی زنوزی</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    08:00-10:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 9</t>
@@ -9007,7 +9007,7 @@
     <t>2111011_02</t>
   </si>
   <si>
-    <t>غیاثی نژاد حسین</t>
+    <t>حسین غیاثی نژاد</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    08:00-10:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 11</t>
@@ -9046,7 +9046,7 @@
     <t>پی سازی</t>
   </si>
   <si>
-    <t>رازقی حمیدرضا</t>
+    <t>حمیدرضا رازقی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 9، درس(ت): سه شنبه   08:00-10:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 9</t>
@@ -9058,7 +9058,7 @@
     <t>2111035_02</t>
   </si>
   <si>
-    <t>حشمتی رفسنجانی علی اکبر</t>
+    <t>اکبر حشمتی رفسنجانی علی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 9، درس(ت): سه شنبه   10:00-12:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 9</t>
@@ -9073,7 +9073,7 @@
     <t>تحلیل سازه ها 2</t>
   </si>
   <si>
-    <t>قادری پدرام</t>
+    <t>پدرام قادری</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 3، درس(ت): دوشنبه    08:00-10:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 3</t>
@@ -9085,7 +9085,7 @@
     <t>2111082_02</t>
   </si>
   <si>
-    <t>کاوه علی</t>
+    <t>علی کاوه</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 8، درس(ت): دوشنبه    08:00-10:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 8</t>
@@ -9100,7 +9100,7 @@
     <t>نقشه برداری و عملیات 1</t>
   </si>
   <si>
-    <t>مجردی برات</t>
+    <t>برات مجردی</t>
   </si>
   <si>
     <t>درس(ع): شنبه      08:00-12:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 13</t>
@@ -9124,7 +9124,7 @@
     <t>روشهای اجرایی ساختمان</t>
   </si>
   <si>
-    <t>میرولد سیدسجاد</t>
+    <t>سید سجادمیرولد</t>
   </si>
   <si>
     <t>درس(ت): شنبه      13:00-16:00 مکان: آزمایشگاه های عمران کارگاه ساختمان(خارج از دانشکده)، درس(ع): شنبه      16:00-18:00 مکان: آزمایشگاه های عمران کارگاه ساختمان(خارج از دانشکده)</t>
@@ -9136,7 +9136,7 @@
     <t>2111093_02</t>
   </si>
   <si>
-    <t>شیرزادی جاوید علی اکبر</t>
+    <t>اکبر شیرزادی جاوید علی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:00-16:00 مکان: آزمایشگاه های عمران کارگاه ساختمان(خارج از دانشکده)، درس(ع): یک شنبه   16:00-18:00 مکان: آزمایشگاه های عمران کارگاه ساختمان(خارج از دانشکده)</t>
@@ -9163,7 +9163,7 @@
     <t>مکانیک خاک</t>
   </si>
   <si>
-    <t>کریم پور فرد مهران</t>
+    <t>مهران کریم پور فرد</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:00-15:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 8، درس(ت): سه شنبه   13:00-15:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 8</t>
@@ -9178,7 +9178,7 @@
     <t>هیدرولیک</t>
   </si>
   <si>
-    <t>جباری ابراهیم</t>
+    <t>ابراهیم جباری</t>
   </si>
   <si>
     <t>درس(ت): شنبه      13:00-15:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 9</t>
@@ -9199,7 +9199,7 @@
     <t>2111107_01</t>
   </si>
   <si>
-    <t>ذهبیون باقر</t>
+    <t>باقر ذهبیون</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   15:00-17:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 1</t>
@@ -9211,7 +9211,7 @@
     <t>2111107_02</t>
   </si>
   <si>
-    <t>علیزاده حسین</t>
+    <t>حسین علیزاده</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   15:00-17:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 2</t>
@@ -9226,7 +9226,7 @@
     <t>اصول مهندسی تونل</t>
   </si>
   <si>
-    <t>صابر ماهانی محسن</t>
+    <t>محسن صابر ماهانی</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    15:30-17:30 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 3</t>
@@ -9253,7 +9253,7 @@
     <t>تحلیل سازه ها1</t>
   </si>
   <si>
-    <t>سیادت نژاد سیدسعید</t>
+    <t>سید سعیدسیادت نژاد</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 2، درس(ت): چهارشنبه  10:00-12:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 2</t>
@@ -9268,7 +9268,7 @@
     <t>سازه های فولادی 1</t>
   </si>
   <si>
-    <t>قدرتی امیری غلامرضا</t>
+    <t>غلامرضا قدرتی امیری</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 8، درس(ت): سه شنبه   08:00-10:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 8</t>
@@ -9301,7 +9301,7 @@
     <t>سازه های بتن آرمه 1</t>
   </si>
   <si>
-    <t>رئیسی دهکردی مرتضی</t>
+    <t>مرتضی رئیسی دهکردی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 3، درس(ت): سه شنبه   10:00-12:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 3</t>
@@ -9313,7 +9313,7 @@
     <t>2111127_02</t>
   </si>
   <si>
-    <t>ایلچی قزاآن مجید</t>
+    <t>مجید ایلچی قزاآن</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 1، درس(ت): سه شنبه   10:00-12:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 1</t>
@@ -9337,7 +9337,7 @@
     <t>پروژه راهسازی</t>
   </si>
   <si>
-    <t>حسینی سید محسن</t>
+    <t>سید محسنحسینی</t>
   </si>
   <si>
     <t>درس(ع): چهارشنبه  08:00-10:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 1</t>
@@ -9355,7 +9355,7 @@
     <t>روسازی راه</t>
   </si>
   <si>
-    <t>عامری محمود</t>
+    <t>محمود عامری</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 1، درس(ت): دوشنبه    08:00-10:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 1</t>
@@ -9370,7 +9370,7 @@
     <t>راهسازی</t>
   </si>
   <si>
-    <t>کامبوزیا ندا</t>
+    <t>ندا کامبوزیا</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:00-15:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 1، درس(ت): سه شنبه   13:00-15:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 1</t>
@@ -9394,7 +9394,7 @@
     <t>2111153_01</t>
   </si>
   <si>
-    <t>زرعی چیان مازیار</t>
+    <t>مازیار زرعی چیان</t>
   </si>
   <si>
     <t>درس(ع): شنبه      10:00-12:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران آزمایشگاه بتن</t>
@@ -9445,7 +9445,7 @@
     <t>آزمایشگاه هیدرولیک</t>
   </si>
   <si>
-    <t>افضلی مهر حسین</t>
+    <t>حسین افضلی مهر</t>
   </si>
   <si>
     <t>درس(ع): شنبه      10:00-12:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران آزمایشگاه هیدرولیک</t>
@@ -9466,7 +9466,7 @@
     <t>2111165_02</t>
   </si>
   <si>
-    <t>خانزادی مصطفی</t>
+    <t>مصطفی خانزادی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:00-15:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 9</t>
@@ -9499,7 +9499,7 @@
     <t>2111212_01</t>
   </si>
   <si>
-    <t>کریم پور فرد مهرانشاه نظری حبیب</t>
+    <t>حبیب کریم پور فرد مهرانشاه نظری</t>
   </si>
   <si>
     <t>درس(ع): دوشنبه    10:00-12:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران آزمایشگاه مکانیک خاک</t>
@@ -9580,7 +9580,7 @@
     <t>مهندسی ترابری</t>
   </si>
   <si>
-    <t>افندیزاده زرگری شهریار</t>
+    <t>شهریار افندیزاده زرگری</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   15:00-17:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 3</t>
@@ -9619,7 +9619,7 @@
     <t>ماشین آلات ساختمانی در راهسازی</t>
   </si>
   <si>
-    <t>حیاتی پرهام</t>
+    <t>پرهام حیاتی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 5</t>
@@ -9643,7 +9643,7 @@
     <t>اصول مهندسی زلزله و باد</t>
   </si>
   <si>
-    <t>بروجردیان وحید</t>
+    <t>وحید بروجردیان</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:00-15:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 3، درس(ت): سه شنبه   13:00-15:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 3</t>
@@ -9658,7 +9658,7 @@
     <t>سازه های بنایی مقاوم در برابر زلزله</t>
   </si>
   <si>
-    <t>رجبی الهام</t>
+    <t>الهام رجبی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 4</t>
@@ -9673,7 +9673,7 @@
     <t>اصول مهندسی فرودگاه</t>
   </si>
   <si>
-    <t>بهبهانی حمیدحسینی سید محسن</t>
+    <t>سید محسنبهبهانی حمیدحسینی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 5، درس(ت): سه شنبه   10:00-12:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 5</t>
@@ -9688,7 +9688,7 @@
     <t>زبان تخصصی</t>
   </si>
   <si>
-    <t>شریعتمداری نادر</t>
+    <t>نادر شریعتمداری</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:00-15:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 4</t>
@@ -9703,7 +9703,7 @@
     <t>مهندسی ایمنی راه</t>
   </si>
   <si>
-    <t>توکلی کاشانی علی</t>
+    <t>علی توکلی کاشانی</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    10:00-12:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 9</t>
@@ -9715,7 +9715,7 @@
     <t>2111323_01</t>
   </si>
   <si>
-    <t>فامیلی هرمز</t>
+    <t>هرمز فامیلی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   15:00-17:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 2</t>
@@ -9730,7 +9730,7 @@
     <t>طراحی معماری و شهرسازی</t>
   </si>
   <si>
-    <t>خاک زند مهدیاسمعیلی کاظم</t>
+    <t>کاظم خاک زند مهدیاسمعیلی</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    10:00-12:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 12</t>
@@ -9745,7 +9745,7 @@
     <t>اصول مهندسی ترافیک</t>
   </si>
   <si>
-    <t>شریعت مهیمنی افشین</t>
+    <t>افشین شریعت مهیمنی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 4</t>
@@ -9760,7 +9760,7 @@
     <t>2211001_01</t>
   </si>
   <si>
-    <t>موحدی زینب</t>
+    <t>زینب موحدی</t>
   </si>
   <si>
     <t>تاریخ: 1398/10/30  ساعت: 08:00-10:00مکان: دانشکده کامپیوتر-کلاس شماره 117</t>
@@ -9772,7 +9772,7 @@
     <t>2211001_02</t>
   </si>
   <si>
-    <t>انتظاری ملکی رضا</t>
+    <t>رضا انتظاری ملکی</t>
   </si>
   <si>
     <t>تاریخ: 1398/10/30  ساعت: 08:00-10:00مکان: دانشکده کامپیوتر-کلاس شماره 112</t>
@@ -9781,7 +9781,7 @@
     <t>2211001_03</t>
   </si>
   <si>
-    <t>اعتمادی سید صالح</t>
+    <t>سید صالحاعتمادی</t>
   </si>
   <si>
     <t>تاریخ: 1398/10/30  ساعت: 08:00-10:00مکان: دانشکده کامپیوتر-کلاس شماره 120-،دانشکده کامپیوتر-کلاس شماره 119-</t>
@@ -9793,7 +9793,7 @@
     <t>برنامه سازی پیشرفته</t>
   </si>
   <si>
-    <t>ملکی مجد مرضیه</t>
+    <t>مرضیه ملکی مجد</t>
   </si>
   <si>
     <t>تاریخ: 1398/10/22  ساعت: 14:00-16:00مکان: دانشکده کامپیوتر-کلاس شماره 117</t>
@@ -9808,7 +9808,7 @@
     <t>معماری کامپیوتر</t>
   </si>
   <si>
-    <t>سریانی محسن</t>
+    <t>محسن سریانی</t>
   </si>
   <si>
     <t>تاریخ: 1398/10/30  ساعت: 08:00-10:00مکان: دانشکده کامپیوتر-کلاس شماره 113</t>
@@ -9820,7 +9820,7 @@
     <t>آزمایشگاه پایگاه داده ها</t>
   </si>
   <si>
-    <t>ترکاشون رضا</t>
+    <t>رضا ترکاشون</t>
   </si>
   <si>
     <t>2211037_01</t>
@@ -9829,7 +9829,7 @@
     <t>آزمایشگاه سیستم عامل</t>
   </si>
   <si>
-    <t>فرد باستانی محمدعلی</t>
+    <t>محمدعلی فرد باستانی</t>
   </si>
   <si>
     <t>2211037_02</t>
@@ -9856,7 +9856,7 @@
     <t>الکترونیک دیجیتال</t>
   </si>
   <si>
-    <t>مزینی ناصر</t>
+    <t>ناصر مزینی</t>
   </si>
   <si>
     <t>تاریخ: 1398/10/21  ساعت: 08:00-10:00مکان: دانشکده کامپیوتر-کلاس شماره 112</t>
@@ -9868,7 +9868,7 @@
     <t>آزمایشگاه الکترونیک دیجیتال</t>
   </si>
   <si>
-    <t>ظهیرپور وحید</t>
+    <t>وحید ظهیرپور</t>
   </si>
   <si>
     <t>مجاز برای مقطع کارشناسی، دانشکده مهندسی کامپیوتر، گروه آموزشی واحد آموزش کارشناسی، رشته مهندسی کامپیوتر، ، مجاز برای دانشکده مهندسی کامپیوتر، گروه آموزشی واحد آموزش کارشناسی، رشته مهندسی کامپیوتر-سخت افزار، ، مجاز برای دانشکده مهندسی کامپیوتر، گروه آموزشی واحد آموزش کارشناسی، رشته مهندسی کامپیوتر-معماری سیستمهای کامپیوتری، ، مجاز برای دانشکده مهندسی کامپیوتر، گروه آموزشی واحد آموزش کارشناسی، رشته مهندسی کامپیوتر- نرم افزار،</t>
@@ -9877,7 +9877,7 @@
     <t>2211053_01</t>
   </si>
   <si>
-    <t>محمدی محمدرضا</t>
+    <t>محمدرضا محمدی</t>
   </si>
   <si>
     <t>تاریخ: 1398/10/24  ساعت: 08:00-10:00مکان: دانشکده کامپیوتر-کلاس شماره 112</t>
@@ -9886,7 +9886,7 @@
     <t>2211053_02</t>
   </si>
   <si>
-    <t>اکبری ازیرانی احمد</t>
+    <t>احمد اکبری ازیرانی</t>
   </si>
   <si>
     <t>تاریخ: 1398/10/24  ساعت: 08:00-10:00مکان: دانشکده کامپیوتر-کلاس شماره 113</t>
@@ -9898,7 +9898,7 @@
     <t>شبکه های کامپیوتری</t>
   </si>
   <si>
-    <t>آنالویی مرتضی</t>
+    <t>مرتضی آنالویی</t>
   </si>
   <si>
     <t>تاریخ: 1398/10/28  ساعت: 14:00-16:00مکان: دانشکده کامپیوتر-کلاس شماره 113</t>
@@ -9910,7 +9910,7 @@
     <t>مهندسی اینترنت</t>
   </si>
   <si>
-    <t>حکمی وصال</t>
+    <t>وصال حکمی</t>
   </si>
   <si>
     <t>تاریخ: 1398/10/25  ساعت: 14:00-16:00مکان: دانشکده کامپیوتر-کلاس شماره 117</t>
@@ -9925,7 +9925,7 @@
     <t>آزمایشگاه شبکه های کامپیوتری</t>
   </si>
   <si>
-    <t>عزیزجلالی عباس</t>
+    <t>عباس عزیزجلالی</t>
   </si>
   <si>
     <t>2211087_02</t>
@@ -9940,7 +9940,7 @@
     <t>مهندسی نرم افزار</t>
   </si>
   <si>
-    <t>آشتیانی مهرداد</t>
+    <t>مهرداد آشتیانی</t>
   </si>
   <si>
     <t>تاریخ: 1398/10/30  ساعت: 14:00-16:00مکان: دانشکده کامپیوتر-کلاس شماره 113</t>
@@ -9952,7 +9952,7 @@
     <t>اصول طراحی  پایگاه داده ها</t>
   </si>
   <si>
-    <t>زارع پور عیسی</t>
+    <t>عیسی زارع پور</t>
   </si>
   <si>
     <t>تاریخ: 1398/10/21  ساعت: 14:00-16:00مکان: دانشکده کامپیوتر-کلاس شماره 113</t>
@@ -9961,7 +9961,7 @@
     <t>2211138_01</t>
   </si>
   <si>
-    <t>بیت الهی حاکم</t>
+    <t>حاکم بیت الهی</t>
   </si>
   <si>
     <t>تاریخ: 1398/10/29  ساعت: 14:00-16:00مکان: دانشکده کامپیوتر-کلاس شماره 113</t>
@@ -9970,7 +9970,7 @@
     <t>2211138_02</t>
   </si>
   <si>
-    <t>فلاحتی هاجر</t>
+    <t>هاجر فلاحتی</t>
   </si>
   <si>
     <t>تاریخ: 1398/10/29  ساعت: 14:00-16:00مکان: دانشکده کامپیوتر-کلاس شماره 114،دانشکده کامپیوتر-کلاس شماره 115</t>
@@ -9997,7 +9997,7 @@
     <t>مبانی برنامه نویسی کامپیوتر</t>
   </si>
   <si>
-    <t>امیری بابک</t>
+    <t>بابک امیری</t>
   </si>
   <si>
     <t>2211277_03</t>
@@ -10015,7 +10015,7 @@
     <t>2211277_04</t>
   </si>
   <si>
-    <t>رفیعی آتانی طیبه</t>
+    <t>طیبه رفیعی آتانی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 306، درس(ت): سه شنبه   10:00-12:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 306</t>
@@ -10108,7 +10108,7 @@
     <t>سیستمهای عامل</t>
   </si>
   <si>
-    <t>شریفی محسن</t>
+    <t>محسن شریفی</t>
   </si>
   <si>
     <t>تاریخ: 1398/10/22  ساعت: 14:00-16:00مکان: دانشکده کامپیوتر-کلاس شماره 113</t>
@@ -10147,7 +10147,7 @@
     <t>2211293_05</t>
   </si>
   <si>
-    <t>حنافروش مهراد</t>
+    <t>مهراد حنافروش</t>
   </si>
   <si>
     <t>2211293_06</t>
@@ -10174,7 +10174,7 @@
     <t>2211294_02</t>
   </si>
   <si>
-    <t>دیانت ابوالفضل</t>
+    <t>ابوالفضل دیانت</t>
   </si>
   <si>
     <t>تاریخ: 1398/10/23  ساعت: 14:00-16:00مکان: دانشکده کامپیوتر-کلاس شماره 112</t>
@@ -10204,7 +10204,7 @@
     <t>2211296_02</t>
   </si>
   <si>
-    <t>رحمانی حسین</t>
+    <t>حسین رحمانی</t>
   </si>
   <si>
     <t>تاریخ: 1398/10/25  ساعت: 08:00-10:00مکان: دانشکده کامپیوتر-کلاس شماره 114،دانشکده کامپیوتر-کلاس شماره 115</t>
@@ -10216,7 +10216,7 @@
     <t>روش پژوهش و ارائه</t>
   </si>
   <si>
-    <t>کبیری پیمان</t>
+    <t>پیمان کبیری</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   15:00-17:00</t>
@@ -10246,7 +10246,7 @@
     <t>ریز پردازنده و زبان اسمبلی</t>
   </si>
   <si>
-    <t>مشحون هاشم</t>
+    <t>هاشم مشحون</t>
   </si>
   <si>
     <t>تاریخ: 1398/11/02  ساعت: 14:00-16:00مکان: دانشکده کامپیوتر-کلاس شماره 117</t>
@@ -10255,7 +10255,7 @@
     <t>2211299_02</t>
   </si>
   <si>
-    <t>حسینی منزه امیرمهدی</t>
+    <t>امیرمهدی حسینی منزه</t>
   </si>
   <si>
     <t>تاریخ: 1398/11/02  ساعت: 14:00-16:00مکان: دانشکده کامپیوتر-کلاس شماره 120-،دانشکده کامپیوتر-کلاس شماره 119-</t>
@@ -10267,7 +10267,7 @@
     <t>هوش مصنوعی و سیستمهای خبره</t>
   </si>
   <si>
-    <t>پیله ور محمدطاهر</t>
+    <t>محمدطاهر پیله ور</t>
   </si>
   <si>
     <t>تاریخ: 1398/10/23  ساعت: 14:00-16:00مکان: دانشکده کامپیوتر-کلاس شماره 117</t>
@@ -10279,7 +10279,7 @@
     <t>اصول طراحی کامپایلر</t>
   </si>
   <si>
-    <t>پارسا سعید</t>
+    <t>سعید پارسا</t>
   </si>
   <si>
     <t>تاریخ: 1398/10/29  ساعت: 14:00-16:00مکان: دانشکده کامپیوتر-کلاس شماره 112</t>
@@ -10291,7 +10291,7 @@
     <t>2211301_02</t>
   </si>
   <si>
-    <t>خنجری عین اله</t>
+    <t>اله خنجری عین</t>
   </si>
   <si>
     <t>تاریخ: 1398/10/29  ساعت: 14:00-16:00مکان: دانشکده کامپیوتر-کلاس شماره 116،دانشکده کامپیوتر-کلاس شماره 117</t>
@@ -10339,7 +10339,7 @@
     <t>تحلیل و طراحی سیستمها</t>
   </si>
   <si>
-    <t>مینائی بهروز</t>
+    <t>بهروز مینائی</t>
   </si>
   <si>
     <t>تاریخ: 1398/10/22  ساعت: 08:00-10:00مکان: دانشکده کامپیوتر-کلاس شماره 112</t>
@@ -10384,7 +10384,7 @@
     <t>روشهای رسمی در مهندسی نرم افزار</t>
   </si>
   <si>
-    <t>عبداللهی ازگمی محمد</t>
+    <t>محمد عبداللهی ازگمی</t>
   </si>
   <si>
     <t>تاریخ: 1398/10/23  ساعت: 08:00-10:00مکان: دانشکده کامپیوتر-کلاس شماره 112</t>
@@ -10396,7 +10396,7 @@
     <t>آزمایشگاه ابزارهای طراحی با کمک کامپیوتر</t>
   </si>
   <si>
-    <t>ذبیح ا... پور علی</t>
+    <t>علی ذبیح ا... پور</t>
   </si>
   <si>
     <t>مجاز برای مقطع کارشناسی، دانشکده مهندسی کامپیوتر، گروه آموزشی واحد آموزش کارشناسی، رشته مهندسی کامپیوتر-معماری سیستمهای کامپیوتری، ، مجاز برای مقطع کارشناسی، دانشکده مهندسی کامپیوتر، گروه آموزشی واحد آموزش کارشناسی، رشته مهندسی کامپیوتر، ، مجاز برای مقطع کارشناسی، دانشکده مهندسی کامپیوتر، گروه آموزشی واحد آموزش کارشناسی، رشته مهندسی کامپیوتر-سخت افزار، ، مجاز برای مقطع کارشناسی، دانشکده مهندسی کامپیوتر، گروه آموزشی واحد آموزش کارشناسی، رشته مهندسی کامپیوتر- نرم افزار،</t>
@@ -10465,7 +10465,7 @@
     <t>ارزشهای دفاع مقدس</t>
   </si>
   <si>
-    <t>دری کفرانی محمد</t>
+    <t>محمد دری کفرانی</t>
   </si>
   <si>
     <t>تاریخ: 1398/10/24  ساعت: 11:00-13:00</t>
@@ -10486,7 +10486,7 @@
     <t>زبان انگلیسی</t>
   </si>
   <si>
-    <t>میرطباطبایی سیدمحمودمشیر احتشامی نفیسه</t>
+    <t>احتشامی نفیسهمیرطباطبایی سید محمودمشیر</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: دانشکده زبان کلاس شماره 304، درس(ت): دوشنبه    08:00-10:00 مکان: دانشکده زبان کلاس شماره 304، حل تمرین(ت): یک شنبه   13:00-14:00</t>
@@ -10510,7 +10510,7 @@
     <t>2811005_22</t>
   </si>
   <si>
-    <t>واعظی شهینمیرطباطبایی سیدمحمود</t>
+    <t>سید محمودواعظی شهینمیرطباطبایی</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    08:00-10:00 مکان: دانشکده زبان کلاس شماره 305، درس(ت): چهارشنبه  08:00-10:00 مکان: دانشکده زبان کلاس شماره 305، حل تمرین(ت): شنبه      13:00-14:00</t>
@@ -10531,7 +10531,7 @@
     <t>2811005_24</t>
   </si>
   <si>
-    <t>مشیر احتشامی نفیسهواعظی شهین</t>
+    <t>شهین مشیر احتشامی نفیسهواعظی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: دانشکده زبان کلاس شماره 306، درس(ت): سه شنبه   08:00-10:00 مکان: دانشکده زبان کلاس شماره 306، حل تمرین(ت): دوشنبه    13:00-14:00</t>
@@ -10552,7 +10552,7 @@
     <t>2811005_26</t>
   </si>
   <si>
-    <t>نیرنیا اکرمتقی زاده محبوبه</t>
+    <t>محبوبه نیرنیا اکرمتقی زاده</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: دانشکده زبان کلاس شماره 305، درس(ت): سه شنبه   10:00-12:00 مکان: دانشکده زبان کلاس شماره 305، حل تمرین(ت): شنبه      17:00-18:00</t>
@@ -10564,7 +10564,7 @@
     <t>2811005_27</t>
   </si>
   <si>
-    <t>امینی فارسانی محمدنیرنیا اکرم</t>
+    <t>اکرم امینی فارسانی محمدنیرنیا</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: دانشکده زبان کلاس شماره 304، درس(ت): سه شنبه   10:00-12:00 مکان: دانشکده زبان کلاس شماره 304، حل تمرین(ت): چهارشنبه  13:00-14:00</t>
@@ -10585,7 +10585,7 @@
     <t>2811005_29</t>
   </si>
   <si>
-    <t>تقی زاده محبوبهامینی فارسانی محمد</t>
+    <t>محمد تقی زاده محبوبهامینی فارسانی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: دانشکده زبان کلاس شماره 306، درس(ت): دوشنبه    10:00-12:00 مکان: دانشکده زبان کلاس شماره 306، حل تمرین(ت): شنبه      17:00-18:00</t>
@@ -10597,7 +10597,7 @@
     <t>2811005_30</t>
   </si>
   <si>
-    <t>هادی نورالهتقی زاده محبوبه</t>
+    <t>محبوبه هادی نورالهتقی زاده</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:00-15:00 مکان: دانشکده زبان کلاس شماره 305، درس(ت): سه شنبه   13:00-15:00 مکان: دانشکده زبان کلاس شماره 305، حل تمرین(ت): شنبه      18:00-19:00</t>
@@ -10609,7 +10609,7 @@
     <t>2811005_31</t>
   </si>
   <si>
-    <t>هادی نورالهامینی فارسانی محمد</t>
+    <t>محمد هادی نورالهامینی فارسانی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   15:00-17:00 مکان: دانشکده زبان کلاس شماره 305، درس(ت): سه شنبه   15:00-17:00 مکان: دانشکده زبان کلاس شماره 305، حل تمرین(ت): دوشنبه    16:30-17:30</t>
@@ -10621,7 +10621,7 @@
     <t>2811005_32</t>
   </si>
   <si>
-    <t>امینی فارسانی محمدهادی نوراله</t>
+    <t>نوراله امینی فارسانی محمدهادی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      15:00-17:00 مکان: دانشکده زبان کلاس شماره 304، درس(ت): دوشنبه    15:00-17:00 مکان: دانشکده زبان کلاس شماره 304، حل تمرین(ت): یک شنبه   17:00-18:00</t>
@@ -10633,7 +10633,7 @@
     <t>زبان فرانسه</t>
   </si>
   <si>
-    <t>هوشمند همدانی نرگس</t>
+    <t>نرگس هوشمند همدانی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:00-15:00 مکان: دانشکده زبان کلاس شماره 307، درس(ت): سه شنبه   13:00-15:00 مکان: دانشکده زبان کلاس شماره 307</t>
@@ -10645,7 +10645,7 @@
     <t>2811027_01</t>
   </si>
   <si>
-    <t>برادران شکوهی شهریار</t>
+    <t>شهریار برادران شکوهی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      13:30-15:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 209</t>
@@ -10663,7 +10663,7 @@
     <t>2811027_03</t>
   </si>
   <si>
-    <t>جوادپور جعفرهاشمی نیاسری مسعود</t>
+    <t>مسعود جوادپور جعفرهاشمی نیاسری</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   10:00-12:00 نیمه1 ت مکان: دانشکده متالوژی و مواد کلاس شماره 106، درس(ت): سه شنبه   10:00-12:00 نیمه2 ت مکان: دانشکده متالوژی و مواد کلاس شماره 106</t>
@@ -10678,7 +10678,7 @@
     <t>2811027_62</t>
   </si>
   <si>
-    <t>تقی زاده محبوبه</t>
+    <t>محبوبه تقی زاده</t>
   </si>
   <si>
     <t>درس(ت): شنبه      15:00-17:00 مکان: دانشکده زبان کلاس شماره 306</t>
@@ -10696,7 +10696,7 @@
     <t>2811027_65</t>
   </si>
   <si>
-    <t>هادی نوراله</t>
+    <t>نوراله هادی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: دانشکده زبان کلاس شماره 307</t>
@@ -10714,7 +10714,7 @@
     <t>2811027_69</t>
   </si>
   <si>
-    <t>امینی فارسانی محمد</t>
+    <t>محمد امینی فارسانی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: دانشکده زبان کلاس شماره 304</t>
@@ -10729,7 +10729,7 @@
     <t>2811027_72</t>
   </si>
   <si>
-    <t>واعظی شهین</t>
+    <t>شهین واعظی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      13:00-15:00 مکان: دانشکده زبان کلاس شماره 305</t>
@@ -10747,7 +10747,7 @@
     <t>شیمی تجزیه</t>
   </si>
   <si>
-    <t>ملاحسینی افسانه</t>
+    <t>افسانه ملاحسینی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:00-15:00 مکان: علوم پایه کلاس شماره 106، درس(ت): سه شنبه   13:00-15:00 مکان: علوم پایه کلاس شماره 106</t>
@@ -10765,7 +10765,7 @@
     <t>شیمی عمومی</t>
   </si>
   <si>
-    <t>اکبرزاده علیرضا</t>
+    <t>علیرضا اکبرزاده</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: دانشکده متالوژی و مواد کلاس شماره 206، درس(ت): دوشنبه    08:00-10:00 مکان: دانشکده متالوژی و مواد کلاس شماره 206</t>
@@ -10786,7 +10786,7 @@
     <t>2911028_03</t>
   </si>
   <si>
-    <t>منطقی فرانک</t>
+    <t>فرانک منطقی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: دانشکده متالوژی و مواد کلاس شماره 206، درس(ت): سه شنبه   08:00-10:00 مکان: دانشکده متالوژی و مواد کلاس شماره 206</t>
@@ -10798,7 +10798,7 @@
     <t>2911028_04</t>
   </si>
   <si>
-    <t>دولت خواه زهرا</t>
+    <t>زهرا دولت خواه</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: دانشکده مکانیک کلاس شماره 110، درس(ت): سه شنبه   08:00-10:00 مکان: دانشکده مکانیک کلاس شماره 110</t>
@@ -10813,7 +10813,7 @@
     <t>2911028_05</t>
   </si>
   <si>
-    <t>صفری فرد وحید</t>
+    <t>وحید صفری فرد</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: علوم پایه کلاس شماره 106، درس(ت): دوشنبه    08:00-10:00 مکان: علوم پایه کلاس شماره 106</t>
@@ -10828,7 +10828,7 @@
     <t>2911028_06</t>
   </si>
   <si>
-    <t>گرشاسبی وحید</t>
+    <t>وحید گرشاسبی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   15:00-17:00 مکان: علوم پایه کلاس شماره 104، درس(ت): سه شنبه   15:00-17:00 مکان: علوم پایه کلاس شماره 104</t>
@@ -10852,7 +10852,7 @@
     <t>آزمایشگاه شیمی عمومی</t>
   </si>
   <si>
-    <t>گرشاسبی وحیداقتصادی آذر حبیب اله</t>
+    <t>اله گرشاسبی وحیداقتصادی آذر حبیب</t>
   </si>
   <si>
     <t>درس(ع): شنبه      17:00-19:00 مکان: دانشکده شیمی آزمایشگاه شماره 235</t>
@@ -10879,7 +10879,7 @@
     <t>2911077_04</t>
   </si>
   <si>
-    <t>عسگری محمدصادقاقتصادی آذر حبیب اله</t>
+    <t>اله عسگری محمدصادقاقتصادی آذر حبیب</t>
   </si>
   <si>
     <t>درس(ع): یک شنبه   17:00-19:00 مکان: دانشکده شیمی آزمایشگاه شماره 235</t>
@@ -10963,7 +10963,7 @@
     <t>شیمی آلی مهندسی شیمی</t>
   </si>
   <si>
-    <t>غفوری حسین</t>
+    <t>حسین غفوری</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   15:00-17:00 مکان: علوم پایه کلاس شماره 105، درس(ت): سه شنبه   15:00-17:00 مکان: علوم پایه کلاس شماره 105</t>
@@ -10993,7 +10993,7 @@
     <t>2911080_02</t>
   </si>
   <si>
-    <t>عسگری محمدصادق</t>
+    <t>محمدصادق عسگری</t>
   </si>
   <si>
     <t>درس(ع): دوشنبه    07:00-10:00 مکان: دانشکده شیمی آزمایشگاه شماره 235</t>
@@ -11029,7 +11029,7 @@
     <t>آزمایشگاه شیمی تجزیه</t>
   </si>
   <si>
-    <t>زارع دورابی روح الهاقتصادی آذر حبیب اله</t>
+    <t>اله زارع دورابی روح الهاقتصادی آذر حبیب</t>
   </si>
   <si>
     <t>درس(ع): سه شنبه   10:00-13:00 مکان: دانشکده شیمی آزمایشگاه شماره 235</t>
@@ -11041,7 +11041,7 @@
     <t>2911083_02</t>
   </si>
   <si>
-    <t>غفاری نژاد علیاقتصادی آذر حبیب اله</t>
+    <t>اله غفاری نژاد علیاقتصادی آذر حبیب</t>
   </si>
   <si>
     <t>درس(ع): سه شنبه   13:00-16:00 مکان: دانشکده شیمی آزمایشگاه شماره 235</t>
@@ -11053,7 +11053,7 @@
     <t>2911083_03</t>
   </si>
   <si>
-    <t>ملاحسینی افسانهاقتصادی آذر حبیب اله</t>
+    <t>اله ملاحسینی افسانهاقتصادی آذر حبیب</t>
   </si>
   <si>
     <t>درس(ع): سه شنبه   07:00-10:00 مکان: دانشکده شیمی آزمایشگاه شماره 235</t>
@@ -11113,7 +11113,7 @@
     <t>دانش خانواده و جمعیت</t>
   </si>
   <si>
-    <t>البرزی زهرا</t>
+    <t>زهرا البرزی</t>
   </si>
   <si>
     <t>درس(ت): چهارشنبه  08:00-10:00</t>
@@ -11131,7 +11131,7 @@
     <t>9011031_04</t>
   </si>
   <si>
-    <t>غفاری جواد</t>
+    <t>جواد غفاری</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00</t>
@@ -11149,7 +11149,7 @@
     <t>9011031_07</t>
   </si>
   <si>
-    <t>داودی عبدالوحید</t>
+    <t>عبدالوحید داودی</t>
   </si>
   <si>
     <t>9011031_09</t>
@@ -11158,7 +11158,7 @@
     <t>9011031_10</t>
   </si>
   <si>
-    <t>پارچه باف رضا</t>
+    <t>رضا پارچه باف</t>
   </si>
   <si>
     <t>9011031_11</t>
@@ -11173,7 +11173,7 @@
     <t>فارسی</t>
   </si>
   <si>
-    <t>طباطبایی شیرازانی سیدذبیح الله</t>
+    <t>ذبیح اللهطباطبایی شیرازانی سید</t>
   </si>
   <si>
     <t>تاریخ: 1398/11/01  ساعت: 11:00-13:00</t>
@@ -11194,7 +11194,7 @@
     <t>62</t>
   </si>
   <si>
-    <t>ارجمندی عبدالمجید</t>
+    <t>عبدالمجید ارجمندی</t>
   </si>
   <si>
     <t>مجاز برای مقطع کارشناسی، دانشکده مهندسی برق، ترم ورود از 3981 تا 3981، با ظرفیت 40، ثبت نام شده 35، مجاز برای مقطع کارشناسی، دانشکده فیزیک، ترم ورود از 3981 تا 3981، با ظرفیت 22، ثبت نام شده 21</t>
@@ -11203,7 +11203,7 @@
     <t>9011054_04</t>
   </si>
   <si>
-    <t>نصیری محسن</t>
+    <t>محسن نصیری</t>
   </si>
   <si>
     <t>مجاز برای مقطع کارشناسی، دانشکده ریاضی و علوم کامپیوتر، ترم ورود از 3981 تا 3981، با ظرفیت 18، ثبت نام شده 15، مجاز برای مقطع کارشناسی، دانشکده مهندسی مواد و متالورژی، ترم ورود از 3981 تا 3981، با ظرفیت 44، ثبت نام شده 43</t>
@@ -11212,7 +11212,7 @@
     <t>9011054_05</t>
   </si>
   <si>
-    <t>البرز پرویز</t>
+    <t>پرویز البرز</t>
   </si>
   <si>
     <t>مجاز برای مقطع کارشناسی، دانشکده مهندسی شیمی، نفت و گاز، ترم ورود از 3981 تا 3981، با ظرفیت 45، ثبت نام شده 34، مجاز برای مقطع کارشناسی، دانشکده مهندسی معماری، ترم ورود از 3981 تا 3981، با ظرفیت 25، ثبت نام شده 21</t>
@@ -11302,7 +11302,7 @@
     <t>اندیشه اسلامی1</t>
   </si>
   <si>
-    <t>ابراهیمی نژاد احمد</t>
+    <t>احمد ابراهیمی نژاد</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   08:00-10:00</t>
@@ -11311,7 +11311,7 @@
     <t>9011086_02</t>
   </si>
   <si>
-    <t>قاسمی محمود رضا</t>
+    <t>رضا قاسمی محمود</t>
   </si>
   <si>
     <t>مجاز برای مقطع کارشناسی، دانشکده مهندسی مکانیک، ترم ورود از 3981 تا 3981، با ظرفیت 20، ثبت نام شده 0، مجاز برای مقطع کارشناسی، ترم ورود از 3912 تا 3972، با ظرفیت 40، ثبت نام شده 40</t>
@@ -11320,7 +11320,7 @@
     <t>9011086_03</t>
   </si>
   <si>
-    <t>واعظی بهروز</t>
+    <t>بهروز واعظی</t>
   </si>
   <si>
     <t>مجاز برای مقطع کارشناسی، دانشکده مهندسی عمران، ترم ورود از 3981 تا 3981، با ظرفیت 25، ثبت نام شده 24، مجاز برای مقطع کارشناسی، ترم ورود از 3921 تا 3972، با ظرفیت 20، ثبت نام شده 15</t>
@@ -11329,7 +11329,7 @@
     <t>9011086_04</t>
   </si>
   <si>
-    <t>کریمی حمید</t>
+    <t>حمید کریمی</t>
   </si>
   <si>
     <t>مجاز برای مقطع کارشناسی، دانشکده مهندسی برق، ترم ورود از 3981 تا 3981، با ظرفیت 40، ثبت نام شده 39</t>
@@ -11344,7 +11344,7 @@
     <t>9011086_06</t>
   </si>
   <si>
-    <t>سجادی سید حسین</t>
+    <t>سید حسینسجادی</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   13:00-15:00</t>
@@ -11365,7 +11365,7 @@
     <t>9011086_08</t>
   </si>
   <si>
-    <t>سوری روح الله</t>
+    <t>الله سوری روح</t>
   </si>
   <si>
     <t>9011086_09</t>
@@ -11407,7 +11407,7 @@
     <t>9011086_14</t>
   </si>
   <si>
-    <t>شجاع منظری غلامعلی</t>
+    <t>غلامعلی شجاع منظری</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    08:00-10:00</t>
@@ -11425,7 +11425,7 @@
     <t>9011087_02</t>
   </si>
   <si>
-    <t>نصیری محمدحسین</t>
+    <t>محمدحسین نصیری</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00</t>
@@ -11437,7 +11437,7 @@
     <t>9011087_04</t>
   </si>
   <si>
-    <t>احمدی مسلم</t>
+    <t>مسلم احمدی</t>
   </si>
   <si>
     <t>9011087_05</t>
@@ -11455,7 +11455,7 @@
     <t>9011087_09</t>
   </si>
   <si>
-    <t>مرشد سلوک مصطفی</t>
+    <t>مصطفی مرشد سلوک</t>
   </si>
   <si>
     <t>9011087_10</t>
@@ -11500,7 +11500,7 @@
     <t>9011091_07</t>
   </si>
   <si>
-    <t>نوحه خوان محمدحسین</t>
+    <t>محمدحسین نوحه خوان</t>
   </si>
   <si>
     <t>مجاز برای مقطع کارشناسی، دانشکده مهندسی معماری، ترم ورود از 3981 تا 3981، با ظرفیت 45، ثبت نام شده 38</t>
@@ -11512,7 +11512,7 @@
     <t>9011091_09</t>
   </si>
   <si>
-    <t>فیروزی مرتضی</t>
+    <t>مرتضی فیروزی</t>
   </si>
   <si>
     <t>مجاز برای مقطع کارشناسی، دانشکده مهندسی مکانیک، ترم ورود از 3981 تا 3981، با ظرفیت 19، ثبت نام شده 19، مجاز برای مقطع کارشناسی، ترم ورود از 3921 تا 3972، با ظرفیت 30، ثبت نام شده 30</t>
@@ -11533,7 +11533,7 @@
     <t>9011091_13</t>
   </si>
   <si>
-    <t>صادقی حسن</t>
+    <t>حسن صادقی</t>
   </si>
   <si>
     <t>مجاز برای مقطع کارشناسی، دانشکده مهندسی مکانیک، ترم ورود از 3981 تا 3981،</t>
@@ -11545,7 +11545,7 @@
     <t>انقلاب اسلامی ایران</t>
   </si>
   <si>
-    <t>اسدی مهدی</t>
+    <t>مهدی اسدی</t>
   </si>
   <si>
     <t>تاریخ: 1398/10/21  ساعت: 11:00-13:00</t>
@@ -11554,7 +11554,7 @@
     <t>9011094_02</t>
   </si>
   <si>
-    <t>شاه علی احمد رضا</t>
+    <t>رضا شاه علی احمد</t>
   </si>
   <si>
     <t>مجاز برای مقطع کارشناسی، دانشکده مهندسی کامپیوتر، ترم ورود از 3981 تا 3981، با ظرفیت 49، ثبت نام شده 40</t>
@@ -11611,7 +11611,7 @@
     <t>تاریخ تحلیلی صدر اسلام</t>
   </si>
   <si>
-    <t>غضنفری سید علی</t>
+    <t>سید علیغضنفری</t>
   </si>
   <si>
     <t>مجاز برای مقطع کارشناسی، دانشکده مهندسی راه  آهن، ترم ورود از 3981 تا 3981، با ظرفیت 8، ثبت نام شده 8، مجاز برای مقطع کارشناسی، دانشکده مهندسی صنایع، ترم ورود از 3981 تا 3981، با ظرفیت 25، ثبت نام شده 24، مجاز برای مقطع کارشناسی، دانشکده مهندسی مکانیک، ترم ورود از 3981 تا 3981، با ظرفیت 15، ثبت نام شده 0</t>
@@ -11626,7 +11626,7 @@
     <t>69</t>
   </si>
   <si>
-    <t>سلیمی سعید</t>
+    <t>سعید سلیمی</t>
   </si>
   <si>
     <t>مجاز برای مقطع کارشناسی، دانشکده مهندسی برق، ترم ورود از 3981 تا 3981، با ظرفیت 33، ثبت نام شده 32، مجاز برای مقطع کارشناسی، دانشکده مهندسی راه  آهن، گروه آموزشی واحد آموزش کارشناسی، رشته مهندسی   ماشینهای ریلی، ترم ورود از 3981 تا 3981، با ظرفیت 30، ثبت نام شده 19</t>
@@ -11638,7 +11638,7 @@
     <t>9011098_05</t>
   </si>
   <si>
-    <t>تاج الدین علی محمد</t>
+    <t>محمد تاج الدین علی</t>
   </si>
   <si>
     <t>مجاز برای مقطع کارشناسی، ترم ورود از 3912 تا 3981، با ظرفیت 22، ثبت نام شده 23، مجاز برای مقطع کارشناسی، دانشکده مهندسی راه  آهن، ترم ورود از 3981 تا 3981، با ظرفیت 25، ثبت نام شده 19</t>
@@ -11647,7 +11647,7 @@
     <t>9011098_06</t>
   </si>
   <si>
-    <t>دادور آلانق مرتضی</t>
+    <t>مرتضی دادور آلانق</t>
   </si>
   <si>
     <t>مجاز برای مقطع کارشناسی، دانشکده مهندسی مواد و متالورژی، ترم ورود از 3981 تا 3981، با ظرفیت 22، ثبت نام شده 17، مجاز برای مقطع کارشناسی، ترم ورود از 3911 تا 3972، با ظرفیت 25، ثبت نام شده 27</t>
@@ -11674,7 +11674,7 @@
     <t>9011098_13</t>
   </si>
   <si>
-    <t>زاهدی مقدم محمد</t>
+    <t>محمد زاهدی مقدم</t>
   </si>
   <si>
     <t>9011098_14</t>
@@ -11689,7 +11689,7 @@
     <t>تفسیر موضوعی قران</t>
   </si>
   <si>
-    <t>نصیری علی</t>
+    <t>علی نصیری</t>
   </si>
   <si>
     <t>مجاز برای مقطع کارشناسی، دانشکده مهندسی مواد و متالورژی، ترم ورود از 3981 تا 3981، با ظرفیت 24، ثبت نام شده 23، مجاز برای مقطع کارشناسی، ترم ورود از 3921 تا 3972، با ظرفیت 24، ثبت نام شده 24</t>
@@ -11710,7 +11710,7 @@
     <t>9011100_04</t>
   </si>
   <si>
-    <t>موسوی سیداصغر</t>
+    <t>سید اصغرموسوی</t>
   </si>
   <si>
     <t>9011100_05</t>
@@ -11746,7 +11746,7 @@
     <t>فرهنگ و تمدن اسلام و ایران</t>
   </si>
   <si>
-    <t>محسنی مصطفی</t>
+    <t>مصطفی محسنی</t>
   </si>
   <si>
     <t>مجاز برای مقطع کارشناسی، ترم ورود از 3911 تا 3961،</t>
@@ -11782,7 +11782,7 @@
     <t>تربیت بدنی</t>
   </si>
   <si>
-    <t>نجاریان مهدی</t>
+    <t>مهدی نجاریان</t>
   </si>
   <si>
     <t>تاریخ: 1398/10/22  ساعت: 13:30-14:00</t>
@@ -11833,7 +11833,7 @@
     <t>9011156_08</t>
   </si>
   <si>
-    <t>سیفی حمید</t>
+    <t>حمید سیفی</t>
   </si>
   <si>
     <t>مجاز برای مقطع کارشناسی، دانشکده مهندسی مواد و متالورژی، گروه آموزشی واحد آموزش کارشناسی، رشته مهندسی مواد و متالورژی، ترم ورود از 3981 تا 3981، با ظرفیت 20، ثبت نام شده 20، مجاز برای مقطع کارشناسی، ترم ورود از 3111 تا 3972، با ظرفیت 4، ثبت نام شده 7</t>
@@ -11860,7 +11860,7 @@
     <t>9011156_12</t>
   </si>
   <si>
-    <t>سیف رضا</t>
+    <t>رضا سیف</t>
   </si>
   <si>
     <t>مجاز برای مقطع کارشناسی، دانشکده مهندسی کامپیوتر، گروه آموزشی واحد آموزش کارشناسی، رشته مهندسی کامپیوتر، ترم ورود از 3981 تا 3981، با ظرفیت 20، ثبت نام شده 20، مجاز برای مقطع کارشناسی، ترم ورود از 3111 تا 3972، با ظرفیت 4، ثبت نام شده 4</t>
@@ -11887,7 +11887,7 @@
     <t>9011156_16</t>
   </si>
   <si>
-    <t>شریعتی جمال الدین</t>
+    <t>الدین شریعتی جمال</t>
   </si>
   <si>
     <t>9011156_17</t>
@@ -11911,7 +11911,7 @@
     <t>9011156_40</t>
   </si>
   <si>
-    <t>فطروسی فرنوش</t>
+    <t>فرنوش فطروسی</t>
   </si>
   <si>
     <t>مجاز برای مقطع کارشناسی، دانشکده مهندسی عمران، گروه آموزشی واحد آموزش کارشناسی، رشته مهندسی عمران-عمران، ترم ورود از 3981 تا 3981، با ظرفیت 22، ثبت نام شده 21</t>
@@ -11929,7 +11929,7 @@
     <t>9011156_43</t>
   </si>
   <si>
-    <t>اسماعیلی شهرزاد</t>
+    <t>شهرزاد اسماعیلی</t>
   </si>
   <si>
     <t>مجاز برای مقطع کارشناسی، دانشکده مهندسی مکانیک، گروه آموزشی واحد آموزش کارشناسی، رشته مهندسی  مکانیک، ترم ورود از 3981 تا 3981، با ظرفیت 18، ثبت نام شده 18، مجاز برای مقطع کارشناسی، ترم ورود از 3111 تا 3972، با ظرفیت 5، ثبت نام شده 5</t>
@@ -11959,7 +11959,7 @@
     <t>9011156_48</t>
   </si>
   <si>
-    <t>نمازی آسیه</t>
+    <t>آسیه نمازی</t>
   </si>
   <si>
     <t>مجاز برای مقطع کارشناسی، دانشکده مهندسی شیمی، نفت و گاز، گروه آموزشی واحد آموزش کارشناسی، رشته مهندسی  شیمی، ترم ورود از 3981 تا 3981، با ظرفیت 20، ثبت نام شده 20</t>
@@ -12040,7 +12040,7 @@
     <t>9011157_26</t>
   </si>
   <si>
-    <t>محمدیان امید</t>
+    <t>امید محمدیان</t>
   </si>
   <si>
     <t>9011157_27</t>
@@ -12079,7 +12079,7 @@
     <t>9011157_35</t>
   </si>
   <si>
-    <t>نوروزی مجید</t>
+    <t>مجید نوروزی</t>
   </si>
   <si>
     <t>9011157_36</t>
@@ -12100,7 +12100,7 @@
     <t>مهارتهای زندگی دانشجویی</t>
   </si>
   <si>
-    <t>نیلوفری شهناز</t>
+    <t>شهناز نیلوفری</t>
   </si>
   <si>
     <t>9011167_02</t>
@@ -12112,7 +12112,7 @@
     <t>کارآفرینی</t>
   </si>
   <si>
-    <t>صالحی سید میعاد</t>
+    <t>سید میعادصالحی</t>
   </si>
   <si>
     <t>مجاز برای مقطع کارشناسی، دانشکده مهندسی معماری، گروه آموزشی واحد آموزش کارشناسی، رشته طراحی  صنعتی، ترم ورود از 3921 تا 3961،</t>
@@ -12130,7 +12130,7 @@
     <t>9011222_03</t>
   </si>
   <si>
-    <t>پارسا نژاد محمدرضا</t>
+    <t>محمدرضا پارسا نژاد</t>
   </si>
   <si>
     <t>درس(ت): شنبه      13:00-14:00 مکان: دانشکده راه آهن کلاس شهید باکری</t>
@@ -12217,7 +12217,7 @@
     <t>9011518_01</t>
   </si>
   <si>
-    <t>علی اکبر علیرضاتقدیر سمانهغفوریان میترا</t>
+    <t>میترا علی اکبر علیرضاتقدیر سمانهغفوریان</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   13:00-15:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 4</t>
@@ -12301,7 +12301,7 @@
     <t>9011522_01</t>
   </si>
   <si>
-    <t>کنگاوری محمدرضا</t>
+    <t>محمدرضا کنگاوری</t>
   </si>
   <si>
     <t>درس(ت): پنج شنبه  08:00-10:00</t>
@@ -12678,7 +12678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X1135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A672" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A678" workbookViewId="0">
       <selection activeCell="H687" sqref="H687"/>
     </sheetView>
   </sheetViews>
